--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2024.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2024.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>140.8186808115243</v>
+        <v>146.2708912737141</v>
       </c>
       <c r="C2">
-        <v>133.6079164335089</v>
+        <v>141.6261704863162</v>
       </c>
       <c r="D2">
-        <v>126.8186375872966</v>
+        <v>137.6665619757325</v>
       </c>
       <c r="E2">
-        <v>114.0290264198762</v>
+        <v>120.9231951436527</v>
       </c>
       <c r="F2">
-        <v>137.5475508952303</v>
+        <v>143.7235990302889</v>
       </c>
       <c r="G2">
-        <v>132.9525666710542</v>
+        <v>139.9704669435321</v>
       </c>
       <c r="H2">
-        <v>147.7882763064418</v>
+        <v>154.0842162175558</v>
       </c>
       <c r="I2">
-        <v>145.8535033020664</v>
+        <v>156.0334419589668</v>
       </c>
       <c r="J2">
-        <v>121.4039001200571</v>
+        <v>127.2181230474936</v>
       </c>
       <c r="K2">
-        <v>132.073311802038</v>
+        <v>137.4533570033858</v>
       </c>
       <c r="L2">
-        <v>164.2714590577355</v>
+        <v>167.8884853408394</v>
       </c>
       <c r="M2">
-        <v>146.4014765075773</v>
+        <v>151.8357328642474</v>
       </c>
       <c r="N2">
-        <v>108.6817995557638</v>
+        <v>113.2568761833515</v>
       </c>
       <c r="O2">
-        <v>144.3860396801725</v>
+        <v>144.9516757119093</v>
       </c>
       <c r="P2">
-        <v>123.447316802785</v>
+        <v>129.1476781963253</v>
       </c>
       <c r="Q2">
-        <v>120.3444367335133</v>
+        <v>125.836036545044</v>
       </c>
       <c r="R2">
-        <v>143.1588341673179</v>
+        <v>148.8869815043636</v>
       </c>
       <c r="S2">
-        <v>193.7345533355428</v>
+        <v>198.4431857049809</v>
       </c>
       <c r="T2">
-        <v>157.5100985738255</v>
+        <v>167.2674888632551</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>14.76294236011544</v>
+        <v>15.33453320534042</v>
       </c>
       <c r="C3">
-        <v>12.58089427068088</v>
+        <v>13.33591544881615</v>
       </c>
       <c r="D3">
-        <v>10.9485881611289</v>
+        <v>11.88511814435233</v>
       </c>
       <c r="E3">
-        <v>13.12405704911657</v>
+        <v>13.91753452128155</v>
       </c>
       <c r="F3">
-        <v>18.43589746264484</v>
+        <v>19.26369111946557</v>
       </c>
       <c r="G3">
-        <v>11.07393384871622</v>
+        <v>11.65847136702219</v>
       </c>
       <c r="H3">
-        <v>11.34569696168652</v>
+        <v>11.82903588481174</v>
       </c>
       <c r="I3">
-        <v>13.33419859892483</v>
+        <v>14.26486752838385</v>
       </c>
       <c r="J3">
-        <v>11.96118188389709</v>
+        <v>12.53402161869819</v>
       </c>
       <c r="K3">
-        <v>13.79761540562127</v>
+        <v>14.35966532729143</v>
       </c>
       <c r="L3">
-        <v>15.74502541764855</v>
+        <v>16.09170871303316</v>
       </c>
       <c r="M3">
-        <v>14.40963810725084</v>
+        <v>14.94450749074091</v>
       </c>
       <c r="N3">
-        <v>10.95234547873067</v>
+        <v>11.4133961792327</v>
       </c>
       <c r="O3">
-        <v>15.12945920211223</v>
+        <v>15.18872924847102</v>
       </c>
       <c r="P3">
-        <v>10.40272195666714</v>
+        <v>10.88308294113677</v>
       </c>
       <c r="Q3">
-        <v>9.155312348925653</v>
+        <v>9.573090793318539</v>
       </c>
       <c r="R3">
-        <v>10.65294035817012</v>
+        <v>11.07919146799013</v>
       </c>
       <c r="S3">
-        <v>22.49138265406937</v>
+        <v>23.03802573128517</v>
       </c>
       <c r="T3">
-        <v>20.36764366610738</v>
+        <v>21.62937259857383</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>14.1488963688165</v>
+        <v>14.6967126128399</v>
       </c>
       <c r="C4">
-        <v>11.02498347639995</v>
+        <v>11.68662928902492</v>
       </c>
       <c r="D4">
-        <v>10.25545854218473</v>
+        <v>11.13269899320108</v>
       </c>
       <c r="E4">
-        <v>13.38893959782067</v>
+        <v>14.19843180798776</v>
       </c>
       <c r="F4">
-        <v>12.97757334379264</v>
+        <v>13.56028177535582</v>
       </c>
       <c r="G4">
-        <v>11.24487665945656</v>
+        <v>11.83843739279411</v>
       </c>
       <c r="H4">
-        <v>11.231535100038</v>
+        <v>11.71001060477142</v>
       </c>
       <c r="I4">
-        <v>13.14562051416429</v>
+        <v>14.06312751544581</v>
       </c>
       <c r="J4">
-        <v>12.05689928565491</v>
+        <v>12.63432307674501</v>
       </c>
       <c r="K4">
-        <v>11.9009040269545</v>
+        <v>12.38569085275838</v>
       </c>
       <c r="L4">
-        <v>12.38283846908293</v>
+        <v>12.65549114081918</v>
       </c>
       <c r="M4">
-        <v>14.6832186381258</v>
+        <v>15.22824301987432</v>
       </c>
       <c r="N4">
-        <v>10.58565520632606</v>
+        <v>11.03126968750066</v>
       </c>
       <c r="O4">
-        <v>18.40398257163679</v>
+        <v>18.47608064769062</v>
       </c>
       <c r="P4">
-        <v>10.20536169011664</v>
+        <v>10.67660927404262</v>
       </c>
       <c r="Q4">
-        <v>10.27218678487218</v>
+        <v>10.74093083771715</v>
       </c>
       <c r="R4">
-        <v>12.65031565940698</v>
+        <v>13.15648681104215</v>
       </c>
       <c r="S4">
-        <v>16.77763849698014</v>
+        <v>17.1854115573324</v>
       </c>
       <c r="T4">
-        <v>12.21384752516778</v>
+        <v>12.97046743917785</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>20.60549877237569</v>
+        <v>21.40330141715228</v>
       </c>
       <c r="C5">
-        <v>16.2970586440408</v>
+        <v>17.2750991674588</v>
       </c>
       <c r="D5">
-        <v>14.32166845657705</v>
+        <v>15.54672795484087</v>
       </c>
       <c r="E5">
-        <v>14.60929134006455</v>
+        <v>15.49256573602708</v>
       </c>
       <c r="F5">
-        <v>14.94032145673645</v>
+        <v>15.61115960594011</v>
       </c>
       <c r="G5">
-        <v>15.62043801672593</v>
+        <v>16.44496272473724</v>
       </c>
       <c r="H5">
-        <v>16.00871098848448</v>
+        <v>16.69069933665967</v>
       </c>
       <c r="I5">
-        <v>18.79995782853821</v>
+        <v>20.11211292330117</v>
       </c>
       <c r="J5">
-        <v>12.77512913242163</v>
+        <v>13.3869500758117</v>
       </c>
       <c r="K5">
-        <v>17.38754483690352</v>
+        <v>18.09583158981856</v>
       </c>
       <c r="L5">
-        <v>21.17063452779102</v>
+        <v>21.63678209813733</v>
       </c>
       <c r="M5">
-        <v>15.42180631040048</v>
+        <v>15.99424622680591</v>
       </c>
       <c r="N5">
-        <v>16.16829805431281</v>
+        <v>16.84891985886991</v>
       </c>
       <c r="O5">
-        <v>24.28014935668595</v>
+        <v>24.37526746756782</v>
       </c>
       <c r="P5">
-        <v>13.34323693581476</v>
+        <v>13.95938052373326</v>
       </c>
       <c r="Q5">
-        <v>12.56153612650742</v>
+        <v>13.13474857651555</v>
       </c>
       <c r="R5">
-        <v>17.73150129496049</v>
+        <v>18.44098354602326</v>
       </c>
       <c r="S5">
-        <v>25.30509429681726</v>
+        <v>25.92012338722071</v>
       </c>
       <c r="T5">
-        <v>25.15130033557047</v>
+        <v>26.7093658557047</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>24.43644659680387</v>
+        <v>25.38257568298782</v>
       </c>
       <c r="C6">
-        <v>24.84796529578537</v>
+        <v>26.33917407858304</v>
       </c>
       <c r="D6">
-        <v>24.16245336136956</v>
+        <v>26.22928259159858</v>
       </c>
       <c r="E6">
-        <v>18.87579239240558</v>
+        <v>20.01701846118781</v>
       </c>
       <c r="F6">
-        <v>18.38760071601734</v>
+        <v>19.21322579164563</v>
       </c>
       <c r="G6">
-        <v>24.60786402846456</v>
+        <v>25.90678995366114</v>
       </c>
       <c r="H6">
-        <v>23.81309167809407</v>
+        <v>24.82755505807325</v>
       </c>
       <c r="I6">
-        <v>26.04556360316245</v>
+        <v>27.86343039252214</v>
       </c>
       <c r="J6">
-        <v>18.65790667111401</v>
+        <v>19.55146304482097</v>
       </c>
       <c r="K6">
-        <v>22.38119426826789</v>
+        <v>23.29289879948999</v>
       </c>
       <c r="L6">
-        <v>26.28115868961076</v>
+        <v>26.85983280790258</v>
       </c>
       <c r="M6">
-        <v>29.27710485800672</v>
+        <v>30.36383770370507</v>
       </c>
       <c r="N6">
-        <v>19.26351043240529</v>
+        <v>20.07442851348995</v>
       </c>
       <c r="O6">
-        <v>26.81339126388432</v>
+        <v>26.91843341522738</v>
       </c>
       <c r="P6">
-        <v>27.64803144935807</v>
+        <v>28.92471996040195</v>
       </c>
       <c r="Q6">
-        <v>22.85596309927648</v>
+        <v>23.89893447423317</v>
       </c>
       <c r="R6">
-        <v>24.76680073156062</v>
+        <v>25.75778312173447</v>
       </c>
       <c r="S6">
-        <v>30.05535801844431</v>
+        <v>30.78584016117076</v>
       </c>
       <c r="T6">
-        <v>33.15427852348994</v>
+        <v>35.20811023489934</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>7.365512063947229</v>
+        <v>7.650689582320569</v>
       </c>
       <c r="C7">
-        <v>6.72389607353752</v>
+        <v>7.127419370520657</v>
       </c>
       <c r="D7">
-        <v>7.599590545166318</v>
+        <v>8.249651018811512</v>
       </c>
       <c r="E7">
-        <v>6.295326727580118</v>
+        <v>6.675940734328066</v>
       </c>
       <c r="F7">
-        <v>7.396527983509904</v>
+        <v>7.728640860556039</v>
       </c>
       <c r="G7">
-        <v>7.731211826928358</v>
+        <v>8.139303787432024</v>
       </c>
       <c r="H7">
-        <v>7.672596527169693</v>
+        <v>7.999457411568391</v>
       </c>
       <c r="I7">
-        <v>8.510055641763669</v>
+        <v>9.104020424498753</v>
       </c>
       <c r="J7">
-        <v>6.527647333016969</v>
+        <v>6.840266587821094</v>
       </c>
       <c r="K7">
-        <v>6.325186893149064</v>
+        <v>6.582845241590579</v>
       </c>
       <c r="L7">
-        <v>7.754163728234767</v>
+        <v>7.92489949797465</v>
       </c>
       <c r="M7">
-        <v>10.15518168833819</v>
+        <v>10.53213048666629</v>
       </c>
       <c r="N7">
-        <v>5.965935239023858</v>
+        <v>6.217077665679709</v>
       </c>
       <c r="O7">
-        <v>7.75004996663766</v>
+        <v>7.780410987125522</v>
       </c>
       <c r="P7">
-        <v>7.715409490031969</v>
+        <v>8.071679869424621</v>
       </c>
       <c r="Q7">
-        <v>6.929903547493942</v>
+        <v>7.246131352021496</v>
       </c>
       <c r="R7">
-        <v>7.438529268562123</v>
+        <v>7.736163653957097</v>
       </c>
       <c r="S7">
-        <v>8.71230453496651</v>
+        <v>8.924053231517792</v>
       </c>
       <c r="T7">
-        <v>9.50233326342282</v>
+        <v>10.09098107172819</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>259</v>
+        <v>230.31</v>
       </c>
       <c r="C8">
-        <v>249</v>
+        <v>203.93</v>
       </c>
       <c r="D8">
-        <v>267</v>
+        <v>204.3</v>
       </c>
       <c r="E8">
-        <v>304</v>
+        <v>261.92</v>
       </c>
       <c r="F8">
-        <v>241</v>
+        <v>206.92</v>
       </c>
       <c r="G8">
-        <v>307</v>
+        <v>270.42</v>
       </c>
       <c r="H8">
-        <v>258</v>
+        <v>226.39</v>
       </c>
       <c r="I8">
-        <v>266</v>
+        <v>214.77</v>
       </c>
       <c r="J8">
-        <v>336</v>
+        <v>304.2</v>
       </c>
       <c r="K8">
-        <v>252</v>
+        <v>221.53</v>
       </c>
       <c r="L8">
-        <v>247</v>
+        <v>230.42</v>
       </c>
       <c r="M8">
-        <v>226</v>
+        <v>197.27</v>
       </c>
       <c r="N8">
-        <v>313</v>
+        <v>284.08</v>
       </c>
       <c r="O8">
-        <v>224</v>
+        <v>220.96</v>
       </c>
       <c r="P8">
-        <v>252</v>
+        <v>217.46</v>
       </c>
       <c r="Q8">
-        <v>320</v>
+        <v>288.97</v>
       </c>
       <c r="R8">
-        <v>202</v>
+        <v>170.07</v>
       </c>
       <c r="S8">
-        <v>166</v>
+        <v>145.73</v>
       </c>
       <c r="T8">
-        <v>235</v>
+        <v>187.61</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>7.609458553064753</v>
+        <v>7.904081179093671</v>
       </c>
       <c r="C9">
-        <v>6.529698520581838</v>
+        <v>6.921567378534734</v>
       </c>
       <c r="D9">
-        <v>7.33468107082501</v>
+        <v>7.96208148438671</v>
       </c>
       <c r="E9">
-        <v>7.847509355013755</v>
+        <v>8.32196796659275</v>
       </c>
       <c r="F9">
-        <v>10.26899678292908</v>
+        <v>10.73008691515862</v>
       </c>
       <c r="G9">
-        <v>8.65487760260932</v>
+        <v>9.111725254418049</v>
       </c>
       <c r="H9">
-        <v>6.380039073471343</v>
+        <v>6.651835616749549</v>
       </c>
       <c r="I9">
-        <v>6.377094754770902</v>
+        <v>6.822188166605934</v>
       </c>
       <c r="J9">
-        <v>5.957534925466733</v>
+        <v>6.242850604126134</v>
       </c>
       <c r="K9">
-        <v>5.147229300082334</v>
+        <v>5.35690319951216</v>
       </c>
       <c r="L9">
-        <v>7.655795744368161</v>
+        <v>7.824365589576161</v>
       </c>
       <c r="M9">
-        <v>7.528649069763127</v>
+        <v>7.808103963528366</v>
       </c>
       <c r="N9">
-        <v>5.206568769398558</v>
+        <v>5.425744852092891</v>
       </c>
       <c r="O9">
-        <v>7.777887789793687</v>
+        <v>7.808357865671231</v>
       </c>
       <c r="P9">
-        <v>9.35854845340582</v>
+        <v>9.790693190813089</v>
       </c>
       <c r="Q9">
-        <v>5.350850206815351</v>
+        <v>5.595022091988114</v>
       </c>
       <c r="R9">
-        <v>4.281256009394089</v>
+        <v>4.452559899594532</v>
       </c>
       <c r="S9">
-        <v>6.295320130350099</v>
+        <v>6.448325093230429</v>
       </c>
       <c r="T9">
-        <v>5.812106753355704</v>
+        <v>6.172153471057048</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>20.43374828471039</v>
+        <v>21.22490110291328</v>
       </c>
       <c r="C10">
-        <v>25.03439494662283</v>
+        <v>26.53679199088953</v>
       </c>
       <c r="D10">
-        <v>21.49379144087444</v>
+        <v>23.33234631583054</v>
       </c>
       <c r="E10">
-        <v>20.17982955525653</v>
+        <v>21.39989741112607</v>
       </c>
       <c r="F10">
-        <v>17.99568449338435</v>
+        <v>18.80371206589362</v>
       </c>
       <c r="G10">
-        <v>20.33932148968388</v>
+        <v>21.41293242776849</v>
       </c>
       <c r="H10">
-        <v>22.53126084226874</v>
+        <v>23.49111684661391</v>
       </c>
       <c r="I10">
-        <v>19.26351431577827</v>
+        <v>20.60802363239587</v>
       </c>
       <c r="J10">
-        <v>19.0771069707833</v>
+        <v>19.9907395034202</v>
       </c>
       <c r="K10">
-        <v>20.65572444322165</v>
+        <v>21.49714145362936</v>
       </c>
       <c r="L10">
-        <v>20.05093021143442</v>
+        <v>20.49242346894515</v>
       </c>
       <c r="M10">
-        <v>16.54244959284747</v>
+        <v>17.15648651378094</v>
       </c>
       <c r="N10">
-        <v>26.05161145935996</v>
+        <v>27.14828191555311</v>
       </c>
       <c r="O10">
-        <v>24.51716853670011</v>
+        <v>24.61321517632843</v>
       </c>
       <c r="P10">
-        <v>19.45911031205961</v>
+        <v>20.35766334705766</v>
       </c>
       <c r="Q10">
-        <v>22.53139535715636</v>
+        <v>23.5595559423513</v>
       </c>
       <c r="R10">
-        <v>26.11770229410537</v>
+        <v>27.16273767537202</v>
       </c>
       <c r="S10">
-        <v>24.25616491775753</v>
+        <v>24.84570024495531</v>
       </c>
       <c r="T10">
-        <v>16.97584416946309</v>
+        <v>18.02745888213088</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>33.53694256933463</v>
+        <v>34.83542419189092</v>
       </c>
       <c r="C11">
-        <v>41.47982052112177</v>
+        <v>43.96916208022558</v>
       </c>
       <c r="D11">
-        <v>38.01526215171184</v>
+        <v>41.26704514886372</v>
       </c>
       <c r="E11">
-        <v>31.38276042695875</v>
+        <v>33.280154907945</v>
       </c>
       <c r="F11">
-        <v>24.47219904113761</v>
+        <v>25.57102979650253</v>
       </c>
       <c r="G11">
-        <v>34.11242795504788</v>
+        <v>35.91305221853368</v>
       </c>
       <c r="H11">
-        <v>45.10006484709303</v>
+        <v>47.02137623498604</v>
       </c>
       <c r="I11">
-        <v>44.88834593700485</v>
+        <v>48.02135678489689</v>
       </c>
       <c r="J11">
-        <v>34.95781165658825</v>
+        <v>36.63199601002124</v>
       </c>
       <c r="K11">
-        <v>36.32778214654559</v>
+        <v>37.80760503692693</v>
       </c>
       <c r="L11">
-        <v>39.86208846219399</v>
+        <v>40.73979553616898</v>
       </c>
       <c r="M11">
-        <v>37.60496002671069</v>
+        <v>39.00081338790887</v>
       </c>
       <c r="N11">
-        <v>32.99274071023151</v>
+        <v>34.38160542833908</v>
       </c>
       <c r="O11">
-        <v>30.39572142087694</v>
+        <v>30.51479744293811</v>
       </c>
       <c r="P11">
-        <v>37.10678996058603</v>
+        <v>38.82025055582486</v>
       </c>
       <c r="Q11">
-        <v>34.08169794022745</v>
+        <v>35.63692600947047</v>
       </c>
       <c r="R11">
-        <v>49.33688407546367</v>
+        <v>51.31097769517489</v>
       </c>
       <c r="S11">
-        <v>29.25754390220188</v>
+        <v>29.96863552677937</v>
       </c>
       <c r="T11">
-        <v>29.79537017617449</v>
+        <v>31.64112519924497</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>10.20243494206475</v>
+        <v>10.59745229494982</v>
       </c>
       <c r="C12">
-        <v>11.64719243606996</v>
+        <v>12.34617907134782</v>
       </c>
       <c r="D12">
-        <v>10.94030974005573</v>
+        <v>11.87613159640156</v>
       </c>
       <c r="E12">
-        <v>10.17323634858052</v>
+        <v>10.78830787954067</v>
       </c>
       <c r="F12">
-        <v>8.934898126087484</v>
+        <v>9.336085646689671</v>
       </c>
       <c r="G12">
-        <v>9.191408189260704</v>
+        <v>9.676576604214754</v>
       </c>
       <c r="H12">
-        <v>10.49063227980901</v>
+        <v>10.93754452558362</v>
       </c>
       <c r="I12">
-        <v>9.960829672331837</v>
+        <v>10.65605215750017</v>
       </c>
       <c r="J12">
-        <v>8.425926023352739</v>
+        <v>8.829456817844632</v>
       </c>
       <c r="K12">
-        <v>10.16314781241081</v>
+        <v>10.57714662771049</v>
       </c>
       <c r="L12">
-        <v>10.20029882704262</v>
+        <v>10.4248950482277</v>
       </c>
       <c r="M12">
-        <v>12.54482387638886</v>
+        <v>13.01047347583157</v>
       </c>
       <c r="N12">
-        <v>9.214897672278108</v>
+        <v>9.602808648525974</v>
       </c>
       <c r="O12">
-        <v>11.52008658833948</v>
+        <v>11.56521682445875</v>
       </c>
       <c r="P12">
-        <v>12.38779905627382</v>
+        <v>12.95982389504881</v>
       </c>
       <c r="Q12">
-        <v>11.35083589787093</v>
+        <v>11.86880124773995</v>
       </c>
       <c r="R12">
-        <v>12.39646044130945</v>
+        <v>12.89247420307763</v>
       </c>
       <c r="S12">
-        <v>9.168322876818738</v>
+        <v>9.391154896858444</v>
       </c>
       <c r="T12">
-        <v>12.06784291107382</v>
+        <v>12.81541817323826</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>2.463023586385985</v>
+        <v>2.558386807294776</v>
       </c>
       <c r="C13">
-        <v>2.691578083965747</v>
+        <v>2.853108608924916</v>
       </c>
       <c r="D13">
-        <v>2.532444264654849</v>
+        <v>2.749066714032555</v>
       </c>
       <c r="E13">
-        <v>2.196924215762845</v>
+        <v>2.329749748807818</v>
       </c>
       <c r="F13">
-        <v>2.393460082867741</v>
+        <v>2.500929278683463</v>
       </c>
       <c r="G13">
-        <v>1.770479111239168</v>
+        <v>1.863933838351908</v>
       </c>
       <c r="H13">
-        <v>2.406593338510087</v>
+        <v>2.509116809440415</v>
       </c>
       <c r="I13">
-        <v>2.436488959675075</v>
+        <v>2.606545266765203</v>
       </c>
       <c r="J13">
-        <v>1.833302643887031</v>
+        <v>1.921102378940656</v>
       </c>
       <c r="K13">
-        <v>2.195424223323197</v>
+        <v>2.284855474773275</v>
       </c>
       <c r="L13">
-        <v>2.303194122251694</v>
+        <v>2.353907214611499</v>
       </c>
       <c r="M13">
-        <v>2.490938769453358</v>
+        <v>2.58339958450038</v>
       </c>
       <c r="N13">
-        <v>1.789419656084712</v>
+        <v>1.864747190952208</v>
       </c>
       <c r="O13">
-        <v>2.565056562233832</v>
+        <v>2.575105237426088</v>
       </c>
       <c r="P13">
-        <v>2.74391967487058</v>
+        <v>2.870624201033722</v>
       </c>
       <c r="Q13">
-        <v>2.304639470814352</v>
+        <v>2.409805592548719</v>
       </c>
       <c r="R13">
-        <v>2.397340114316576</v>
+        <v>2.493263760745308</v>
       </c>
       <c r="S13">
-        <v>2.301017981162591</v>
+        <v>2.356943202359433</v>
       </c>
       <c r="T13">
-        <v>3.180012583892617</v>
+        <v>3.377007088926175</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>6.920936686583513</v>
+        <v>7.188901158294822</v>
       </c>
       <c r="C14">
-        <v>6.269473799621224</v>
+        <v>6.645725709273593</v>
       </c>
       <c r="D14">
-        <v>6.037226713539732</v>
+        <v>6.553644332828873</v>
       </c>
       <c r="E14">
-        <v>6.702838340971041</v>
+        <v>7.108090406183773</v>
       </c>
       <c r="F14">
-        <v>4.830466412694705</v>
+        <v>5.047360082450481</v>
       </c>
       <c r="G14">
-        <v>5.36027813678617</v>
+        <v>5.643220379561983</v>
       </c>
       <c r="H14">
-        <v>6.566988699258182</v>
+        <v>6.846749498157847</v>
       </c>
       <c r="I14">
-        <v>5.588973595751737</v>
+        <v>5.979059586637788</v>
       </c>
       <c r="J14">
-        <v>5.111448987300882</v>
+        <v>5.356244285186677</v>
       </c>
       <c r="K14">
-        <v>7.12840960654398</v>
+        <v>7.418787468457611</v>
       </c>
       <c r="L14">
-        <v>6.101120499351419</v>
+        <v>6.235458584184415</v>
       </c>
       <c r="M14">
-        <v>6.54200441468346</v>
+        <v>6.784836180618673</v>
       </c>
       <c r="N14">
-        <v>4.816058065912544</v>
+        <v>5.018795182748338</v>
       </c>
       <c r="O14">
-        <v>7.585409126829164</v>
+        <v>7.615125162583753</v>
       </c>
       <c r="P14">
-        <v>6.672765911317556</v>
+        <v>6.980890690163689</v>
       </c>
       <c r="Q14">
-        <v>5.418265776377773</v>
+        <v>5.66551399261454</v>
       </c>
       <c r="R14">
-        <v>5.526860712985201</v>
+        <v>5.748004400410786</v>
       </c>
       <c r="S14">
-        <v>6.40431112983677</v>
+        <v>6.559965070606303</v>
       </c>
       <c r="T14">
-        <v>5.936451342281879</v>
+        <v>6.304200922818794</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.452279566054803</v>
+        <v>1.508508851817438</v>
       </c>
       <c r="C15">
-        <v>1.621937962285853</v>
+        <v>1.719275837066443</v>
       </c>
       <c r="D15">
-        <v>1.318526701835155</v>
+        <v>1.431312000887083</v>
       </c>
       <c r="E15">
-        <v>1.211619350528366</v>
+        <v>1.284873577928128</v>
       </c>
       <c r="F15">
-        <v>1.714930380248603</v>
+        <v>1.79193278783605</v>
       </c>
       <c r="G15">
-        <v>1.590917335251423</v>
+        <v>1.674893895314189</v>
       </c>
       <c r="H15">
-        <v>1.588305632197201</v>
+        <v>1.655969164587705</v>
       </c>
       <c r="I15">
-        <v>1.223879283167036</v>
+        <v>1.309300721418599</v>
       </c>
       <c r="J15">
-        <v>1.270875575164066</v>
+        <v>1.331739796986682</v>
       </c>
       <c r="K15">
-        <v>1.551156674051367</v>
+        <v>1.614343497391401</v>
       </c>
       <c r="L15">
-        <v>1.337189780686669</v>
+        <v>1.366632817291962</v>
       </c>
       <c r="M15">
-        <v>2.299512158928604</v>
+        <v>2.384867435835605</v>
       </c>
       <c r="N15">
-        <v>1.033662342683867</v>
+        <v>1.077175464882437</v>
       </c>
       <c r="O15">
-        <v>1.921605164141686</v>
+        <v>1.929133101898118</v>
       </c>
       <c r="P15">
-        <v>1.888691853151788</v>
+        <v>1.975904976959091</v>
       </c>
       <c r="Q15">
-        <v>1.369856573273549</v>
+        <v>1.432366351903958</v>
       </c>
       <c r="R15">
-        <v>1.134594061593476</v>
+        <v>1.179992042027912</v>
       </c>
       <c r="S15">
-        <v>1.339281401692209</v>
+        <v>1.371832041994729</v>
       </c>
       <c r="T15">
-        <v>2.097813548657718</v>
+        <v>2.227768299077182</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>2.66061264299208</v>
+        <v>2.763626106861774</v>
       </c>
       <c r="C16">
-        <v>2.634095608290865</v>
+        <v>2.792176419297083</v>
       </c>
       <c r="D16">
-        <v>3.020871107971638</v>
+        <v>3.279273043128284</v>
       </c>
       <c r="E16">
-        <v>3.013402841163943</v>
+        <v>3.19559248420443</v>
       </c>
       <c r="F16">
-        <v>3.239049023821346</v>
+        <v>3.384486165760519</v>
       </c>
       <c r="G16">
-        <v>2.425520470042462</v>
+        <v>2.553551550553506</v>
       </c>
       <c r="H16">
-        <v>2.81420481768467</v>
+        <v>2.934092977101129</v>
       </c>
       <c r="I16">
-        <v>2.308766750873113</v>
+        <v>2.469908604615933</v>
       </c>
       <c r="J16">
-        <v>2.058972138542332</v>
+        <v>2.157579539153245</v>
       </c>
       <c r="K16">
-        <v>2.335949803200128</v>
+        <v>2.431105405477545</v>
       </c>
       <c r="L16">
-        <v>2.285518625150664</v>
+        <v>2.335842527946145</v>
       </c>
       <c r="M16">
-        <v>3.124241805939418</v>
+        <v>3.240210109666343</v>
       </c>
       <c r="N16">
-        <v>2.314190971120446</v>
+        <v>2.411609315930932</v>
       </c>
       <c r="O16">
-        <v>2.826732099900477</v>
+        <v>2.837805895755757</v>
       </c>
       <c r="P16">
-        <v>2.38515236862182</v>
+        <v>2.495290286819945</v>
       </c>
       <c r="Q16">
-        <v>2.295604394481245</v>
+        <v>2.400358224423528</v>
       </c>
       <c r="R16">
-        <v>2.724658257265486</v>
+        <v>2.833678731143289</v>
       </c>
       <c r="S16">
-        <v>2.191155053680027</v>
+        <v>2.244410105164552</v>
       </c>
       <c r="T16">
-        <v>2.052889052013423</v>
+        <v>2.180060832634229</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>18.1553944704601</v>
+        <v>18.8583341025215</v>
       </c>
       <c r="C17">
-        <v>18.75171571340061</v>
+        <v>19.87706834616089</v>
       </c>
       <c r="D17">
-        <v>16.21742688233205</v>
+        <v>17.60464743556836</v>
       </c>
       <c r="E17">
-        <v>19.59621470893596</v>
+        <v>20.78099734536129</v>
       </c>
       <c r="F17">
-        <v>18.62750094926541</v>
+        <v>19.46389782983322</v>
       </c>
       <c r="G17">
-        <v>14.73196634913857</v>
+        <v>15.5095930865866</v>
       </c>
       <c r="H17">
-        <v>18.07971442496737</v>
+        <v>18.84992975242454</v>
       </c>
       <c r="I17">
-        <v>16.76015902325981</v>
+        <v>17.92994505427017</v>
       </c>
       <c r="J17">
-        <v>15.50761641909929</v>
+        <v>16.25030045844772</v>
       </c>
       <c r="K17">
-        <v>19.98304461823699</v>
+        <v>20.79705981812695</v>
       </c>
       <c r="L17">
-        <v>17.67549710103069</v>
+        <v>18.06468666535351</v>
       </c>
       <c r="M17">
-        <v>18.20865871529001</v>
+        <v>18.88454342445058</v>
       </c>
       <c r="N17">
-        <v>18.69542924267609</v>
+        <v>19.48243333830665</v>
       </c>
       <c r="O17">
-        <v>19.45307082143102</v>
+        <v>19.52927872774179</v>
       </c>
       <c r="P17">
-        <v>16.56143322022528</v>
+        <v>17.32618175421803</v>
       </c>
       <c r="Q17">
-        <v>15.96150485124319</v>
+        <v>16.68986587408742</v>
       </c>
       <c r="R17">
-        <v>15.73739101260592</v>
+        <v>16.36708386352385</v>
       </c>
       <c r="S17">
-        <v>25.12198941767965</v>
+        <v>25.73256822522924</v>
       </c>
       <c r="T17">
-        <v>21.86378984899329</v>
+        <v>23.21820161493289</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>18.9237119174938</v>
+        <v>19.65639922506856</v>
       </c>
       <c r="C18">
-        <v>19.16341452566666</v>
+        <v>20.31347456917105</v>
       </c>
       <c r="D18">
-        <v>19.4347223448579</v>
+        <v>21.0971467528014</v>
       </c>
       <c r="E18">
-        <v>18.18520574756989</v>
+        <v>19.2846791065609</v>
       </c>
       <c r="F18">
-        <v>20.836483295015</v>
+        <v>21.77206610225362</v>
       </c>
       <c r="G18">
-        <v>16.96930607794587</v>
+        <v>17.86503077683658</v>
       </c>
       <c r="H18">
-        <v>18.07358492903993</v>
+        <v>18.84353913336197</v>
       </c>
       <c r="I18">
-        <v>19.18913491182889</v>
+        <v>20.52845287032071</v>
       </c>
       <c r="J18">
-        <v>17.09359088618144</v>
+        <v>17.91222972681483</v>
       </c>
       <c r="K18">
-        <v>20.51750256137548</v>
+        <v>21.3532890627727</v>
       </c>
       <c r="L18">
-        <v>17.5494631217016</v>
+        <v>17.93587759521795</v>
       </c>
       <c r="M18">
-        <v>20.80328689877761</v>
+        <v>21.57548125614439</v>
       </c>
       <c r="N18">
-        <v>18.55034116245301</v>
+        <v>19.33123762012134</v>
       </c>
       <c r="O18">
-        <v>18.8080286905871</v>
+        <v>18.88170962772549</v>
       </c>
       <c r="P18">
-        <v>21.52909822401941</v>
+        <v>22.52323599495206</v>
       </c>
       <c r="Q18">
-        <v>15.19699839228789</v>
+        <v>15.89047318657126</v>
       </c>
       <c r="R18">
-        <v>22.77269044920605</v>
+        <v>23.68388343923505</v>
       </c>
       <c r="S18">
-        <v>21.80691917729307</v>
+        <v>22.33692667336469</v>
       </c>
       <c r="T18">
-        <v>16.95338192114094</v>
+        <v>18.0036051489094</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>18.3628629798965</v>
+        <v>19.07383536706685</v>
       </c>
       <c r="C19">
-        <v>20.18411686400172</v>
+        <v>21.39543263904907</v>
       </c>
       <c r="D19">
-        <v>19.13067851635253</v>
+        <v>20.76709535533657</v>
       </c>
       <c r="E19">
-        <v>17.13513564377864</v>
+        <v>18.17112200568986</v>
       </c>
       <c r="F19">
-        <v>23.64877909863598</v>
+        <v>24.71063732219529</v>
       </c>
       <c r="G19">
-        <v>18.22911149827589</v>
+        <v>19.19133501718922</v>
       </c>
       <c r="H19">
-        <v>16.75957423959555</v>
+        <v>17.47355017182414</v>
       </c>
       <c r="I19">
-        <v>15.73763004573352</v>
+        <v>16.83604801200454</v>
       </c>
       <c r="J19">
-        <v>16.17204889407511</v>
+        <v>16.9465536453275</v>
       </c>
       <c r="K19">
-        <v>21.56491726603195</v>
+        <v>22.44337051348649</v>
       </c>
       <c r="L19">
-        <v>16.52121029034599</v>
+        <v>16.88498408398999</v>
       </c>
       <c r="M19">
-        <v>22.1783680510471</v>
+        <v>23.00160385738635</v>
       </c>
       <c r="N19">
-        <v>15.32303366654549</v>
+        <v>15.96807316237736</v>
       </c>
       <c r="O19">
-        <v>17.52033052802693</v>
+        <v>17.58896687442538</v>
       </c>
       <c r="P19">
-        <v>25.56044940510888</v>
+        <v>26.74074074528597</v>
       </c>
       <c r="Q19">
-        <v>16.71419621037828</v>
+        <v>17.47690431097833</v>
       </c>
       <c r="R19">
-        <v>25.95934887831463</v>
+        <v>26.998048138571</v>
       </c>
       <c r="S19">
-        <v>18.62874163226175</v>
+        <v>19.08150493308423</v>
       </c>
       <c r="T19">
-        <v>11.8464293204698</v>
+        <v>12.58028851719799</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>3.401571605264939</v>
+        <v>3.533273480238018</v>
       </c>
       <c r="C20">
-        <v>4.848724502197458</v>
+        <v>5.139712535904568</v>
       </c>
       <c r="D20">
-        <v>8.430442987418608</v>
+        <v>9.151573649507483</v>
       </c>
       <c r="E20">
-        <v>6.130138984294868</v>
+        <v>6.500765778057986</v>
       </c>
       <c r="F20">
-        <v>4.011005219916632</v>
+        <v>4.191104110423559</v>
       </c>
       <c r="G20">
-        <v>8.14133092328437</v>
+        <v>8.571071017330175</v>
       </c>
       <c r="H20">
-        <v>3.106888248219803</v>
+        <v>3.239245037338708</v>
       </c>
       <c r="I20">
-        <v>3.733996339680889</v>
+        <v>3.994613005187499</v>
       </c>
       <c r="J20">
-        <v>9.47951610985489</v>
+        <v>9.93350498379071</v>
       </c>
       <c r="K20">
-        <v>7.81337582102607</v>
+        <v>8.131655983147281</v>
       </c>
       <c r="L20">
-        <v>7.350701294406893</v>
+        <v>7.512553389308971</v>
       </c>
       <c r="M20">
-        <v>6.32904231047467</v>
+        <v>6.563969165229111</v>
       </c>
       <c r="N20">
-        <v>7.175002574216229</v>
+        <v>7.47704198389066</v>
       </c>
       <c r="O20">
-        <v>4.321225520191134</v>
+        <v>4.338154032538275</v>
       </c>
       <c r="P20">
-        <v>8.962297995757936</v>
+        <v>9.376145285562052</v>
       </c>
       <c r="Q20">
-        <v>5.307064836893365</v>
+        <v>5.549238692612189</v>
       </c>
       <c r="R20">
-        <v>4.206976829822143</v>
+        <v>4.375308622022921</v>
       </c>
       <c r="S20">
-        <v>4.193973660247088</v>
+        <v>4.295906329423596</v>
       </c>
       <c r="T20">
-        <v>3.042030201342282</v>
+        <v>3.230477013422819</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>30.07685420499788</v>
+        <v>31.2413683037042</v>
       </c>
       <c r="C21">
-        <v>27.84948267426838</v>
+        <v>29.52082246671749</v>
       </c>
       <c r="D21">
-        <v>26.39160638125297</v>
+        <v>28.64911486707091</v>
       </c>
       <c r="E21">
-        <v>26.46715159043076</v>
+        <v>28.06734949118554</v>
       </c>
       <c r="F21">
-        <v>28.38819426768867</v>
+        <v>29.66285785219833</v>
       </c>
       <c r="G21">
-        <v>22.41290087879036</v>
+        <v>23.59596568996806</v>
       </c>
       <c r="H21">
-        <v>28.56881433079452</v>
+        <v>29.78587662324252</v>
       </c>
       <c r="I21">
-        <v>29.20556131034511</v>
+        <v>31.24398216310939</v>
       </c>
       <c r="J21">
-        <v>22.80240030051106</v>
+        <v>23.89444296550542</v>
       </c>
       <c r="K21">
-        <v>28.78009949840158</v>
+        <v>29.95246531620412</v>
       </c>
       <c r="L21">
-        <v>28.87638276396644</v>
+        <v>29.5122000630721</v>
       </c>
       <c r="M21">
-        <v>29.54270928010981</v>
+        <v>30.63930105997745</v>
       </c>
       <c r="N21">
-        <v>22.85389904449297</v>
+        <v>23.81595837544892</v>
       </c>
       <c r="O21">
-        <v>29.01019319408272</v>
+        <v>29.12384137360594</v>
       </c>
       <c r="P21">
-        <v>32.22327080687157</v>
+        <v>33.71122772354182</v>
       </c>
       <c r="Q21">
-        <v>22.23462784990735</v>
+        <v>23.24924623547003</v>
       </c>
       <c r="R21">
-        <v>28.66523327700699</v>
+        <v>29.81220182153686</v>
       </c>
       <c r="S21">
-        <v>21.24190983595417</v>
+        <v>21.75818503064816</v>
       </c>
       <c r="T21">
-        <v>23.5219851090604</v>
+        <v>24.97911827810403</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>71.78106443335446</v>
+        <v>74.56028000500484</v>
       </c>
       <c r="C22">
-        <v>65.3832089193307</v>
+        <v>69.30707206978909</v>
       </c>
       <c r="D22">
-        <v>69.2068475879332</v>
+        <v>75.12672390957495</v>
       </c>
       <c r="E22">
-        <v>73.68173819762683</v>
+        <v>78.13651915072474</v>
       </c>
       <c r="F22">
-        <v>78.73161450227198</v>
+        <v>82.26675735106964</v>
       </c>
       <c r="G22">
-        <v>72.822355622486</v>
+        <v>76.6662831386051</v>
       </c>
       <c r="H22">
-        <v>67.99296594908057</v>
+        <v>70.88953960629141</v>
       </c>
       <c r="I22">
-        <v>77.95487448872221</v>
+        <v>83.39578487027157</v>
       </c>
       <c r="J22">
-        <v>60.48850724078028</v>
+        <v>63.38539659357668</v>
       </c>
       <c r="K22">
-        <v>72.46819685325525</v>
+        <v>75.42021016624817</v>
       </c>
       <c r="L22">
-        <v>69.39707561814231</v>
+        <v>70.92510153281535</v>
       </c>
       <c r="M22">
-        <v>87.01775147928993</v>
+        <v>90.24775147928993</v>
       </c>
       <c r="N22">
-        <v>60.70023304537135</v>
+        <v>63.25547429671362</v>
       </c>
       <c r="O22">
-        <v>79.18190418500059</v>
+        <v>79.49210133541607</v>
       </c>
       <c r="P22">
-        <v>61.96576896093988</v>
+        <v>64.8271294688421</v>
       </c>
       <c r="Q22">
-        <v>58.21786185531818</v>
+        <v>60.87447987498071</v>
       </c>
       <c r="R22">
-        <v>71.18720669042466</v>
+        <v>74.03558702830092</v>
       </c>
       <c r="S22">
-        <v>57.39640418567257</v>
+        <v>58.79139832577278</v>
       </c>
       <c r="T22">
-        <v>62.96087982382551</v>
+        <v>66.86116230075505</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>11.54832040071627</v>
+        <v>11.99544767776964</v>
       </c>
       <c r="C23">
-        <v>11.77691640144435</v>
+        <v>12.48368820199442</v>
       </c>
       <c r="D23">
-        <v>11.71170806732801</v>
+        <v>12.71351447363287</v>
       </c>
       <c r="E23">
-        <v>16.20222512883728</v>
+        <v>17.18180793547733</v>
       </c>
       <c r="F23">
-        <v>23.88392883221577</v>
+        <v>24.95634555764649</v>
       </c>
       <c r="G23">
-        <v>11.08901703789919</v>
+        <v>11.67435072223737</v>
       </c>
       <c r="H23">
-        <v>9.743599963652585</v>
+        <v>10.15868782733326</v>
       </c>
       <c r="I23">
-        <v>7.813593950237676</v>
+        <v>8.358948743249496</v>
       </c>
       <c r="J23">
-        <v>10.86008243009909</v>
+        <v>11.38018878744419</v>
       </c>
       <c r="K23">
-        <v>10.32594247325185</v>
+        <v>10.74657277694167</v>
       </c>
       <c r="L23">
-        <v>6.783548387425994</v>
+        <v>6.932912573698933</v>
       </c>
       <c r="M23">
-        <v>10.04112333290052</v>
+        <v>10.41383841475353</v>
       </c>
       <c r="N23">
-        <v>18.86505958522547</v>
+        <v>19.65920445160789</v>
       </c>
       <c r="O23">
-        <v>7.526552015013565</v>
+        <v>7.556037476515682</v>
       </c>
       <c r="P23">
-        <v>8.594351142227758</v>
+        <v>8.991207944971805</v>
       </c>
       <c r="Q23">
-        <v>10.66486510242649</v>
+        <v>11.15152799085045</v>
       </c>
       <c r="R23">
-        <v>7.742176024614478</v>
+        <v>8.051960085348739</v>
       </c>
       <c r="S23">
-        <v>26.68884402630002</v>
+        <v>27.3375045399848</v>
       </c>
       <c r="T23">
-        <v>26.42121958892617</v>
+        <v>28.05795370176175</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>2.298112719910897</v>
+        <v>2.387090930348473</v>
       </c>
       <c r="C24">
-        <v>2.34202248864552</v>
+        <v>2.482575023350252</v>
       </c>
       <c r="D24">
-        <v>2.876375031058196</v>
+        <v>3.122416933442028</v>
       </c>
       <c r="E24">
-        <v>1.810515882351096</v>
+        <v>1.919979256387496</v>
       </c>
       <c r="F24">
-        <v>2.508263824851143</v>
+        <v>2.620887844812839</v>
       </c>
       <c r="G24">
-        <v>1.439367196317766</v>
+        <v>1.515344183390354</v>
       </c>
       <c r="H24">
-        <v>2.483978224593983</v>
+        <v>2.589798375105325</v>
       </c>
       <c r="I24">
-        <v>1.866998169840445</v>
+        <v>1.997306502593749</v>
       </c>
       <c r="J24">
-        <v>2.362892355802568</v>
+        <v>2.476054971637691</v>
       </c>
       <c r="K24">
-        <v>3.229016739795048</v>
+        <v>3.360551686401407</v>
       </c>
       <c r="L24">
-        <v>3.023278504150206</v>
+        <v>3.089846840934814</v>
       </c>
       <c r="M24">
-        <v>2.475784162786816</v>
+        <v>2.567682456064419</v>
       </c>
       <c r="N24">
-        <v>1.774983031186893</v>
+        <v>1.849702840884018</v>
       </c>
       <c r="O24">
-        <v>2.422685980950155</v>
+        <v>2.432176915720888</v>
       </c>
       <c r="P24">
-        <v>3.016246244219319</v>
+        <v>3.155525850202388</v>
       </c>
       <c r="Q24">
-        <v>1.998836887232231</v>
+        <v>2.090048517542254</v>
       </c>
       <c r="R24">
-        <v>2.958107107348747</v>
+        <v>3.076468460654068</v>
       </c>
       <c r="S24">
-        <v>0.9024454757496332</v>
+        <v>0.9243790126722292</v>
       </c>
       <c r="T24">
-        <v>2.860727768456376</v>
+        <v>3.037943309563759</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>22.82685574337421</v>
+        <v>23.71066477343819</v>
       </c>
       <c r="C25">
-        <v>23.5810204603025</v>
+        <v>24.99619568286687</v>
       </c>
       <c r="D25">
-        <v>23.92538948518344</v>
+        <v>25.97194053664456</v>
       </c>
       <c r="E25">
-        <v>23.72809138899606</v>
+        <v>25.16268633964111</v>
       </c>
       <c r="F25">
-        <v>23.94489357795868</v>
+        <v>25.02004769276346</v>
       </c>
       <c r="G25">
-        <v>20.6172831189129</v>
+        <v>21.70556625959088</v>
       </c>
       <c r="H25">
-        <v>24.09045136881061</v>
+        <v>25.11673057065442</v>
       </c>
       <c r="I25">
-        <v>22.27249929373037</v>
+        <v>23.82702264361839</v>
       </c>
       <c r="J25">
-        <v>21.10394041968431</v>
+        <v>22.11464118074751</v>
       </c>
       <c r="K25">
-        <v>24.07594811957055</v>
+        <v>25.05668894738248</v>
       </c>
       <c r="L25">
-        <v>24.89171091749495</v>
+        <v>25.43979135177393</v>
       </c>
       <c r="M25">
-        <v>23.44258129138765</v>
+        <v>24.31274325585996</v>
       </c>
       <c r="N25">
-        <v>22.31613476704919</v>
+        <v>23.25555633540882</v>
       </c>
       <c r="O25">
-        <v>21.64987275162942</v>
+        <v>21.73468668612035</v>
       </c>
       <c r="P25">
-        <v>21.24147240920164</v>
+        <v>22.22232863515595</v>
       </c>
       <c r="Q25">
-        <v>20.44985277118261</v>
+        <v>21.3830276704323</v>
       </c>
       <c r="R25">
-        <v>26.20749031336817</v>
+        <v>27.25611834056847</v>
       </c>
       <c r="S25">
-        <v>30.61513579180786</v>
+        <v>31.35922308497325</v>
       </c>
       <c r="T25">
-        <v>23.85009437919463</v>
+        <v>25.32755316694631</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>6.453562571919094</v>
+        <v>6.703431276626731</v>
       </c>
       <c r="C26">
-        <v>7.320470956217373</v>
+        <v>7.759796689901417</v>
       </c>
       <c r="D26">
-        <v>6.836470638967205</v>
+        <v>7.421254689530974</v>
       </c>
       <c r="E26">
-        <v>5.759740035694906</v>
+        <v>6.107972594174852</v>
       </c>
       <c r="F26">
-        <v>7.294392240641912</v>
+        <v>7.621919101723698</v>
       </c>
       <c r="G26">
-        <v>5.603045657921602</v>
+        <v>5.898802382548979</v>
       </c>
       <c r="H26">
-        <v>6.370078642589258</v>
+        <v>6.641450860772879</v>
       </c>
       <c r="I26">
-        <v>5.588222288641138</v>
+        <v>5.978255841566321</v>
       </c>
       <c r="J26">
-        <v>6.565375359987205</v>
+        <v>6.879801469095026</v>
       </c>
       <c r="K26">
-        <v>6.720655055097804</v>
+        <v>6.994422915430468</v>
       </c>
       <c r="L26">
-        <v>6.313226464563787</v>
+        <v>6.452234824168657</v>
       </c>
       <c r="M26">
-        <v>6.274804770825991</v>
+        <v>6.507718389774092</v>
       </c>
       <c r="N26">
-        <v>6.451727666835479</v>
+        <v>6.723320045474319</v>
       </c>
       <c r="O26">
-        <v>5.798220880212289</v>
+        <v>5.820935559949205</v>
       </c>
       <c r="P26">
-        <v>7.38724067472127</v>
+        <v>7.728357376465752</v>
       </c>
       <c r="Q26">
-        <v>6.62966101088604</v>
+        <v>6.932188042015148</v>
       </c>
       <c r="R26">
-        <v>7.042645729085264</v>
+        <v>7.324439811954552</v>
       </c>
       <c r="S26">
-        <v>7.231770797939573</v>
+        <v>7.407535778843932</v>
       </c>
       <c r="T26">
-        <v>6.649627726510067</v>
+        <v>7.061556952600672</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>11.51792208431533</v>
+        <v>11.96387240091318</v>
       </c>
       <c r="C27">
-        <v>12.09540038829167</v>
+        <v>12.82128546885134</v>
       </c>
       <c r="D27">
-        <v>12.03306132171363</v>
+        <v>13.06235592590387</v>
       </c>
       <c r="E27">
-        <v>15.86602804778977</v>
+        <v>16.82528445619637</v>
       </c>
       <c r="F27">
-        <v>18.61087420042644</v>
+        <v>19.44652452025586</v>
       </c>
       <c r="G27">
-        <v>12.22025622662199</v>
+        <v>12.86530236337499</v>
       </c>
       <c r="H27">
-        <v>10.27226898739405</v>
+        <v>10.70987872147967</v>
       </c>
       <c r="I27">
-        <v>10.65654005674723</v>
+        <v>11.40032009367797</v>
       </c>
       <c r="J27">
-        <v>13.08324135267856</v>
+        <v>13.70981827288214</v>
       </c>
       <c r="K27">
-        <v>12.95139032898532</v>
+        <v>13.47896902326899</v>
       </c>
       <c r="L27">
-        <v>9.660811915524208</v>
+        <v>9.87352939435474</v>
       </c>
       <c r="M27">
-        <v>13.68221698725677</v>
+        <v>14.19008532581477</v>
       </c>
       <c r="N27">
-        <v>11.43452875031784</v>
+        <v>11.91587747151026</v>
       </c>
       <c r="O27">
-        <v>12.12933723226851</v>
+        <v>12.1768542234877</v>
       </c>
       <c r="P27">
-        <v>12.24934088477909</v>
+        <v>12.81497221387036</v>
       </c>
       <c r="Q27">
-        <v>11.85124012555077</v>
+        <v>12.39204009775053</v>
       </c>
       <c r="R27">
-        <v>10.30439959248637</v>
+        <v>10.71670470400026</v>
       </c>
       <c r="S27">
-        <v>15.09743324889363</v>
+        <v>15.46436966610594</v>
       </c>
       <c r="T27">
-        <v>13.38188443791946</v>
+        <v>14.21086156669463</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>22.76605911057234</v>
+        <v>23.64751421972527</v>
       </c>
       <c r="C28">
-        <v>28.74978252977093</v>
+        <v>30.47515230156424</v>
       </c>
       <c r="D28">
-        <v>28.23317877816542</v>
+        <v>30.64821330666606</v>
       </c>
       <c r="E28">
-        <v>25.22133037234994</v>
+        <v>26.74620620865523</v>
       </c>
       <c r="F28">
-        <v>28.84820098556699</v>
+        <v>30.1435194171719</v>
       </c>
       <c r="G28">
-        <v>23.96000514070077</v>
+        <v>25.22473383918105</v>
       </c>
       <c r="H28">
-        <v>24.20154848249542</v>
+        <v>25.23256054116345</v>
       </c>
       <c r="I28">
-        <v>22.10570911517722</v>
+        <v>23.64859123775287</v>
       </c>
       <c r="J28">
-        <v>30.76930199572593</v>
+        <v>32.24289206118388</v>
       </c>
       <c r="K28">
-        <v>29.59253700391957</v>
+        <v>30.79799770246159</v>
       </c>
       <c r="L28">
-        <v>21.76007393111669</v>
+        <v>22.2392001273689</v>
       </c>
       <c r="M28">
-        <v>24.9676132885682</v>
+        <v>25.89438270688934</v>
       </c>
       <c r="N28">
-        <v>31.68983531320331</v>
+        <v>33.02385283468489</v>
       </c>
       <c r="O28">
-        <v>23.88087543599094</v>
+        <v>23.97442938099792</v>
       </c>
       <c r="P28">
-        <v>35.10870850233068</v>
+        <v>36.72990474787948</v>
       </c>
       <c r="Q28">
-        <v>28.5577912713395</v>
+        <v>29.8609504818537</v>
       </c>
       <c r="R28">
-        <v>33.29911132568768</v>
+        <v>34.631493060812</v>
       </c>
       <c r="S28">
-        <v>29.33776127782407</v>
+        <v>30.05080255012802</v>
       </c>
       <c r="T28">
-        <v>25.43127621644295</v>
+        <v>27.00668560192954</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>5.015722206154735</v>
+        <v>5.209920681316111</v>
       </c>
       <c r="C29">
-        <v>4.982332418630967</v>
+        <v>5.281338706390884</v>
       </c>
       <c r="D29">
-        <v>5.266580970001376</v>
+        <v>5.717078414502175</v>
       </c>
       <c r="E29">
-        <v>4.066383742193699</v>
+        <v>4.312236368445872</v>
       </c>
       <c r="F29">
-        <v>5.562043361609621</v>
+        <v>5.811785703854227</v>
       </c>
       <c r="G29">
-        <v>4.234784924894983</v>
+        <v>4.458318016601561</v>
       </c>
       <c r="H29">
-        <v>4.875247823285476</v>
+        <v>5.082938636889322</v>
       </c>
       <c r="I29">
-        <v>4.13594564385177</v>
+        <v>4.424616618421968</v>
       </c>
       <c r="J29">
-        <v>4.312173749264769</v>
+        <v>4.518690504124135</v>
       </c>
       <c r="K29">
-        <v>5.015150612984891</v>
+        <v>5.219444248249129</v>
       </c>
       <c r="L29">
-        <v>4.182176314078652</v>
+        <v>4.274261949254513</v>
       </c>
       <c r="M29">
-        <v>5.259446124167609</v>
+        <v>5.454670784564683</v>
       </c>
       <c r="N29">
-        <v>5.133663813664571</v>
+        <v>5.349770884248529</v>
       </c>
       <c r="O29">
-        <v>5.262143942864816</v>
+        <v>5.282758527383256</v>
       </c>
       <c r="P29">
-        <v>5.102298363921597</v>
+        <v>5.337904494255624</v>
       </c>
       <c r="Q29">
-        <v>4.404947215326106</v>
+        <v>4.605955321343119</v>
       </c>
       <c r="R29">
-        <v>5.086083163876944</v>
+        <v>5.289590225810015</v>
       </c>
       <c r="S29">
-        <v>5.620447861528634</v>
+        <v>5.757050353319023</v>
       </c>
       <c r="T29">
-        <v>5.098128145973155</v>
+        <v>5.413945522231545</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>8.358017094437846</v>
+        <v>8.681622371684028</v>
       </c>
       <c r="C30">
-        <v>12.4519470955183</v>
+        <v>13.19922972613749</v>
       </c>
       <c r="D30">
-        <v>13.21687553517636</v>
+        <v>14.34743228286471</v>
       </c>
       <c r="E30">
-        <v>8.877203878135459</v>
+        <v>9.413917583871006</v>
       </c>
       <c r="F30">
-        <v>10.56669476214121</v>
+        <v>11.04115188663893</v>
       </c>
       <c r="G30">
-        <v>10.94033988738134</v>
+        <v>11.51782564940213</v>
       </c>
       <c r="H30">
-        <v>11.14342359608109</v>
+        <v>11.61814545574702</v>
       </c>
       <c r="I30">
-        <v>9.736940153373103</v>
+        <v>10.41653612620322</v>
       </c>
       <c r="J30">
-        <v>14.65594114360451</v>
+        <v>15.35783712006027</v>
       </c>
       <c r="K30">
-        <v>11.70048229827757</v>
+        <v>12.17710488601623</v>
       </c>
       <c r="L30">
-        <v>8.411231120468733</v>
+        <v>8.596434589230183</v>
       </c>
       <c r="M30">
-        <v>9.63673461816698</v>
+        <v>9.994439250699198</v>
       </c>
       <c r="N30">
-        <v>15.0985441493844</v>
+        <v>15.734133518817</v>
       </c>
       <c r="O30">
-        <v>13.79165295787121</v>
+        <v>13.84568211378864</v>
       </c>
       <c r="P30">
-        <v>18.18850797585664</v>
+        <v>19.02838907944767</v>
       </c>
       <c r="Q30">
-        <v>13.94251279372941</v>
+        <v>14.57874245841974</v>
       </c>
       <c r="R30">
-        <v>16.54956445957391</v>
+        <v>17.21175442598268</v>
       </c>
       <c r="S30">
-        <v>10.37332736714337</v>
+        <v>10.6254464867261</v>
       </c>
       <c r="T30">
-        <v>14.07821413590604</v>
+        <v>14.95032729656041</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>1.529795272877194</v>
+        <v>1.589025807801414</v>
       </c>
       <c r="C31">
-        <v>1.968386396758788</v>
+        <v>2.086515790769333</v>
       </c>
       <c r="D31">
-        <v>1.574405171369374</v>
+        <v>1.709078028456495</v>
       </c>
       <c r="E31">
-        <v>2.76016348141387</v>
+        <v>2.927042330979813</v>
       </c>
       <c r="F31">
-        <v>2.600898568382577</v>
+        <v>2.717681998172403</v>
       </c>
       <c r="G31">
-        <v>1.470251821787658</v>
+        <v>1.547859053592842</v>
       </c>
       <c r="H31">
-        <v>1.790578997802634</v>
+        <v>1.86685959365242</v>
       </c>
       <c r="I31">
-        <v>1.332818814204003</v>
+        <v>1.425843756781212</v>
       </c>
       <c r="J31">
-        <v>2.958855448499076</v>
+        <v>3.100559670279603</v>
       </c>
       <c r="K31">
-        <v>1.775383282379584</v>
+        <v>1.847704042558871</v>
       </c>
       <c r="L31">
-        <v>1.198091303500297</v>
+        <v>1.224471587447223</v>
       </c>
       <c r="M31">
-        <v>1.951753816475302</v>
+        <v>2.024200699094598</v>
       </c>
       <c r="N31">
-        <v>3.552853387353348</v>
+        <v>3.702414551781673</v>
       </c>
       <c r="O31">
-        <v>1.103968529730406</v>
+        <v>1.108293354898422</v>
       </c>
       <c r="P31">
-        <v>2.76916342989448</v>
+        <v>2.897033623569019</v>
       </c>
       <c r="Q31">
-        <v>2.486036003348293</v>
+        <v>2.599479675677554</v>
       </c>
       <c r="R31">
-        <v>1.36967542111788</v>
+        <v>1.424479601814991</v>
       </c>
       <c r="S31">
-        <v>1.188437858402657</v>
+        <v>1.21732231330652</v>
       </c>
       <c r="T31">
-        <v>1.395868288590604</v>
+        <v>1.482339135906041</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>1.577672621208672</v>
+        <v>1.638756868850341</v>
       </c>
       <c r="C32">
-        <v>2.028976033280961</v>
+        <v>2.150741612268942</v>
       </c>
       <c r="D32">
-        <v>1.623323114074445</v>
+        <v>1.762180357256529</v>
       </c>
       <c r="E32">
-        <v>2.845304300640187</v>
+        <v>3.017330744563951</v>
       </c>
       <c r="F32">
-        <v>2.680865312798602</v>
+        <v>2.801239344234934</v>
       </c>
       <c r="G32">
-        <v>1.51550138933657</v>
+        <v>1.595497119238347</v>
       </c>
       <c r="H32">
-        <v>1.846510648140499</v>
+        <v>1.925173992598345</v>
       </c>
       <c r="I32">
-        <v>1.374140705286991</v>
+        <v>1.470049735711858</v>
       </c>
       <c r="J32">
-        <v>3.050380847260204</v>
+        <v>3.196468363740436</v>
       </c>
       <c r="K32">
-        <v>1.829904135774459</v>
+        <v>1.904445818952331</v>
       </c>
       <c r="L32">
-        <v>1.235747797324233</v>
+        <v>1.26295722425602</v>
       </c>
       <c r="M32">
-        <v>2.011574632264287</v>
+        <v>2.08624199555234</v>
       </c>
       <c r="N32">
-        <v>3.662571736576776</v>
+        <v>3.816751612299921</v>
       </c>
       <c r="O32">
-        <v>1.138169283893523</v>
+        <v>1.142628091397436</v>
       </c>
       <c r="P32">
-        <v>2.854074242247598</v>
+        <v>2.985865317551384</v>
       </c>
       <c r="Q32">
-        <v>2.562486649243823</v>
+        <v>2.67941894442917</v>
       </c>
       <c r="R32">
-        <v>1.412120666587564</v>
+        <v>1.468623188998768</v>
       </c>
       <c r="S32">
-        <v>1.225058834230179</v>
+        <v>1.254833345704814</v>
       </c>
       <c r="T32">
-        <v>1.439188338926174</v>
+        <v>1.528342764261745</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>2.742688097274613</v>
+        <v>2.848879354374219</v>
       </c>
       <c r="C33">
-        <v>3.789959443483082</v>
+        <v>4.017407475597307</v>
       </c>
       <c r="D33">
-        <v>3.906662162800392</v>
+        <v>4.240833673861216</v>
       </c>
       <c r="E33">
-        <v>3.583191400601607</v>
+        <v>3.799830328959819</v>
       </c>
       <c r="F33">
-        <v>4.179647958140524</v>
+        <v>4.367319107565333</v>
       </c>
       <c r="G33">
-        <v>2.821274624319453</v>
+        <v>2.970195585008638</v>
       </c>
       <c r="H33">
-        <v>4.72737373403605</v>
+        <v>4.92876495200489</v>
       </c>
       <c r="I33">
-        <v>2.913568974905933</v>
+        <v>3.116923387146302</v>
       </c>
       <c r="J33">
-        <v>5.791950807097363</v>
+        <v>6.069336402979435</v>
       </c>
       <c r="K33">
-        <v>2.797457308697589</v>
+        <v>2.911412554948948</v>
       </c>
       <c r="L33">
-        <v>2.329323117966262</v>
+        <v>2.380611534029848</v>
       </c>
       <c r="M33">
-        <v>3.960138005230843</v>
+        <v>4.107133825502525</v>
       </c>
       <c r="N33">
-        <v>4.742431278933665</v>
+        <v>4.942068997400567</v>
       </c>
       <c r="O33">
-        <v>2.538809471829579</v>
+        <v>2.548755323368705</v>
       </c>
       <c r="P33">
-        <v>5.313427951394215</v>
+        <v>5.558783300914477</v>
       </c>
       <c r="Q33">
-        <v>6.631051022629595</v>
+        <v>6.933641483265179</v>
       </c>
       <c r="R33">
-        <v>6.033754894459697</v>
+        <v>6.275180701201674</v>
       </c>
       <c r="S33">
-        <v>2.280963637257044</v>
+        <v>2.336401446522272</v>
       </c>
       <c r="T33">
-        <v>2.67942533557047</v>
+        <v>2.845409605704699</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>4.455633226467457</v>
+        <v>4.628146205235813</v>
       </c>
       <c r="C34">
-        <v>4.226515542527454</v>
+        <v>4.480162753581665</v>
       </c>
       <c r="D34">
-        <v>7.144277386142194</v>
+        <v>7.755390881518883</v>
       </c>
       <c r="E34">
-        <v>4.776618268389306</v>
+        <v>5.06541151082296</v>
       </c>
       <c r="F34">
-        <v>6.142396071084333</v>
+        <v>6.418196938149621</v>
       </c>
       <c r="G34">
-        <v>3.237857944611022</v>
+        <v>3.408768252856146</v>
       </c>
       <c r="H34">
-        <v>4.555747848067805</v>
+        <v>4.749827618253011</v>
       </c>
       <c r="I34">
-        <v>3.489070221625362</v>
+        <v>3.732592111889486</v>
       </c>
       <c r="J34">
-        <v>4.899054168801776</v>
+        <v>5.133677546163065</v>
       </c>
       <c r="K34">
-        <v>5.501998796820814</v>
+        <v>5.726124336044252</v>
       </c>
       <c r="L34">
-        <v>3.721844889577897</v>
+        <v>3.803794674795959</v>
       </c>
       <c r="M34">
-        <v>4.632523974699041</v>
+        <v>4.804477997687545</v>
       </c>
       <c r="N34">
-        <v>5.275864568908092</v>
+        <v>5.497957732420206</v>
       </c>
       <c r="O34">
-        <v>5.00285450432583</v>
+        <v>5.022453315786077</v>
       </c>
       <c r="P34">
-        <v>6.098279243955469</v>
+        <v>6.379876256102824</v>
       </c>
       <c r="Q34">
-        <v>6.067401260618003</v>
+        <v>6.344271056378263</v>
       </c>
       <c r="R34">
-        <v>6.023143583092275</v>
+        <v>6.26414480440573</v>
       </c>
       <c r="S34">
-        <v>2.617527843671883</v>
+        <v>2.681145696658968</v>
       </c>
       <c r="T34">
-        <v>3.074921350671141</v>
+        <v>3.26540569421141</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>104.3217021826484</v>
+        <v>108.3608244979252</v>
       </c>
       <c r="C35">
-        <v>97.97033509550589</v>
+        <v>103.8498597329952</v>
       </c>
       <c r="D35">
-        <v>103.4336032230707</v>
+        <v>112.2811979326022</v>
       </c>
       <c r="E35">
-        <v>85.00692255334633</v>
+        <v>90.14642154910038</v>
       </c>
       <c r="F35">
-        <v>98.73200985566993</v>
+        <v>103.165194171719</v>
       </c>
       <c r="G35">
-        <v>83.57020528600847</v>
+        <v>87.9814579690708</v>
       </c>
       <c r="H35">
-        <v>95.37112569597038</v>
+        <v>99.43403847663025</v>
       </c>
       <c r="I35">
-        <v>96.44379117347212</v>
+        <v>103.1751473339857</v>
       </c>
       <c r="J35">
-        <v>80.51300688881616</v>
+        <v>84.36890089343116</v>
       </c>
       <c r="K35">
-        <v>101.116985563903</v>
+        <v>105.2360157111385</v>
       </c>
       <c r="L35">
-        <v>99.94187160847126</v>
+        <v>102.1424509328649</v>
       </c>
       <c r="M35">
-        <v>90.68038062733022</v>
+        <v>94.04633325707594</v>
       </c>
       <c r="N35">
-        <v>94.90059742830545</v>
+        <v>98.89553960825684</v>
       </c>
       <c r="O35">
-        <v>103.2003780040199</v>
+        <v>103.6046681446542</v>
       </c>
       <c r="P35">
-        <v>100.0455909333562</v>
+        <v>104.665343220573</v>
       </c>
       <c r="Q35">
-        <v>103.3063677868867</v>
+        <v>108.0204804228088</v>
       </c>
       <c r="R35">
-        <v>110.185408475138</v>
+        <v>114.5942055836733</v>
       </c>
       <c r="S35">
-        <v>103.0392189867026</v>
+        <v>105.5435414913314</v>
       </c>
       <c r="T35">
-        <v>99.92411388422818</v>
+        <v>106.1141841547819</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>7.829846346971553</v>
+        <v>8.133001936303016</v>
       </c>
       <c r="C36">
-        <v>12.86908343926711</v>
+        <v>13.64139980492326</v>
       </c>
       <c r="D36">
-        <v>7.160081644554599</v>
+        <v>7.772547018515817</v>
       </c>
       <c r="E36">
-        <v>6.702838340971041</v>
+        <v>7.108090406183773</v>
       </c>
       <c r="F36">
-        <v>6.756794028181709</v>
+        <v>7.060182092055797</v>
       </c>
       <c r="G36">
-        <v>5.295635897430582</v>
+        <v>5.575166000068405</v>
       </c>
       <c r="H36">
-        <v>11.93259619673865</v>
+        <v>12.44093766005254</v>
       </c>
       <c r="I36">
-        <v>9.653545064096528</v>
+        <v>10.32732042327046</v>
       </c>
       <c r="J36">
-        <v>6.723972806695421</v>
+        <v>7.045994395931737</v>
       </c>
       <c r="K36">
-        <v>6.986348227979871</v>
+        <v>7.270939177854935</v>
       </c>
       <c r="L36">
-        <v>11.56131210382198</v>
+        <v>11.81587592145992</v>
       </c>
       <c r="M36">
-        <v>8.896551724137931</v>
+        <v>9.226781609195401</v>
       </c>
       <c r="N36">
-        <v>9.577256957213375</v>
+        <v>9.980421835237555</v>
       </c>
       <c r="O36">
-        <v>6.302483162524304</v>
+        <v>6.327173302748629</v>
       </c>
       <c r="P36">
-        <v>13.15658614109259</v>
+        <v>13.76411085407833</v>
       </c>
       <c r="Q36">
-        <v>8.782094195781109</v>
+        <v>9.182841817685649</v>
       </c>
       <c r="R36">
-        <v>14.3742456292526</v>
+        <v>14.94939558281405</v>
       </c>
       <c r="S36">
-        <v>7.31634781354123</v>
+        <v>7.494168401287609</v>
       </c>
       <c r="T36">
-        <v>6.661661073825504</v>
+        <v>7.074335738255034</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>23.08144164323207</v>
+        <v>23.97510771711105</v>
       </c>
       <c r="C37">
-        <v>22.90598976622855</v>
+        <v>24.2806541587238</v>
       </c>
       <c r="D37">
-        <v>23.33160091911727</v>
+        <v>25.3273599609026</v>
       </c>
       <c r="E37">
-        <v>23.53306797401611</v>
+        <v>24.95587185382445</v>
       </c>
       <c r="F37">
-        <v>26.22434166878774</v>
+        <v>27.40184570577362</v>
       </c>
       <c r="G37">
-        <v>26.37547015128792</v>
+        <v>27.76769915292445</v>
       </c>
       <c r="H37">
-        <v>22.80095866307598</v>
+        <v>23.77230408536686</v>
       </c>
       <c r="I37">
-        <v>24.65414283433166</v>
+        <v>26.37489452016656</v>
       </c>
       <c r="J37">
-        <v>17.73776201333992</v>
+        <v>18.58725121819565</v>
       </c>
       <c r="K37">
-        <v>27.63669737579639</v>
+        <v>28.76248637183987</v>
       </c>
       <c r="L37">
-        <v>23.72359110907902</v>
+        <v>24.24595118954187</v>
       </c>
       <c r="M37">
-        <v>30.78538702676634</v>
+        <v>31.92810559172628</v>
       </c>
       <c r="N37">
-        <v>17.04460118561045</v>
+        <v>17.76211190800907</v>
       </c>
       <c r="O37">
-        <v>27.59762251050837</v>
+        <v>27.70573690797222</v>
       </c>
       <c r="P37">
-        <v>21.97277634262128</v>
+        <v>22.98740160314821</v>
       </c>
       <c r="Q37">
-        <v>20.31919166728843</v>
+        <v>21.24640419292954</v>
       </c>
       <c r="R37">
-        <v>26.02873052956315</v>
+        <v>27.07020592531372</v>
       </c>
       <c r="S37">
-        <v>34.85270585184961</v>
+        <v>35.69978540534719</v>
       </c>
       <c r="T37">
-        <v>26.36747063758389</v>
+        <v>28.00087512583893</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>4.191167873779298</v>
+        <v>4.353441296584599</v>
       </c>
       <c r="C38">
-        <v>5.077100824473339</v>
+        <v>5.381794478480016</v>
       </c>
       <c r="D38">
-        <v>4.626884796165827</v>
+        <v>5.022663345578647</v>
       </c>
       <c r="E38">
-        <v>3.637768848823605</v>
+        <v>3.85770751715478</v>
       </c>
       <c r="F38">
-        <v>3.913619976716918</v>
+        <v>4.089346154327607</v>
       </c>
       <c r="G38">
-        <v>3.260123604833502</v>
+        <v>3.432209205792823</v>
       </c>
       <c r="H38">
-        <v>4.813186677020173</v>
+        <v>5.018233618880831</v>
       </c>
       <c r="I38">
-        <v>4.103639438095979</v>
+        <v>4.390055580348918</v>
       </c>
       <c r="J38">
-        <v>3.635165265298864</v>
+        <v>3.80925902348637</v>
       </c>
       <c r="K38">
-        <v>4.831622669866931</v>
+        <v>5.028440240389453</v>
       </c>
       <c r="L38">
-        <v>4.262100300970269</v>
+        <v>4.355945749828287</v>
       </c>
       <c r="M38">
-        <v>5.139006881712452</v>
+        <v>5.329760974363095</v>
       </c>
       <c r="N38">
-        <v>3.353627963763441</v>
+        <v>3.494802520840645</v>
       </c>
       <c r="O38">
-        <v>5.178630473396737</v>
+        <v>5.198917891746127</v>
       </c>
       <c r="P38">
-        <v>5.324902385495989</v>
+        <v>5.570787583885068</v>
       </c>
       <c r="Q38">
-        <v>4.002538815566905</v>
+        <v>4.185184079459613</v>
       </c>
       <c r="R38">
-        <v>5.126895899905486</v>
+        <v>5.332035982717493</v>
       </c>
       <c r="S38">
-        <v>4.140786052497592</v>
+        <v>4.24142602046417</v>
       </c>
       <c r="T38">
-        <v>5.728675545302013</v>
+        <v>6.083553890520136</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>7.668735270046581</v>
+        <v>7.96565296896377</v>
       </c>
       <c r="C39">
-        <v>12.7082878654198</v>
+        <v>13.47095435555891</v>
       </c>
       <c r="D39">
-        <v>9.416327678859277</v>
+        <v>10.22178981455433</v>
       </c>
       <c r="E39">
-        <v>13.04764862160577</v>
+        <v>13.8365064578086</v>
       </c>
       <c r="F39">
-        <v>9.286435101540105</v>
+        <v>9.703407049182379</v>
       </c>
       <c r="G39">
-        <v>6.309800808209367</v>
+        <v>6.64286359834544</v>
       </c>
       <c r="H39">
-        <v>9.834010028582286</v>
+        <v>10.25294945850612</v>
       </c>
       <c r="I39">
-        <v>7.19301427688226</v>
+        <v>7.695055314218333</v>
       </c>
       <c r="J39">
-        <v>11.36661612553281</v>
+        <v>11.91098117491827</v>
       </c>
       <c r="K39">
-        <v>8.88920280139536</v>
+        <v>9.251307091981614</v>
       </c>
       <c r="L39">
-        <v>6.646755409861496</v>
+        <v>6.793107607332284</v>
       </c>
       <c r="M39">
-        <v>6.064235499248762</v>
+        <v>6.28933302624284</v>
       </c>
       <c r="N39">
-        <v>12.22421213222856</v>
+        <v>12.73880342024028</v>
       </c>
       <c r="O39">
-        <v>9.366234442438946</v>
+        <v>9.402926907264998</v>
       </c>
       <c r="P39">
-        <v>10.33923008797066</v>
+        <v>10.81665924203284</v>
       </c>
       <c r="Q39">
-        <v>7.413627634251116</v>
+        <v>7.75192890703172</v>
       </c>
       <c r="R39">
-        <v>10.03993306302141</v>
+        <v>10.4416561992398</v>
       </c>
       <c r="S39">
-        <v>6.42785318572589</v>
+        <v>6.584079305719492</v>
       </c>
       <c r="T39">
-        <v>4.008709102348993</v>
+        <v>4.257039460989934</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>7.889883021863405</v>
+        <v>8.195363108094526</v>
       </c>
       <c r="C40">
-        <v>7.404364299094227</v>
+        <v>7.848724750439338</v>
       </c>
       <c r="D40">
-        <v>8.592248490212306</v>
+        <v>9.327219813999903</v>
       </c>
       <c r="E40">
-        <v>9.609997082929493</v>
+        <v>10.19101529736868</v>
       </c>
       <c r="F40">
-        <v>6.844678272044864</v>
+        <v>7.152012442678972</v>
       </c>
       <c r="G40">
-        <v>7.491317294208731</v>
+        <v>7.88674642353363</v>
       </c>
       <c r="H40">
-        <v>7.65650660036017</v>
+        <v>7.982682036529152</v>
       </c>
       <c r="I40">
-        <v>7.923284788385243</v>
+        <v>8.476295523683573</v>
       </c>
       <c r="J40">
-        <v>10.09993255336544</v>
+        <v>10.58363414251758</v>
       </c>
       <c r="K40">
-        <v>8.694924267467144</v>
+        <v>9.049114564833088</v>
       </c>
       <c r="L40">
-        <v>7.933992698740904</v>
+        <v>8.108688049265638</v>
       </c>
       <c r="M40">
-        <v>8.202630260985698</v>
+        <v>8.507102570285593</v>
       </c>
       <c r="N40">
-        <v>9.435778033214744</v>
+        <v>9.832987204569287</v>
       </c>
       <c r="O40">
-        <v>9.072744249736843</v>
+        <v>9.108286959168803</v>
       </c>
       <c r="P40">
-        <v>7.516519298934575</v>
+        <v>7.86360563126773</v>
       </c>
       <c r="Q40">
-        <v>8.225394492487293</v>
+        <v>8.600738597048881</v>
       </c>
       <c r="R40">
-        <v>8.066229148681105</v>
+        <v>8.38897939519412</v>
       </c>
       <c r="S40">
-        <v>6.895206591524736</v>
+        <v>7.062791528707236</v>
       </c>
       <c r="T40">
-        <v>6.557372063758389</v>
+        <v>6.963586262583893</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>10.58317385498649</v>
+        <v>10.992932637577</v>
       </c>
       <c r="C41">
-        <v>11.22772572168569</v>
+        <v>11.90153876865823</v>
       </c>
       <c r="D41">
-        <v>7.375320592456915</v>
+        <v>8.006197265235969</v>
       </c>
       <c r="E41">
-        <v>6.841101209800103</v>
+        <v>7.254712616277674</v>
       </c>
       <c r="F41">
-        <v>7.627718967366133</v>
+        <v>7.970212593726921</v>
       </c>
       <c r="G41">
-        <v>15.75115898964501</v>
+        <v>16.5825838032687</v>
       </c>
       <c r="H41">
-        <v>9.766585573380475</v>
+        <v>10.18265264881788</v>
       </c>
       <c r="I41">
-        <v>5.790323901392478</v>
+        <v>6.194463265790755</v>
       </c>
       <c r="J41">
-        <v>4.738360720595214</v>
+        <v>4.965288237033358</v>
       </c>
       <c r="K41">
-        <v>7.377208993867071</v>
+        <v>7.677721771999598</v>
       </c>
       <c r="L41">
-        <v>6.165674488763878</v>
+        <v>6.301433961570924</v>
       </c>
       <c r="M41">
-        <v>5.804214353285971</v>
+        <v>6.019660190973187</v>
       </c>
       <c r="N41">
-        <v>7.471675215866419</v>
+        <v>7.786203377791976</v>
       </c>
       <c r="O41">
-        <v>11.02855016804165</v>
+        <v>11.07175479756594</v>
       </c>
       <c r="P41">
-        <v>4.52781169655951</v>
+        <v>4.736890060194758</v>
       </c>
       <c r="Q41">
-        <v>6.210572470204178</v>
+        <v>6.493975505131289</v>
       </c>
       <c r="R41">
-        <v>6.843479577265977</v>
+        <v>7.117304518246056</v>
       </c>
       <c r="S41">
-        <v>5.514944574025537</v>
+        <v>5.648982855219178</v>
       </c>
       <c r="T41">
-        <v>7.065981543624161</v>
+        <v>7.503702936241612</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>6.224815241002037</v>
+        <v>6.46582731828186</v>
       </c>
       <c r="C42">
-        <v>6.351813562074433</v>
+        <v>6.733006953875625</v>
       </c>
       <c r="D42">
-        <v>7.104390448244211</v>
+        <v>7.712092059574239</v>
       </c>
       <c r="E42">
-        <v>7.897720607377993</v>
+        <v>8.375214979732112</v>
       </c>
       <c r="F42">
-        <v>5.012568899978721</v>
+        <v>5.237639187345353</v>
       </c>
       <c r="G42">
-        <v>5.81421030648319</v>
+        <v>6.121113355561337</v>
       </c>
       <c r="H42">
-        <v>5.404683034017877</v>
+        <v>5.634928358418557</v>
       </c>
       <c r="I42">
-        <v>4.634062258179422</v>
+        <v>4.957499600804123</v>
       </c>
       <c r="J42">
-        <v>5.152670350101696</v>
+        <v>5.399439803615603</v>
       </c>
       <c r="K42">
-        <v>6.453426083528559</v>
+        <v>6.716308293107592</v>
       </c>
       <c r="L42">
-        <v>4.481891264922216</v>
+        <v>4.58057620140616</v>
       </c>
       <c r="M42">
-        <v>6.985476062399139</v>
+        <v>7.244768991692067</v>
       </c>
       <c r="N42">
-        <v>4.659420685771203</v>
+        <v>4.855563984508472</v>
       </c>
       <c r="O42">
-        <v>7.840721733488717</v>
+        <v>7.871437962960119</v>
       </c>
       <c r="P42">
-        <v>5.626297521235885</v>
+        <v>5.886100083245895</v>
       </c>
       <c r="Q42">
-        <v>5.038792570387231</v>
+        <v>5.268724531356518</v>
       </c>
       <c r="R42">
-        <v>4.463280812081388</v>
+        <v>4.641867975401888</v>
       </c>
       <c r="S42">
-        <v>5.954396283955793</v>
+        <v>6.099115243998699</v>
       </c>
       <c r="T42">
-        <v>6.319111786912751</v>
+        <v>6.710566306627517</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2024.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2024.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>146.2708912737141</v>
+        <v>142.5558984267382</v>
       </c>
       <c r="C2">
-        <v>141.6261704863162</v>
+        <v>141.4270185415555</v>
       </c>
       <c r="D2">
-        <v>137.6665619757325</v>
+        <v>136.7828676385491</v>
       </c>
       <c r="E2">
-        <v>120.9231951436527</v>
+        <v>118.7146565686372</v>
       </c>
       <c r="F2">
-        <v>143.7235990302889</v>
+        <v>142.5918611043477</v>
       </c>
       <c r="G2">
-        <v>139.9704669435321</v>
+        <v>140.6662892755915</v>
       </c>
       <c r="H2">
-        <v>154.0842162175558</v>
+        <v>154.8988662854205</v>
       </c>
       <c r="I2">
-        <v>156.0334419589668</v>
+        <v>158.8908798361979</v>
       </c>
       <c r="J2">
-        <v>127.2181230474936</v>
+        <v>126.141620322379</v>
       </c>
       <c r="K2">
-        <v>137.4533570033858</v>
+        <v>137.035771179267</v>
       </c>
       <c r="L2">
-        <v>167.8884853408394</v>
+        <v>166.361274254658</v>
       </c>
       <c r="M2">
-        <v>151.8357328642474</v>
+        <v>150.1546578321086</v>
       </c>
       <c r="N2">
-        <v>113.2568761833515</v>
+        <v>113.6322788415128</v>
       </c>
       <c r="O2">
-        <v>144.9516757119093</v>
+        <v>143.2615532872206</v>
       </c>
       <c r="P2">
-        <v>129.1476781963253</v>
+        <v>127.574277811758</v>
       </c>
       <c r="Q2">
-        <v>125.836036545044</v>
+        <v>122.9224434300902</v>
       </c>
       <c r="R2">
-        <v>148.8869815043636</v>
+        <v>148.6695575954585</v>
       </c>
       <c r="S2">
-        <v>198.4431857049809</v>
+        <v>185.6732340763703</v>
       </c>
       <c r="T2">
-        <v>167.2674888632551</v>
+        <v>165.4417240459711</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>15.33453320534042</v>
+        <v>14.94506623297508</v>
       </c>
       <c r="C3">
-        <v>13.33591544881615</v>
+        <v>13.31716274592461</v>
       </c>
       <c r="D3">
-        <v>11.88511814435233</v>
+        <v>11.80882647664314</v>
       </c>
       <c r="E3">
-        <v>13.91753452128155</v>
+        <v>13.66334497706015</v>
       </c>
       <c r="F3">
-        <v>19.26369111946557</v>
+        <v>19.11200100051079</v>
       </c>
       <c r="G3">
-        <v>11.65847136702219</v>
+        <v>11.71642805540077</v>
       </c>
       <c r="H3">
-        <v>11.82903588481174</v>
+        <v>11.89157652085411</v>
       </c>
       <c r="I3">
-        <v>14.26486752838385</v>
+        <v>14.52609981472929</v>
       </c>
       <c r="J3">
-        <v>12.53402161869819</v>
+        <v>12.42796040583046</v>
       </c>
       <c r="K3">
-        <v>14.35966532729143</v>
+        <v>14.3160404001853</v>
       </c>
       <c r="L3">
-        <v>16.09170871303316</v>
+        <v>15.94532919276855</v>
       </c>
       <c r="M3">
-        <v>14.94450749074091</v>
+        <v>14.77904684497343</v>
       </c>
       <c r="N3">
-        <v>11.4133961792327</v>
+        <v>11.45122716494164</v>
       </c>
       <c r="O3">
-        <v>15.18872924847102</v>
+        <v>15.01163014437796</v>
       </c>
       <c r="P3">
-        <v>10.88308294113677</v>
+        <v>10.75049482864408</v>
       </c>
       <c r="Q3">
-        <v>9.573090793318539</v>
+        <v>9.351436550304799</v>
       </c>
       <c r="R3">
-        <v>11.07919146799013</v>
+        <v>11.06301220844616</v>
       </c>
       <c r="S3">
-        <v>23.03802573128517</v>
+        <v>21.55551337812951</v>
       </c>
       <c r="T3">
-        <v>21.62937259857383</v>
+        <v>21.3932828014544</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>14.6967126128399</v>
+        <v>14.32344502859724</v>
       </c>
       <c r="C4">
-        <v>11.68662928902492</v>
+        <v>11.67019578000173</v>
       </c>
       <c r="D4">
-        <v>11.13269899320108</v>
+        <v>11.06123717330327</v>
       </c>
       <c r="E4">
-        <v>14.19843180798776</v>
+        <v>13.9391119619035</v>
       </c>
       <c r="F4">
-        <v>13.56028177535582</v>
+        <v>13.45350261539069</v>
       </c>
       <c r="G4">
-        <v>11.83843739279411</v>
+        <v>11.89728872975447</v>
       </c>
       <c r="H4">
-        <v>11.71001060477142</v>
+        <v>11.77192194889252</v>
       </c>
       <c r="I4">
-        <v>14.06312751544581</v>
+        <v>14.32066534022528</v>
       </c>
       <c r="J4">
-        <v>12.63432307674501</v>
+        <v>12.52741312636777</v>
       </c>
       <c r="K4">
-        <v>12.38569085275838</v>
+        <v>12.34806289637532</v>
       </c>
       <c r="L4">
-        <v>12.65549114081918</v>
+        <v>12.54036944958413</v>
       </c>
       <c r="M4">
-        <v>15.22824301987432</v>
+        <v>15.05964094814103</v>
       </c>
       <c r="N4">
-        <v>11.03126968750066</v>
+        <v>11.06783407196132</v>
       </c>
       <c r="O4">
-        <v>18.47608064769062</v>
+        <v>18.26065134637587</v>
       </c>
       <c r="P4">
-        <v>10.67660927404262</v>
+        <v>10.54653662099718</v>
       </c>
       <c r="Q4">
-        <v>10.74093083771715</v>
+        <v>10.49223656065474</v>
       </c>
       <c r="R4">
-        <v>13.15648681104215</v>
+        <v>13.13727401781462</v>
       </c>
       <c r="S4">
-        <v>17.1854115573324</v>
+        <v>16.07951883783555</v>
       </c>
       <c r="T4">
-        <v>12.97046743917785</v>
+        <v>12.82889167167447</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>21.40330141715228</v>
+        <v>20.85969967264936</v>
       </c>
       <c r="C5">
-        <v>17.2750991674588</v>
+        <v>17.25080726163857</v>
       </c>
       <c r="D5">
-        <v>15.54672795484087</v>
+        <v>15.44693207660977</v>
       </c>
       <c r="E5">
-        <v>15.49256573602708</v>
+        <v>15.20960985636039</v>
       </c>
       <c r="F5">
-        <v>15.61115960594011</v>
+        <v>15.48823100191705</v>
       </c>
       <c r="G5">
-        <v>16.44496272473724</v>
+        <v>16.52671405816941</v>
       </c>
       <c r="H5">
-        <v>16.69069933665967</v>
+        <v>16.77894380245311</v>
       </c>
       <c r="I5">
-        <v>20.11211292330117</v>
+        <v>20.48042571917799</v>
       </c>
       <c r="J5">
-        <v>13.3869500758117</v>
+        <v>13.27367149653095</v>
       </c>
       <c r="K5">
-        <v>18.09583158981856</v>
+        <v>18.04085612095925</v>
       </c>
       <c r="L5">
-        <v>21.63678209813733</v>
+        <v>21.43996137262729</v>
       </c>
       <c r="M5">
-        <v>15.99424622680591</v>
+        <v>15.81716322083257</v>
       </c>
       <c r="N5">
-        <v>16.84891985886991</v>
+        <v>16.90476749934277</v>
       </c>
       <c r="O5">
-        <v>24.37526746756782</v>
+        <v>24.09105422234393</v>
       </c>
       <c r="P5">
-        <v>13.95938052373326</v>
+        <v>13.78931401544516</v>
       </c>
       <c r="Q5">
-        <v>13.13474857651555</v>
+        <v>12.83062811889539</v>
       </c>
       <c r="R5">
-        <v>18.44098354602326</v>
+        <v>18.41405365137352</v>
       </c>
       <c r="S5">
-        <v>25.92012338722071</v>
+        <v>24.25214612367026</v>
       </c>
       <c r="T5">
-        <v>26.7093658557047</v>
+        <v>26.41782671200907</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>25.38257568298782</v>
+        <v>24.73790820144722</v>
       </c>
       <c r="C6">
-        <v>26.33917407858304</v>
+        <v>26.30213644829812</v>
       </c>
       <c r="D6">
-        <v>26.22928259159858</v>
+        <v>26.06091441154142</v>
       </c>
       <c r="E6">
-        <v>20.01701846118781</v>
+        <v>19.65142807651584</v>
       </c>
       <c r="F6">
-        <v>19.21322579164563</v>
+        <v>19.06193305715536</v>
       </c>
       <c r="G6">
-        <v>25.90678995366114</v>
+        <v>26.03557800013528</v>
       </c>
       <c r="H6">
-        <v>24.82755505807325</v>
+        <v>24.95881944004225</v>
       </c>
       <c r="I6">
-        <v>27.86343039252214</v>
+        <v>28.37369293876607</v>
       </c>
       <c r="J6">
-        <v>19.55146304482097</v>
+        <v>19.38602118210878</v>
       </c>
       <c r="K6">
-        <v>23.29289879948999</v>
+        <v>23.22213454495774</v>
       </c>
       <c r="L6">
-        <v>26.85983280790258</v>
+        <v>26.61550018226761</v>
       </c>
       <c r="M6">
-        <v>30.36383770370507</v>
+        <v>30.02765933198244</v>
       </c>
       <c r="N6">
-        <v>20.07442851348995</v>
+        <v>20.14096746528687</v>
       </c>
       <c r="O6">
-        <v>26.91843341522738</v>
+        <v>26.60456710268479</v>
       </c>
       <c r="P6">
-        <v>28.92471996040195</v>
+        <v>28.57233139140254</v>
       </c>
       <c r="Q6">
-        <v>23.89893447423317</v>
+        <v>23.34558129456644</v>
       </c>
       <c r="R6">
-        <v>25.75778312173447</v>
+        <v>25.72016829581437</v>
       </c>
       <c r="S6">
-        <v>30.78584016117076</v>
+        <v>28.80475077123954</v>
       </c>
       <c r="T6">
-        <v>35.20811023489934</v>
+        <v>34.82380525497292</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>7.650689582320569</v>
+        <v>7.456377119839107</v>
       </c>
       <c r="C7">
-        <v>7.127419370520657</v>
+        <v>7.117396933114561</v>
       </c>
       <c r="D7">
-        <v>8.249651018811512</v>
+        <v>8.196695749322409</v>
       </c>
       <c r="E7">
-        <v>6.675940734328066</v>
+        <v>6.554011499669939</v>
       </c>
       <c r="F7">
-        <v>7.728640860556039</v>
+        <v>7.667782406990413</v>
       </c>
       <c r="G7">
-        <v>8.139303787432024</v>
+        <v>8.179765961106103</v>
       </c>
       <c r="H7">
-        <v>7.999457411568391</v>
+        <v>8.041750896801258</v>
       </c>
       <c r="I7">
-        <v>9.104020424498753</v>
+        <v>9.270742202019305</v>
       </c>
       <c r="J7">
-        <v>6.840266587821094</v>
+        <v>6.782385167737965</v>
       </c>
       <c r="K7">
-        <v>6.582845241590579</v>
+        <v>6.562846436794652</v>
       </c>
       <c r="L7">
-        <v>7.92489949797465</v>
+        <v>7.852810013424181</v>
       </c>
       <c r="M7">
-        <v>10.53213048666629</v>
+        <v>10.41552222020379</v>
       </c>
       <c r="N7">
-        <v>6.217077665679709</v>
+        <v>6.23768486905969</v>
       </c>
       <c r="O7">
-        <v>7.780410987125522</v>
+        <v>7.689692152603243</v>
       </c>
       <c r="P7">
-        <v>8.071679869424621</v>
+        <v>7.973342954754338</v>
       </c>
       <c r="Q7">
-        <v>7.246131352021496</v>
+        <v>7.078355260236026</v>
       </c>
       <c r="R7">
-        <v>7.736163653957097</v>
+        <v>7.724866313352987</v>
       </c>
       <c r="S7">
-        <v>8.924053231517792</v>
+        <v>8.34978444172398</v>
       </c>
       <c r="T7">
-        <v>10.09098107172819</v>
+        <v>9.98083558955561</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>230.31</v>
+        <v>249.858611617045</v>
       </c>
       <c r="C8">
-        <v>203.93</v>
+        <v>205.049418029318</v>
       </c>
       <c r="D8">
-        <v>204.3</v>
+        <v>209.407671565306</v>
       </c>
       <c r="E8">
-        <v>261.92</v>
+        <v>275.400276877492</v>
       </c>
       <c r="F8">
-        <v>206.92</v>
+        <v>213.165033664348</v>
       </c>
       <c r="G8">
-        <v>270.42</v>
+        <v>266.79310592649</v>
       </c>
       <c r="H8">
-        <v>226.39</v>
+        <v>222.299889705309</v>
       </c>
       <c r="I8">
-        <v>214.77</v>
+        <v>200.390095819406</v>
       </c>
       <c r="J8">
-        <v>304.2</v>
+        <v>310.08776644547</v>
       </c>
       <c r="K8">
-        <v>221.53</v>
+        <v>223.895006163463</v>
       </c>
       <c r="L8">
-        <v>230.42</v>
+        <v>237.420546257341</v>
       </c>
       <c r="M8">
-        <v>197.27</v>
+        <v>206.157561149755</v>
       </c>
       <c r="N8">
-        <v>284.08</v>
+        <v>281.707002614872</v>
       </c>
       <c r="O8">
-        <v>220.96</v>
+        <v>230.043530543975</v>
       </c>
       <c r="P8">
-        <v>217.46</v>
+        <v>226.993649804123</v>
       </c>
       <c r="Q8">
-        <v>288.97</v>
+        <v>305.433106828576</v>
       </c>
       <c r="R8">
-        <v>170.07</v>
+        <v>171.281970468434</v>
       </c>
       <c r="S8">
-        <v>145.73</v>
+        <v>200.702845447015</v>
       </c>
       <c r="T8">
-        <v>187.61</v>
+        <v>196.477431979719</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>7.904081179093671</v>
+        <v>7.703333068608024</v>
       </c>
       <c r="C9">
-        <v>6.921567378534734</v>
+        <v>6.911834406164625</v>
       </c>
       <c r="D9">
-        <v>7.96208148438671</v>
+        <v>7.910972150217489</v>
       </c>
       <c r="E9">
-        <v>8.32196796659275</v>
+        <v>8.169975726787726</v>
       </c>
       <c r="F9">
-        <v>10.73008691515862</v>
+        <v>10.64559385770345</v>
       </c>
       <c r="G9">
-        <v>9.111725254418049</v>
+        <v>9.15702153765594</v>
       </c>
       <c r="H9">
-        <v>6.651835616749549</v>
+        <v>6.687004165934099</v>
       </c>
       <c r="I9">
-        <v>6.822188166605934</v>
+        <v>6.947122787211075</v>
       </c>
       <c r="J9">
-        <v>6.242850604126134</v>
+        <v>6.19002443811427</v>
       </c>
       <c r="K9">
-        <v>5.35690319951216</v>
+        <v>5.340628829165297</v>
       </c>
       <c r="L9">
-        <v>7.824365589576161</v>
+        <v>7.753190619795014</v>
       </c>
       <c r="M9">
-        <v>7.808103963528366</v>
+        <v>7.721655218072855</v>
       </c>
       <c r="N9">
-        <v>5.425744852092891</v>
+        <v>5.443729093832734</v>
       </c>
       <c r="O9">
-        <v>7.808357865671231</v>
+        <v>7.71731317326633</v>
       </c>
       <c r="P9">
-        <v>9.790693190813089</v>
+        <v>9.671413613768051</v>
       </c>
       <c r="Q9">
-        <v>5.595022091988114</v>
+        <v>5.465475594078543</v>
       </c>
       <c r="R9">
-        <v>4.452559899594532</v>
+        <v>4.446057699279756</v>
       </c>
       <c r="S9">
-        <v>6.448325093230429</v>
+        <v>6.033371063775732</v>
       </c>
       <c r="T9">
-        <v>6.172153471057048</v>
+        <v>6.104782933417508</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>21.22490110291328</v>
+        <v>20.68583037538526</v>
       </c>
       <c r="C10">
-        <v>26.53679199088953</v>
+        <v>26.49947647417006</v>
       </c>
       <c r="D10">
-        <v>23.33234631583054</v>
+        <v>23.18257383646742</v>
       </c>
       <c r="E10">
-        <v>21.39989741112607</v>
+        <v>21.00905015574466</v>
       </c>
       <c r="F10">
-        <v>18.80371206589362</v>
+        <v>18.6556440086154</v>
       </c>
       <c r="G10">
-        <v>21.41293242776849</v>
+        <v>21.51938057289136</v>
       </c>
       <c r="H10">
-        <v>23.49111684661391</v>
+        <v>23.61531542063457</v>
       </c>
       <c r="I10">
-        <v>20.60802363239587</v>
+        <v>20.98541803299859</v>
       </c>
       <c r="J10">
-        <v>19.9907395034202</v>
+        <v>19.8215805421262</v>
       </c>
       <c r="K10">
-        <v>21.49714145362936</v>
+        <v>21.43183274290875</v>
       </c>
       <c r="L10">
-        <v>20.49242346894515</v>
+        <v>20.30601249358278</v>
       </c>
       <c r="M10">
-        <v>17.15648651378094</v>
+        <v>16.96653556762697</v>
       </c>
       <c r="N10">
-        <v>27.14828191555311</v>
+        <v>27.23826795030046</v>
       </c>
       <c r="O10">
-        <v>24.61321517632843</v>
+        <v>24.32622748398963</v>
       </c>
       <c r="P10">
-        <v>20.35766334705766</v>
+        <v>20.10964684543336</v>
       </c>
       <c r="Q10">
-        <v>23.5595559423513</v>
+        <v>23.01406069417227</v>
       </c>
       <c r="R10">
-        <v>27.16273767537202</v>
+        <v>27.12307115421437</v>
       </c>
       <c r="S10">
-        <v>24.84570024495531</v>
+        <v>23.24686282869489</v>
       </c>
       <c r="T10">
-        <v>18.02745888213088</v>
+        <v>17.8306848383779</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>34.83542419189092</v>
+        <v>33.95067295692321</v>
       </c>
       <c r="C11">
-        <v>43.96916208022558</v>
+        <v>43.90733350639839</v>
       </c>
       <c r="D11">
-        <v>41.26704514886372</v>
+        <v>41.00214818632629</v>
       </c>
       <c r="E11">
-        <v>33.280154907945</v>
+        <v>32.67232689108378</v>
       </c>
       <c r="F11">
-        <v>25.57102979650253</v>
+        <v>25.36967313398273</v>
       </c>
       <c r="G11">
-        <v>35.91305221853368</v>
+        <v>36.09158347796109</v>
       </c>
       <c r="H11">
-        <v>47.02137623498604</v>
+        <v>47.26998033137732</v>
       </c>
       <c r="I11">
-        <v>48.02135678489689</v>
+        <v>48.90077110832943</v>
       </c>
       <c r="J11">
-        <v>36.63199601002124</v>
+        <v>36.32202096411956</v>
       </c>
       <c r="K11">
-        <v>37.80760503692693</v>
+        <v>37.69274483815484</v>
       </c>
       <c r="L11">
-        <v>40.73979553616898</v>
+        <v>40.36920271519448</v>
       </c>
       <c r="M11">
-        <v>39.00081338790887</v>
+        <v>38.569009277093</v>
       </c>
       <c r="N11">
-        <v>34.38160542833908</v>
+        <v>34.49556712766016</v>
       </c>
       <c r="O11">
-        <v>30.51479744293811</v>
+        <v>30.15899787601453</v>
       </c>
       <c r="P11">
-        <v>38.82025055582486</v>
+        <v>38.34730518037115</v>
       </c>
       <c r="Q11">
-        <v>35.63692600947047</v>
+        <v>34.81179272404515</v>
       </c>
       <c r="R11">
-        <v>51.31097769517489</v>
+        <v>51.23604680983152</v>
       </c>
       <c r="S11">
-        <v>29.96863552677937</v>
+        <v>28.0401338012458</v>
       </c>
       <c r="T11">
-        <v>31.64112519924497</v>
+        <v>31.2957547177446</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>10.59745229494982</v>
+        <v>10.32829785739166</v>
       </c>
       <c r="C12">
-        <v>12.34617907134782</v>
+        <v>12.32881811634932</v>
       </c>
       <c r="D12">
-        <v>11.87613159640156</v>
+        <v>11.79989761417111</v>
       </c>
       <c r="E12">
-        <v>10.78830787954067</v>
+        <v>10.59127046184091</v>
       </c>
       <c r="F12">
-        <v>9.336085646689671</v>
+        <v>9.262569520754315</v>
       </c>
       <c r="G12">
-        <v>9.676576604214754</v>
+        <v>9.724680881110627</v>
       </c>
       <c r="H12">
-        <v>10.93754452558362</v>
+        <v>10.99537180736997</v>
       </c>
       <c r="I12">
-        <v>10.65605215750017</v>
+        <v>10.85119626682899</v>
       </c>
       <c r="J12">
-        <v>8.829456817844632</v>
+        <v>8.754743136350193</v>
       </c>
       <c r="K12">
-        <v>10.57714662771049</v>
+        <v>10.54501306191298</v>
       </c>
       <c r="L12">
-        <v>10.4248950482277</v>
+        <v>10.33006415343698</v>
       </c>
       <c r="M12">
-        <v>13.01047347583157</v>
+        <v>12.86642581521876</v>
       </c>
       <c r="N12">
-        <v>9.602808648525974</v>
+        <v>9.634638238162855</v>
       </c>
       <c r="O12">
-        <v>11.56521682445875</v>
+        <v>11.43036752240408</v>
       </c>
       <c r="P12">
-        <v>12.95982389504881</v>
+        <v>12.80193494044138</v>
       </c>
       <c r="Q12">
-        <v>11.86880124773995</v>
+        <v>11.59399238894542</v>
       </c>
       <c r="R12">
-        <v>12.89247420307763</v>
+        <v>12.87364695499746</v>
       </c>
       <c r="S12">
-        <v>9.391154896858444</v>
+        <v>8.786827802714935</v>
       </c>
       <c r="T12">
-        <v>12.81541817323826</v>
+        <v>12.67553480571422</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>2.558386807294776</v>
+        <v>2.493408816074963</v>
       </c>
       <c r="C13">
-        <v>2.853108608924916</v>
+        <v>2.849096623526103</v>
       </c>
       <c r="D13">
-        <v>2.749066714032555</v>
+        <v>2.731420201670618</v>
       </c>
       <c r="E13">
-        <v>2.329749748807818</v>
+        <v>2.287199250665073</v>
       </c>
       <c r="F13">
-        <v>2.500929278683463</v>
+        <v>2.481235946941984</v>
       </c>
       <c r="G13">
-        <v>1.863933838351908</v>
+        <v>1.873199841520489</v>
       </c>
       <c r="H13">
-        <v>2.509116809440415</v>
+        <v>2.522382621015853</v>
       </c>
       <c r="I13">
-        <v>2.606545266765203</v>
+        <v>2.65427888771507</v>
       </c>
       <c r="J13">
-        <v>1.921102378940656</v>
+        <v>1.904846267809528</v>
       </c>
       <c r="K13">
-        <v>2.284855474773275</v>
+        <v>2.277914041859404</v>
       </c>
       <c r="L13">
-        <v>2.353907214611499</v>
+        <v>2.332494708645418</v>
       </c>
       <c r="M13">
-        <v>2.58339958450038</v>
+        <v>2.554797038461863</v>
       </c>
       <c r="N13">
-        <v>1.864747190952208</v>
+        <v>1.87092810531143</v>
       </c>
       <c r="O13">
-        <v>2.575105237426088</v>
+        <v>2.545079761098672</v>
       </c>
       <c r="P13">
-        <v>2.870624201033722</v>
+        <v>2.835651514842734</v>
       </c>
       <c r="Q13">
-        <v>2.409805592548719</v>
+        <v>2.354009231064352</v>
       </c>
       <c r="R13">
-        <v>2.493263760745308</v>
+        <v>2.489622776508035</v>
       </c>
       <c r="S13">
-        <v>2.356943202359433</v>
+        <v>2.205272332036587</v>
       </c>
       <c r="T13">
-        <v>3.377007088926175</v>
+        <v>3.340146245419876</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>7.188901158294822</v>
+        <v>7.006317213204163</v>
       </c>
       <c r="C14">
-        <v>6.645725709273593</v>
+        <v>6.636380620051712</v>
       </c>
       <c r="D14">
-        <v>6.553644332828873</v>
+        <v>6.511575886419526</v>
       </c>
       <c r="E14">
-        <v>7.108090406183773</v>
+        <v>6.978268399428946</v>
       </c>
       <c r="F14">
-        <v>5.047360082450481</v>
+        <v>5.007615121499519</v>
       </c>
       <c r="G14">
-        <v>5.643220379561983</v>
+        <v>5.671274002948238</v>
       </c>
       <c r="H14">
-        <v>6.846749498157847</v>
+        <v>6.882948565656439</v>
       </c>
       <c r="I14">
-        <v>5.979059586637788</v>
+        <v>6.088554007311875</v>
       </c>
       <c r="J14">
-        <v>5.356244285186677</v>
+        <v>5.310920463145772</v>
       </c>
       <c r="K14">
-        <v>7.418787468457611</v>
+        <v>7.396249055817015</v>
       </c>
       <c r="L14">
-        <v>6.235458584184415</v>
+        <v>6.178737234546539</v>
       </c>
       <c r="M14">
-        <v>6.784836180618673</v>
+        <v>6.709716717727891</v>
       </c>
       <c r="N14">
-        <v>5.018795182748338</v>
+        <v>5.035430544024954</v>
       </c>
       <c r="O14">
-        <v>7.615125162583753</v>
+        <v>7.526333544681562</v>
       </c>
       <c r="P14">
-        <v>6.980890690163689</v>
+        <v>6.895842811255413</v>
       </c>
       <c r="Q14">
-        <v>5.66551399261454</v>
+        <v>5.534335333346711</v>
       </c>
       <c r="R14">
-        <v>5.748004400410786</v>
+        <v>5.739610425514439</v>
       </c>
       <c r="S14">
-        <v>6.559965070606303</v>
+        <v>6.137826933993456</v>
       </c>
       <c r="T14">
-        <v>6.304200922818794</v>
+        <v>6.23538905552651</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.508508851817438</v>
+        <v>1.470195695007484</v>
       </c>
       <c r="C15">
-        <v>1.719275837066443</v>
+        <v>1.71685822508586</v>
       </c>
       <c r="D15">
-        <v>1.431312000887083</v>
+        <v>1.422124277363128</v>
       </c>
       <c r="E15">
-        <v>1.284873577928128</v>
+        <v>1.261406675176332</v>
       </c>
       <c r="F15">
-        <v>1.79193278783605</v>
+        <v>1.777822382096043</v>
       </c>
       <c r="G15">
-        <v>1.674893895314189</v>
+        <v>1.683220141569121</v>
       </c>
       <c r="H15">
-        <v>1.655969164587705</v>
+        <v>1.664724346821351</v>
       </c>
       <c r="I15">
-        <v>1.309300721418599</v>
+        <v>1.3332779241714</v>
       </c>
       <c r="J15">
-        <v>1.331739796986682</v>
+        <v>1.320470793119486</v>
       </c>
       <c r="K15">
-        <v>1.614343497391401</v>
+        <v>1.609439092184678</v>
       </c>
       <c r="L15">
-        <v>1.366632817291962</v>
+        <v>1.354201132146489</v>
       </c>
       <c r="M15">
-        <v>2.384867435835605</v>
+        <v>2.358462972105524</v>
       </c>
       <c r="N15">
-        <v>1.077175464882437</v>
+        <v>1.080745884149241</v>
       </c>
       <c r="O15">
-        <v>1.929133101898118</v>
+        <v>1.906639597771904</v>
       </c>
       <c r="P15">
-        <v>1.975904976959091</v>
+        <v>1.951832615039506</v>
       </c>
       <c r="Q15">
-        <v>1.432366351903958</v>
+        <v>1.399201506160386</v>
       </c>
       <c r="R15">
-        <v>1.179992042027912</v>
+        <v>1.178268865967371</v>
       </c>
       <c r="S15">
-        <v>1.371832041994729</v>
+        <v>1.283553733235391</v>
       </c>
       <c r="T15">
-        <v>2.227768299077182</v>
+        <v>2.203451673000246</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>2.763626106861774</v>
+        <v>2.693435441246049</v>
       </c>
       <c r="C16">
-        <v>2.792176419297083</v>
+        <v>2.788250115548923</v>
       </c>
       <c r="D16">
-        <v>3.279273043128284</v>
+        <v>3.258223087520316</v>
       </c>
       <c r="E16">
-        <v>3.19559248420443</v>
+        <v>3.137228253396511</v>
       </c>
       <c r="F16">
-        <v>3.384486165760519</v>
+        <v>3.35783534864031</v>
       </c>
       <c r="G16">
-        <v>2.553551550553506</v>
+        <v>2.566245786943079</v>
       </c>
       <c r="H16">
-        <v>2.934092977101129</v>
+        <v>2.949605656476036</v>
       </c>
       <c r="I16">
-        <v>2.469908604615933</v>
+        <v>2.515140000600806</v>
       </c>
       <c r="J16">
-        <v>2.157579539153245</v>
+        <v>2.139322389952241</v>
       </c>
       <c r="K16">
-        <v>2.431105405477545</v>
+        <v>2.423719662587025</v>
       </c>
       <c r="L16">
-        <v>2.335842527946145</v>
+        <v>2.314594348852677</v>
       </c>
       <c r="M16">
-        <v>3.240210109666343</v>
+        <v>3.204335574657418</v>
       </c>
       <c r="N16">
-        <v>2.411609315930932</v>
+        <v>2.419602866328538</v>
       </c>
       <c r="O16">
-        <v>2.837805895755757</v>
+        <v>2.804717355331684</v>
       </c>
       <c r="P16">
-        <v>2.495290286819945</v>
+        <v>2.464890276910968</v>
       </c>
       <c r="Q16">
-        <v>2.400358224423528</v>
+        <v>2.34478060621398</v>
       </c>
       <c r="R16">
-        <v>2.833678731143289</v>
+        <v>2.829540629207975</v>
       </c>
       <c r="S16">
-        <v>2.244410105164552</v>
+        <v>2.099980814857121</v>
       </c>
       <c r="T16">
-        <v>2.180060832634229</v>
+        <v>2.156264945012478</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>18.8583341025215</v>
+        <v>18.37936952052789</v>
       </c>
       <c r="C17">
-        <v>19.87706834616089</v>
+        <v>19.84911760228576</v>
       </c>
       <c r="D17">
-        <v>17.60464743556836</v>
+        <v>17.49164158270436</v>
       </c>
       <c r="E17">
-        <v>20.78099734536129</v>
+        <v>20.40145366716123</v>
       </c>
       <c r="F17">
-        <v>19.46389782983322</v>
+        <v>19.31063120201921</v>
       </c>
       <c r="G17">
-        <v>15.5095930865866</v>
+        <v>15.58669450281004</v>
       </c>
       <c r="H17">
-        <v>18.84992975242454</v>
+        <v>18.949590164951</v>
       </c>
       <c r="I17">
-        <v>17.92994505427017</v>
+        <v>18.25829584555899</v>
       </c>
       <c r="J17">
-        <v>16.25030045844772</v>
+        <v>16.11279259157785</v>
       </c>
       <c r="K17">
-        <v>20.79705981812695</v>
+        <v>20.73387796827816</v>
       </c>
       <c r="L17">
-        <v>18.06468666535351</v>
+        <v>17.90035979274095</v>
       </c>
       <c r="M17">
-        <v>18.88454342445058</v>
+        <v>18.67546000353694</v>
       </c>
       <c r="N17">
-        <v>19.48243333830665</v>
+        <v>19.54701005549255</v>
       </c>
       <c r="O17">
-        <v>19.52927872774179</v>
+        <v>19.30156923936475</v>
       </c>
       <c r="P17">
-        <v>17.32618175421803</v>
+        <v>17.1150976571913</v>
       </c>
       <c r="Q17">
-        <v>16.68986587408742</v>
+        <v>16.30343063951264</v>
       </c>
       <c r="R17">
-        <v>16.36708386352385</v>
+        <v>16.34318254377764</v>
       </c>
       <c r="S17">
-        <v>25.73256822522924</v>
+        <v>24.07666026170449</v>
       </c>
       <c r="T17">
-        <v>23.21820161493289</v>
+        <v>22.96476936747561</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>19.65639922506856</v>
+        <v>19.15716535917392</v>
       </c>
       <c r="C18">
-        <v>20.31347456917105</v>
+        <v>20.28491015941962</v>
       </c>
       <c r="D18">
-        <v>21.0971467528014</v>
+        <v>20.96172222524281</v>
       </c>
       <c r="E18">
-        <v>19.2846791065609</v>
+        <v>18.93246415174567</v>
       </c>
       <c r="F18">
-        <v>21.77206610225362</v>
+        <v>21.60062402106259</v>
       </c>
       <c r="G18">
-        <v>17.86503077683658</v>
+        <v>17.95384156420409</v>
       </c>
       <c r="H18">
-        <v>18.84353913336197</v>
+        <v>18.94316575840272</v>
       </c>
       <c r="I18">
-        <v>20.52845287032071</v>
+        <v>20.90439009285557</v>
       </c>
       <c r="J18">
-        <v>17.91222972681483</v>
+        <v>17.7606588369771</v>
       </c>
       <c r="K18">
-        <v>21.3532890627727</v>
+        <v>21.28841737825863</v>
       </c>
       <c r="L18">
-        <v>17.93587759521795</v>
+        <v>17.77272244465358</v>
       </c>
       <c r="M18">
-        <v>21.57548125614439</v>
+        <v>21.33660466127516</v>
       </c>
       <c r="N18">
-        <v>19.33123762012134</v>
+        <v>19.39531318208893</v>
       </c>
       <c r="O18">
-        <v>18.88170962772549</v>
+        <v>18.66155073200009</v>
       </c>
       <c r="P18">
-        <v>22.52323599495206</v>
+        <v>22.24883641866013</v>
       </c>
       <c r="Q18">
-        <v>15.89047318657126</v>
+        <v>15.52254699832724</v>
       </c>
       <c r="R18">
-        <v>23.68388343923505</v>
+        <v>23.64929718821848</v>
       </c>
       <c r="S18">
-        <v>22.33692667336469</v>
+        <v>20.8995305131622</v>
       </c>
       <c r="T18">
-        <v>18.0036051489094</v>
+        <v>17.80709147438402</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>19.07383536706685</v>
+        <v>18.58939747695753</v>
       </c>
       <c r="C19">
-        <v>21.39543263904907</v>
+        <v>21.36534680106848</v>
       </c>
       <c r="D19">
-        <v>20.76709535533657</v>
+        <v>20.6337894580883</v>
       </c>
       <c r="E19">
-        <v>18.17112200568986</v>
+        <v>17.83924503325951</v>
       </c>
       <c r="F19">
-        <v>24.71063732219529</v>
+        <v>24.5160557390705</v>
       </c>
       <c r="G19">
-        <v>19.19133501718922</v>
+        <v>19.28673913906288</v>
       </c>
       <c r="H19">
-        <v>17.47355017182414</v>
+        <v>17.56593360461661</v>
       </c>
       <c r="I19">
-        <v>16.83604801200454</v>
+        <v>17.14436628460302</v>
       </c>
       <c r="J19">
-        <v>16.9465536453275</v>
+        <v>16.80315417720546</v>
       </c>
       <c r="K19">
-        <v>22.44337051348649</v>
+        <v>22.3751871414962</v>
       </c>
       <c r="L19">
-        <v>16.88498408398999</v>
+        <v>16.7313884706237</v>
       </c>
       <c r="M19">
-        <v>23.00160385738635</v>
+        <v>22.74693770460153</v>
       </c>
       <c r="N19">
-        <v>15.96807316237736</v>
+        <v>16.02100113737436</v>
       </c>
       <c r="O19">
-        <v>17.58896687442538</v>
+        <v>17.38388123332761</v>
       </c>
       <c r="P19">
-        <v>26.74074074528597</v>
+        <v>26.41495949733903</v>
       </c>
       <c r="Q19">
-        <v>17.47690431097833</v>
+        <v>17.07224607897063</v>
       </c>
       <c r="R19">
-        <v>26.998048138571</v>
+        <v>26.95862211824482</v>
       </c>
       <c r="S19">
-        <v>19.08150493308423</v>
+        <v>17.85359733761337</v>
       </c>
       <c r="T19">
-        <v>12.58028851719799</v>
+        <v>12.44297164634594</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>3.533273480238018</v>
+        <v>3.443535285637623</v>
       </c>
       <c r="C20">
-        <v>5.139712535904568</v>
+        <v>5.132485172885985</v>
       </c>
       <c r="D20">
-        <v>9.151573649507483</v>
+        <v>9.092828855606024</v>
       </c>
       <c r="E20">
-        <v>6.500765778057986</v>
+        <v>6.382035934946198</v>
       </c>
       <c r="F20">
-        <v>4.191104110423559</v>
+        <v>4.158101656370524</v>
       </c>
       <c r="G20">
-        <v>8.571071017330175</v>
+        <v>8.613679595795029</v>
       </c>
       <c r="H20">
-        <v>3.239245037338708</v>
+        <v>3.256371069156091</v>
       </c>
       <c r="I20">
-        <v>3.994613005187499</v>
+        <v>4.067766287987635</v>
       </c>
       <c r="J20">
-        <v>9.93350498379071</v>
+        <v>9.849448994527314</v>
       </c>
       <c r="K20">
-        <v>8.131655983147281</v>
+        <v>8.106951862860942</v>
       </c>
       <c r="L20">
-        <v>7.512553389308971</v>
+        <v>7.444214844242051</v>
       </c>
       <c r="M20">
-        <v>6.563969165229111</v>
+        <v>6.491295068906463</v>
       </c>
       <c r="N20">
-        <v>7.47704198389066</v>
+        <v>7.501825480756601</v>
       </c>
       <c r="O20">
-        <v>4.338154032538275</v>
+        <v>4.287571578929949</v>
       </c>
       <c r="P20">
-        <v>9.376145285562052</v>
+        <v>9.261916127097146</v>
       </c>
       <c r="Q20">
-        <v>5.549238692612189</v>
+        <v>5.420752258265198</v>
       </c>
       <c r="R20">
-        <v>4.375308622022921</v>
+        <v>4.368919233953835</v>
       </c>
       <c r="S20">
-        <v>4.295906329423596</v>
+        <v>4.019461885978015</v>
       </c>
       <c r="T20">
-        <v>3.230477013422819</v>
+        <v>3.195215580886017</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>31.2413683037042</v>
+        <v>30.447899016908</v>
       </c>
       <c r="C21">
-        <v>29.52082246671749</v>
+        <v>29.47931086483633</v>
       </c>
       <c r="D21">
-        <v>28.64911486707091</v>
+        <v>28.46521356082771</v>
       </c>
       <c r="E21">
-        <v>28.06734949118554</v>
+        <v>27.55472803774076</v>
       </c>
       <c r="F21">
-        <v>29.66285785219833</v>
+        <v>29.42928047555569</v>
       </c>
       <c r="G21">
-        <v>23.59596568996806</v>
+        <v>23.71326614792975</v>
       </c>
       <c r="H21">
-        <v>29.78587662324252</v>
+        <v>29.94335587068389</v>
       </c>
       <c r="I21">
-        <v>31.24398216310939</v>
+        <v>31.81615269878136</v>
       </c>
       <c r="J21">
-        <v>23.89444296550542</v>
+        <v>23.6922513881477</v>
       </c>
       <c r="K21">
-        <v>29.95246531620412</v>
+        <v>29.86146917623246</v>
       </c>
       <c r="L21">
-        <v>29.5122000630721</v>
+        <v>29.24373996574962</v>
       </c>
       <c r="M21">
-        <v>30.63930105997745</v>
+        <v>30.30007284905186</v>
       </c>
       <c r="N21">
-        <v>23.81595837544892</v>
+        <v>23.89489904891698</v>
       </c>
       <c r="O21">
-        <v>29.12384137360594</v>
+        <v>28.78426021901177</v>
       </c>
       <c r="P21">
-        <v>33.71122772354182</v>
+        <v>33.30052534464324</v>
       </c>
       <c r="Q21">
-        <v>23.24924623547003</v>
+        <v>22.71093586254848</v>
       </c>
       <c r="R21">
-        <v>29.81220182153686</v>
+        <v>29.76866621226053</v>
       </c>
       <c r="S21">
-        <v>21.75818503064816</v>
+        <v>20.35803128195352</v>
       </c>
       <c r="T21">
-        <v>24.97911827810403</v>
+        <v>24.70646520230984</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>74.56028000500484</v>
+        <v>72.66659559196067</v>
       </c>
       <c r="C22">
-        <v>69.30707206978909</v>
+        <v>69.20961382361202</v>
       </c>
       <c r="D22">
-        <v>75.12672390957495</v>
+        <v>74.64447855139032</v>
       </c>
       <c r="E22">
-        <v>78.13651915072474</v>
+        <v>76.70943548446195</v>
       </c>
       <c r="F22">
-        <v>82.26675735106964</v>
+        <v>81.61895552891529</v>
       </c>
       <c r="G22">
-        <v>76.6662831386051</v>
+        <v>77.04740719347701</v>
       </c>
       <c r="H22">
-        <v>70.88953960629141</v>
+        <v>71.26433573836002</v>
       </c>
       <c r="I22">
-        <v>83.39578487027157</v>
+        <v>84.92301051817083</v>
       </c>
       <c r="J22">
-        <v>63.38539659357668</v>
+        <v>62.84903785371399</v>
       </c>
       <c r="K22">
-        <v>75.42021016624817</v>
+        <v>75.19108218200617</v>
       </c>
       <c r="L22">
-        <v>70.92510153281535</v>
+        <v>70.27992565235188</v>
       </c>
       <c r="M22">
-        <v>90.24775147928993</v>
+        <v>89.24855821393287</v>
       </c>
       <c r="N22">
-        <v>63.25547429671362</v>
+        <v>63.46514168287567</v>
       </c>
       <c r="O22">
-        <v>79.49210133541607</v>
+        <v>78.56523117408285</v>
       </c>
       <c r="P22">
-        <v>64.8271294688421</v>
+        <v>64.03734345130627</v>
       </c>
       <c r="Q22">
-        <v>60.87447987498071</v>
+        <v>59.46499917048751</v>
       </c>
       <c r="R22">
-        <v>74.03558702830092</v>
+        <v>73.92747074729955</v>
       </c>
       <c r="S22">
-        <v>58.79139832577278</v>
+        <v>55.00813255057689</v>
       </c>
       <c r="T22">
-        <v>66.86116230075505</v>
+        <v>66.13135665471447</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>11.99544767776964</v>
+        <v>11.69078690807626</v>
       </c>
       <c r="C23">
-        <v>12.48368820199442</v>
+        <v>12.46613388435188</v>
       </c>
       <c r="D23">
-        <v>12.71351447363287</v>
+        <v>12.63190525361015</v>
       </c>
       <c r="E23">
-        <v>17.18180793547733</v>
+        <v>16.86799977345407</v>
       </c>
       <c r="F23">
-        <v>24.95634555764649</v>
+        <v>24.75982916819447</v>
       </c>
       <c r="G23">
-        <v>11.67435072223737</v>
+        <v>11.73238635019668</v>
       </c>
       <c r="H23">
-        <v>10.15868782733326</v>
+        <v>10.21239725929914</v>
       </c>
       <c r="I23">
-        <v>8.358948743249496</v>
+        <v>8.512026035225636</v>
       </c>
       <c r="J23">
-        <v>11.38018878744419</v>
+        <v>11.28389115351803</v>
       </c>
       <c r="K23">
-        <v>10.74657277694167</v>
+        <v>10.71392449138979</v>
       </c>
       <c r="L23">
-        <v>6.932912573698933</v>
+        <v>6.869846777848885</v>
       </c>
       <c r="M23">
-        <v>10.41383841475353</v>
+        <v>10.29853983899981</v>
       </c>
       <c r="N23">
-        <v>19.65920445160789</v>
+        <v>19.7243670965366</v>
       </c>
       <c r="O23">
-        <v>7.556037476515682</v>
+        <v>7.467934815279607</v>
       </c>
       <c r="P23">
-        <v>8.991207944971805</v>
+        <v>8.881668460902734</v>
       </c>
       <c r="Q23">
-        <v>11.15152799085045</v>
+        <v>10.89332679453634</v>
       </c>
       <c r="R23">
-        <v>8.051960085348739</v>
+        <v>8.04020157820181</v>
       </c>
       <c r="S23">
-        <v>27.3375045399848</v>
+        <v>25.57831785195449</v>
       </c>
       <c r="T23">
-        <v>28.05795370176175</v>
+        <v>27.75169439780616</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>2.387090930348473</v>
+        <v>2.32646351737448</v>
       </c>
       <c r="C24">
-        <v>2.482575023350252</v>
+        <v>2.47908407501622</v>
       </c>
       <c r="D24">
-        <v>3.122416933442028</v>
+        <v>3.102373851644904</v>
       </c>
       <c r="E24">
-        <v>1.919979256387496</v>
+        <v>1.884912797500729</v>
       </c>
       <c r="F24">
-        <v>2.620887844812839</v>
+        <v>2.600249910655708</v>
       </c>
       <c r="G24">
-        <v>1.515344183390354</v>
+        <v>1.522877274810166</v>
       </c>
       <c r="H24">
-        <v>2.589798375105325</v>
+        <v>2.603490753687805</v>
       </c>
       <c r="I24">
-        <v>1.997306502593749</v>
+        <v>2.033883143993818</v>
       </c>
       <c r="J24">
-        <v>2.476054971637691</v>
+        <v>2.455102925964872</v>
       </c>
       <c r="K24">
-        <v>3.360551686401407</v>
+        <v>3.350342268631967</v>
       </c>
       <c r="L24">
-        <v>3.089846840934814</v>
+        <v>3.06173980107143</v>
       </c>
       <c r="M24">
-        <v>2.567682456064419</v>
+        <v>2.53925392487532</v>
       </c>
       <c r="N24">
-        <v>1.849702840884018</v>
+        <v>1.855833889052363</v>
       </c>
       <c r="O24">
-        <v>2.432176915720888</v>
+        <v>2.403817969707459</v>
       </c>
       <c r="P24">
-        <v>3.155525850202388</v>
+        <v>3.117082219967911</v>
       </c>
       <c r="Q24">
-        <v>2.090048517542254</v>
+        <v>2.041655774590192</v>
       </c>
       <c r="R24">
-        <v>3.076468460654068</v>
+        <v>3.071975805946585</v>
       </c>
       <c r="S24">
-        <v>0.9243790126722292</v>
+        <v>0.8648946054027538</v>
       </c>
       <c r="T24">
-        <v>3.037943309563759</v>
+        <v>3.004783428649666</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>23.71066477343819</v>
+        <v>23.1084605394766</v>
       </c>
       <c r="C25">
-        <v>24.99619568286687</v>
+        <v>24.96104652247674</v>
       </c>
       <c r="D25">
-        <v>25.97194053664456</v>
+        <v>25.80522425893332</v>
       </c>
       <c r="E25">
-        <v>25.16268633964111</v>
+        <v>24.70311559007487</v>
       </c>
       <c r="F25">
-        <v>25.02004769276346</v>
+        <v>24.82302968685624</v>
       </c>
       <c r="G25">
-        <v>21.70556625959088</v>
+        <v>21.81346914841608</v>
       </c>
       <c r="H25">
-        <v>25.11673057065442</v>
+        <v>25.24952383635162</v>
       </c>
       <c r="I25">
-        <v>23.82702264361839</v>
+        <v>24.2633665206023</v>
       </c>
       <c r="J25">
-        <v>22.11464118074751</v>
+        <v>21.92751004781044</v>
       </c>
       <c r="K25">
-        <v>25.05668894738248</v>
+        <v>24.98056626597338</v>
       </c>
       <c r="L25">
-        <v>25.43979135177393</v>
+        <v>25.20837624725562</v>
       </c>
       <c r="M25">
-        <v>24.31274325585996</v>
+        <v>24.04356060116318</v>
       </c>
       <c r="N25">
-        <v>23.25555633540882</v>
+        <v>23.33263949326671</v>
       </c>
       <c r="O25">
-        <v>21.73468668612035</v>
+        <v>21.48126235569174</v>
       </c>
       <c r="P25">
-        <v>22.22232863515595</v>
+        <v>21.95159499976388</v>
       </c>
       <c r="Q25">
-        <v>21.3830276704323</v>
+        <v>20.8879275074902</v>
       </c>
       <c r="R25">
-        <v>27.25611834056847</v>
+        <v>27.21631545295999</v>
       </c>
       <c r="S25">
-        <v>31.35922308497325</v>
+        <v>29.34123612067778</v>
       </c>
       <c r="T25">
-        <v>25.32755316694631</v>
+        <v>25.05109684064907</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>6.703431276626731</v>
+        <v>6.533177311357171</v>
       </c>
       <c r="C26">
-        <v>7.759796689901417</v>
+        <v>7.748885015904762</v>
       </c>
       <c r="D26">
-        <v>7.421254689530974</v>
+        <v>7.373616972355393</v>
       </c>
       <c r="E26">
-        <v>6.107972594174852</v>
+        <v>5.99641671712953</v>
       </c>
       <c r="F26">
-        <v>7.621919101723698</v>
+        <v>7.56190101858303</v>
       </c>
       <c r="G26">
-        <v>5.898802382548979</v>
+        <v>5.928126557282488</v>
       </c>
       <c r="H26">
-        <v>6.641450860772879</v>
+        <v>6.676564505293156</v>
       </c>
       <c r="I26">
-        <v>5.978255841566321</v>
+        <v>6.087735543270027</v>
       </c>
       <c r="J26">
-        <v>6.879801469095026</v>
+        <v>6.821585510139532</v>
       </c>
       <c r="K26">
-        <v>6.994422915430468</v>
+        <v>6.973173730099162</v>
       </c>
       <c r="L26">
-        <v>6.452234824168657</v>
+        <v>6.39354155205943</v>
       </c>
       <c r="M26">
-        <v>6.507718389774092</v>
+        <v>6.435667083438834</v>
       </c>
       <c r="N26">
-        <v>6.723320045474319</v>
+        <v>6.745605246177314</v>
       </c>
       <c r="O26">
-        <v>5.820935559949205</v>
+        <v>5.753064018111417</v>
       </c>
       <c r="P26">
-        <v>7.728357376465752</v>
+        <v>7.634203144364728</v>
       </c>
       <c r="Q26">
-        <v>6.932188042015148</v>
+        <v>6.771680957515939</v>
       </c>
       <c r="R26">
-        <v>7.324439811954552</v>
+        <v>7.313743723429121</v>
       </c>
       <c r="S26">
-        <v>7.407535778843932</v>
+        <v>6.930855900686416</v>
       </c>
       <c r="T26">
-        <v>7.061556952600672</v>
+        <v>6.984478362332329</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>11.96387240091318</v>
+        <v>11.66001358112686</v>
       </c>
       <c r="C27">
-        <v>12.82128546885134</v>
+        <v>12.80325642854977</v>
       </c>
       <c r="D27">
-        <v>13.06235592590387</v>
+        <v>12.97850746047891</v>
       </c>
       <c r="E27">
-        <v>16.82528445619637</v>
+        <v>16.51798783115289</v>
       </c>
       <c r="F27">
-        <v>19.44652452025586</v>
+        <v>19.29339469692963</v>
       </c>
       <c r="G27">
-        <v>12.86530236337499</v>
+        <v>12.9292584598903</v>
       </c>
       <c r="H27">
-        <v>10.70987872147967</v>
+        <v>10.76650232408772</v>
       </c>
       <c r="I27">
-        <v>11.40032009367797</v>
+        <v>11.60909396958081</v>
       </c>
       <c r="J27">
-        <v>13.70981827288214</v>
+        <v>13.59380762614376</v>
       </c>
       <c r="K27">
-        <v>13.47896902326899</v>
+        <v>13.43801966771623</v>
       </c>
       <c r="L27">
-        <v>9.87352939435474</v>
+        <v>9.783714041502021</v>
       </c>
       <c r="M27">
-        <v>14.19008532581477</v>
+        <v>14.03297739281934</v>
       </c>
       <c r="N27">
-        <v>11.91587747151026</v>
+        <v>11.9553739879945</v>
       </c>
       <c r="O27">
-        <v>12.1768542234877</v>
+        <v>12.0348732889162</v>
       </c>
       <c r="P27">
-        <v>12.81497221387036</v>
+        <v>12.65884798081313</v>
       </c>
       <c r="Q27">
-        <v>12.39204009775053</v>
+        <v>12.10511622681222</v>
       </c>
       <c r="R27">
-        <v>10.71670470400026</v>
+        <v>10.70105479422453</v>
       </c>
       <c r="S27">
-        <v>15.46436966610594</v>
+        <v>14.46922714255912</v>
       </c>
       <c r="T27">
-        <v>14.21086156669463</v>
+        <v>14.05574659935645</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>23.64751421972527</v>
+        <v>23.04691388557781</v>
       </c>
       <c r="C28">
-        <v>30.47515230156424</v>
+        <v>30.43229873977623</v>
       </c>
       <c r="D28">
-        <v>30.64821330666606</v>
+        <v>30.45147960346902</v>
       </c>
       <c r="E28">
-        <v>26.74620620865523</v>
+        <v>26.25771408704894</v>
       </c>
       <c r="F28">
-        <v>30.1435194171719</v>
+        <v>29.90615711636723</v>
       </c>
       <c r="G28">
-        <v>25.22473383918105</v>
+        <v>25.35013124271075</v>
       </c>
       <c r="H28">
-        <v>25.23256054116345</v>
+        <v>25.36596620503908</v>
       </c>
       <c r="I28">
-        <v>23.64859123775287</v>
+        <v>24.08166750331191</v>
       </c>
       <c r="J28">
-        <v>32.24289206118388</v>
+        <v>31.97005702527882</v>
       </c>
       <c r="K28">
-        <v>30.79799770246159</v>
+        <v>30.70443281956483</v>
       </c>
       <c r="L28">
-        <v>22.2392001273689</v>
+        <v>22.03689945788956</v>
       </c>
       <c r="M28">
-        <v>25.89438270688934</v>
+        <v>25.60768866313535</v>
       </c>
       <c r="N28">
-        <v>33.02385283468489</v>
+        <v>33.13331411027931</v>
       </c>
       <c r="O28">
-        <v>23.97442938099792</v>
+        <v>23.69488986883337</v>
       </c>
       <c r="P28">
-        <v>36.72990474787948</v>
+        <v>36.28242596186844</v>
       </c>
       <c r="Q28">
-        <v>29.8609504818537</v>
+        <v>29.16955346937101</v>
       </c>
       <c r="R28">
-        <v>34.631493060812</v>
+        <v>34.58091970297763</v>
       </c>
       <c r="S28">
-        <v>30.05080255012802</v>
+        <v>28.11701332172605</v>
       </c>
       <c r="T28">
-        <v>27.00668560192954</v>
+        <v>26.71190114178998</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>5.209920681316111</v>
+        <v>5.07759894665065</v>
       </c>
       <c r="C29">
-        <v>5.281338706390884</v>
+        <v>5.27391219142754</v>
       </c>
       <c r="D29">
-        <v>5.717078414502175</v>
+        <v>5.680379961750665</v>
       </c>
       <c r="E29">
-        <v>4.312236368445872</v>
+        <v>4.233477778309515</v>
       </c>
       <c r="F29">
-        <v>5.811785703854227</v>
+        <v>5.766021345440768</v>
       </c>
       <c r="G29">
-        <v>4.458318016601561</v>
+        <v>4.480481243653064</v>
       </c>
       <c r="H29">
-        <v>5.082938636889322</v>
+        <v>5.109812358332975</v>
       </c>
       <c r="I29">
-        <v>4.424616618421968</v>
+        <v>4.505644550376646</v>
       </c>
       <c r="J29">
-        <v>4.518690504124135</v>
+        <v>4.480453950045886</v>
       </c>
       <c r="K29">
-        <v>5.219444248249129</v>
+        <v>5.203587480721849</v>
       </c>
       <c r="L29">
-        <v>4.274261949254513</v>
+        <v>4.235380782265054</v>
       </c>
       <c r="M29">
-        <v>5.454670784564683</v>
+        <v>5.394278473140418</v>
       </c>
       <c r="N29">
-        <v>5.349770884248529</v>
+        <v>5.367503301724442</v>
       </c>
       <c r="O29">
-        <v>5.282758527383256</v>
+        <v>5.221162077342268</v>
       </c>
       <c r="P29">
-        <v>5.337904494255624</v>
+        <v>5.272873042654316</v>
       </c>
       <c r="Q29">
-        <v>4.605955321343119</v>
+        <v>4.499309561666426</v>
       </c>
       <c r="R29">
-        <v>5.289590225810015</v>
+        <v>5.281865686217762</v>
       </c>
       <c r="S29">
-        <v>5.757050353319023</v>
+        <v>5.386580315387586</v>
       </c>
       <c r="T29">
-        <v>5.413945522231545</v>
+        <v>5.35485100646905</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>8.681622371684028</v>
+        <v>8.461126244736947</v>
       </c>
       <c r="C30">
-        <v>13.19922972613749</v>
+        <v>13.18066922802985</v>
       </c>
       <c r="D30">
-        <v>14.34743228286471</v>
+        <v>14.25533479397902</v>
       </c>
       <c r="E30">
-        <v>9.413917583871006</v>
+        <v>9.24198200028593</v>
       </c>
       <c r="F30">
-        <v>11.04115188663893</v>
+        <v>10.95420937740249</v>
       </c>
       <c r="G30">
-        <v>11.51782564940213</v>
+        <v>11.57508315863695</v>
       </c>
       <c r="H30">
-        <v>11.61814545574702</v>
+        <v>11.67957110476108</v>
       </c>
       <c r="I30">
-        <v>10.41653612620322</v>
+        <v>10.6072939823581</v>
       </c>
       <c r="J30">
-        <v>15.35783712006027</v>
+        <v>15.22788115847579</v>
       </c>
       <c r="K30">
-        <v>12.17710488601623</v>
+        <v>12.14011061763265</v>
       </c>
       <c r="L30">
-        <v>8.596434589230183</v>
+        <v>8.518236431806507</v>
       </c>
       <c r="M30">
-        <v>9.994439250699198</v>
+        <v>9.883784123822041</v>
       </c>
       <c r="N30">
-        <v>15.734133518817</v>
+        <v>15.78628607454586</v>
       </c>
       <c r="O30">
-        <v>13.84568211378864</v>
+        <v>13.68424280851193</v>
       </c>
       <c r="P30">
-        <v>19.02838907944767</v>
+        <v>18.79656706674538</v>
       </c>
       <c r="Q30">
-        <v>14.57874245841974</v>
+        <v>14.24118793256392</v>
       </c>
       <c r="R30">
-        <v>17.21175442598268</v>
+        <v>17.18661960970392</v>
       </c>
       <c r="S30">
-        <v>10.6254464867261</v>
+        <v>9.94169190384209</v>
       </c>
       <c r="T30">
-        <v>14.95032729656041</v>
+        <v>14.78714088316685</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>1.589025807801414</v>
+        <v>1.548667678728448</v>
       </c>
       <c r="C31">
-        <v>2.086515790769333</v>
+        <v>2.083581773164544</v>
       </c>
       <c r="D31">
-        <v>1.709078028456495</v>
+        <v>1.698107299225835</v>
       </c>
       <c r="E31">
-        <v>2.927042330979813</v>
+        <v>2.873582894260557</v>
       </c>
       <c r="F31">
-        <v>2.717681998172403</v>
+        <v>2.696281867583334</v>
       </c>
       <c r="G31">
-        <v>1.547859053592842</v>
+        <v>1.555553783201802</v>
       </c>
       <c r="H31">
-        <v>1.86685959365242</v>
+        <v>1.876729762914374</v>
       </c>
       <c r="I31">
-        <v>1.425843756781212</v>
+        <v>1.45195521023945</v>
       </c>
       <c r="J31">
-        <v>3.100559670279603</v>
+        <v>3.074323149456307</v>
       </c>
       <c r="K31">
-        <v>1.847704042558871</v>
+        <v>1.842090683728206</v>
       </c>
       <c r="L31">
-        <v>1.224471587447223</v>
+        <v>1.213333083342745</v>
       </c>
       <c r="M31">
-        <v>2.024200699094598</v>
+        <v>2.001789418224841</v>
       </c>
       <c r="N31">
-        <v>3.702414551781673</v>
+        <v>3.714686621356539</v>
       </c>
       <c r="O31">
-        <v>1.108293354898422</v>
+        <v>1.095370762296111</v>
       </c>
       <c r="P31">
-        <v>2.897033623569019</v>
+        <v>2.861739192565011</v>
       </c>
       <c r="Q31">
-        <v>2.599479675677554</v>
+        <v>2.53929162229107</v>
       </c>
       <c r="R31">
-        <v>1.424479601814991</v>
+        <v>1.422399393592265</v>
       </c>
       <c r="S31">
-        <v>1.21732231330652</v>
+        <v>1.138986808854061</v>
       </c>
       <c r="T31">
-        <v>1.482339135906041</v>
+        <v>1.466159048191368</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>1.638756868850341</v>
+        <v>1.59713566867375</v>
       </c>
       <c r="C32">
-        <v>2.150741612268942</v>
+        <v>2.147717281572924</v>
       </c>
       <c r="D32">
-        <v>1.762180357256529</v>
+        <v>1.750868759287823</v>
       </c>
       <c r="E32">
-        <v>3.017330744563951</v>
+        <v>2.962222282245921</v>
       </c>
       <c r="F32">
-        <v>2.801239344234934</v>
+        <v>2.779181249204617</v>
       </c>
       <c r="G32">
-        <v>1.595497119238347</v>
+        <v>1.603428667589546</v>
       </c>
       <c r="H32">
-        <v>1.925173992598345</v>
+        <v>1.935352472667369</v>
       </c>
       <c r="I32">
-        <v>1.470049735711858</v>
+        <v>1.496970732541124</v>
       </c>
       <c r="J32">
-        <v>3.196468363740436</v>
+        <v>3.169420276393444</v>
       </c>
       <c r="K32">
-        <v>1.904445818952331</v>
+        <v>1.89866007756242</v>
       </c>
       <c r="L32">
-        <v>1.26295722425602</v>
+        <v>1.251468632466411</v>
       </c>
       <c r="M32">
-        <v>2.08624199555234</v>
+        <v>2.063143813961197</v>
       </c>
       <c r="N32">
-        <v>3.816751612299921</v>
+        <v>3.829402664925452</v>
       </c>
       <c r="O32">
-        <v>1.142628091397436</v>
+        <v>1.12930515911076</v>
       </c>
       <c r="P32">
-        <v>2.985865317551384</v>
+        <v>2.949488653994491</v>
       </c>
       <c r="Q32">
-        <v>2.67941894442917</v>
+        <v>2.61737998640961</v>
       </c>
       <c r="R32">
-        <v>1.468623188998768</v>
+        <v>1.466478516635649</v>
       </c>
       <c r="S32">
-        <v>1.254833345704814</v>
+        <v>1.174083981247217</v>
       </c>
       <c r="T32">
-        <v>1.528342764261745</v>
+        <v>1.511660535893859</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>2.848879354374219</v>
+        <v>2.776523424009424</v>
       </c>
       <c r="C33">
-        <v>4.017407475597307</v>
+        <v>4.011758275954938</v>
       </c>
       <c r="D33">
-        <v>4.240833673861216</v>
+        <v>4.213611372027394</v>
       </c>
       <c r="E33">
-        <v>3.799830328959819</v>
+        <v>3.730430311452408</v>
       </c>
       <c r="F33">
-        <v>4.367319107565333</v>
+        <v>4.3329290651362</v>
       </c>
       <c r="G33">
-        <v>2.970195585008638</v>
+        <v>2.984961045635895</v>
       </c>
       <c r="H33">
-        <v>4.92876495200489</v>
+        <v>4.954823550355878</v>
       </c>
       <c r="I33">
-        <v>3.116923387146302</v>
+        <v>3.174003554288944</v>
       </c>
       <c r="J33">
-        <v>6.069336402979435</v>
+        <v>6.017978490907387</v>
       </c>
       <c r="K33">
-        <v>2.911412554948948</v>
+        <v>2.902567630113259</v>
       </c>
       <c r="L33">
-        <v>2.380611534029848</v>
+        <v>2.358956110078166</v>
       </c>
       <c r="M33">
-        <v>4.107133825502525</v>
+        <v>4.061660997746766</v>
       </c>
       <c r="N33">
-        <v>4.942068997400567</v>
+        <v>4.95845004110371</v>
       </c>
       <c r="O33">
-        <v>2.548755323368705</v>
+        <v>2.519037084473477</v>
       </c>
       <c r="P33">
-        <v>5.558783300914477</v>
+        <v>5.491060892695184</v>
       </c>
       <c r="Q33">
-        <v>6.933641483265179</v>
+        <v>6.773100745954459</v>
       </c>
       <c r="R33">
-        <v>6.275180701201674</v>
+        <v>6.266016875705617</v>
       </c>
       <c r="S33">
-        <v>2.336401446522272</v>
+        <v>2.186052451916526</v>
       </c>
       <c r="T33">
-        <v>2.845409605704699</v>
+        <v>2.814351276413317</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>4.628146205235813</v>
+        <v>4.510600397607995</v>
       </c>
       <c r="C34">
-        <v>4.480162753581665</v>
+        <v>4.473862836538392</v>
       </c>
       <c r="D34">
-        <v>7.755390881518883</v>
+        <v>7.705608313360828</v>
       </c>
       <c r="E34">
-        <v>5.06541151082296</v>
+        <v>4.972896946460927</v>
       </c>
       <c r="F34">
-        <v>6.418196938149621</v>
+        <v>6.367657451662558</v>
       </c>
       <c r="G34">
-        <v>3.408768252856146</v>
+        <v>3.425713949523069</v>
       </c>
       <c r="H34">
-        <v>4.749827618253011</v>
+        <v>4.774940167004222</v>
       </c>
       <c r="I34">
-        <v>3.732592111889486</v>
+        <v>3.800947010344986</v>
       </c>
       <c r="J34">
-        <v>5.133677546163065</v>
+        <v>5.090237054070278</v>
       </c>
       <c r="K34">
-        <v>5.726124336044252</v>
+        <v>5.708728265100604</v>
       </c>
       <c r="L34">
-        <v>3.803794674795959</v>
+        <v>3.769193151141061</v>
       </c>
       <c r="M34">
-        <v>4.804477997687545</v>
+        <v>4.751284405823407</v>
       </c>
       <c r="N34">
-        <v>5.497957732420206</v>
+        <v>5.516181331876258</v>
       </c>
       <c r="O34">
-        <v>5.022453315786077</v>
+        <v>4.963891999166092</v>
       </c>
       <c r="P34">
-        <v>6.379876256102824</v>
+        <v>6.302150509151456</v>
       </c>
       <c r="Q34">
-        <v>6.344271056378263</v>
+        <v>6.197376534135041</v>
       </c>
       <c r="R34">
-        <v>6.26414480440573</v>
+        <v>6.25499709494477</v>
       </c>
       <c r="S34">
-        <v>2.681145696658968</v>
+        <v>2.508612179148857</v>
       </c>
       <c r="T34">
-        <v>3.26540569421141</v>
+        <v>3.229763006734204</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>108.3608244979252</v>
+        <v>105.6086727581174</v>
       </c>
       <c r="C35">
-        <v>103.8498597329952</v>
+        <v>103.703828095919</v>
       </c>
       <c r="D35">
-        <v>112.2811979326022</v>
+        <v>111.5604545846082</v>
       </c>
       <c r="E35">
-        <v>90.14642154910038</v>
+        <v>88.49998928972877</v>
       </c>
       <c r="F35">
-        <v>103.165194171719</v>
+        <v>102.3528295797593</v>
       </c>
       <c r="G35">
-        <v>87.9814579690708</v>
+        <v>88.4188321137661</v>
       </c>
       <c r="H35">
-        <v>99.43403847663025</v>
+        <v>99.95975063704179</v>
       </c>
       <c r="I35">
-        <v>103.1751473339857</v>
+        <v>105.0645921240235</v>
       </c>
       <c r="J35">
-        <v>84.36890089343116</v>
+        <v>83.65498254947956</v>
       </c>
       <c r="K35">
-        <v>105.2360157111385</v>
+        <v>104.916306761821</v>
       </c>
       <c r="L35">
-        <v>102.1424509328649</v>
+        <v>101.2133039272337</v>
       </c>
       <c r="M35">
-        <v>94.04633325707594</v>
+        <v>93.00508335021749</v>
       </c>
       <c r="N35">
-        <v>98.89553960825684</v>
+        <v>99.22334000060684</v>
       </c>
       <c r="O35">
-        <v>103.6046681446542</v>
+        <v>102.3966478021938</v>
       </c>
       <c r="P35">
-        <v>104.665343220573</v>
+        <v>103.3902100275179</v>
       </c>
       <c r="Q35">
-        <v>108.0204804228088</v>
+        <v>105.5193866449446</v>
       </c>
       <c r="R35">
-        <v>114.5942055836733</v>
+        <v>114.4268603942946</v>
       </c>
       <c r="S35">
-        <v>105.5435414913314</v>
+        <v>98.75174405687444</v>
       </c>
       <c r="T35">
-        <v>106.1141841547819</v>
+        <v>104.955922346936</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>8.133001936303016</v>
+        <v>7.926439688991159</v>
       </c>
       <c r="C36">
-        <v>13.64139980492326</v>
+        <v>13.62221753591831</v>
       </c>
       <c r="D36">
-        <v>7.772547018515817</v>
+        <v>7.722654323534699</v>
       </c>
       <c r="E36">
-        <v>7.108090406183773</v>
+        <v>6.978268399428946</v>
       </c>
       <c r="F36">
-        <v>7.060182092055797</v>
+        <v>7.004587354020144</v>
       </c>
       <c r="G36">
-        <v>5.575166000068405</v>
+        <v>5.602881310965746</v>
       </c>
       <c r="H36">
-        <v>12.44093766005254</v>
+        <v>12.50671344785129</v>
       </c>
       <c r="I36">
-        <v>10.32732042327046</v>
+        <v>10.5164444737129</v>
       </c>
       <c r="J36">
-        <v>7.045994395931737</v>
+        <v>6.986372134679457</v>
       </c>
       <c r="K36">
-        <v>7.270939177854935</v>
+        <v>7.248849931037726</v>
       </c>
       <c r="L36">
-        <v>11.81587592145992</v>
+        <v>11.70839185747804</v>
       </c>
       <c r="M36">
-        <v>9.226781609195401</v>
+        <v>9.124625733910863</v>
       </c>
       <c r="N36">
-        <v>9.980421835237555</v>
+        <v>10.01350306626545</v>
       </c>
       <c r="O36">
-        <v>6.327173302748629</v>
+        <v>6.253399078122753</v>
       </c>
       <c r="P36">
-        <v>13.76411085407833</v>
+        <v>13.59642330743802</v>
       </c>
       <c r="Q36">
-        <v>9.182841817685649</v>
+        <v>8.970223354562471</v>
       </c>
       <c r="R36">
-        <v>14.94939558281405</v>
+        <v>14.92756455373051</v>
       </c>
       <c r="S36">
-        <v>7.494168401287609</v>
+        <v>7.011913655975371</v>
       </c>
       <c r="T36">
-        <v>7.074335738255034</v>
+        <v>6.99711766447191</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>23.97510771711105</v>
+        <v>23.36618715267781</v>
       </c>
       <c r="C37">
-        <v>24.2806541587238</v>
+        <v>24.24651117879877</v>
       </c>
       <c r="D37">
-        <v>25.3273599609026</v>
+        <v>25.1647813052578</v>
       </c>
       <c r="E37">
-        <v>24.95587185382445</v>
+        <v>24.50007835947591</v>
       </c>
       <c r="F37">
-        <v>27.40184570577362</v>
+        <v>27.18607245604115</v>
       </c>
       <c r="G37">
-        <v>27.76769915292445</v>
+        <v>27.90573816645655</v>
       </c>
       <c r="H37">
-        <v>23.77230408536686</v>
+        <v>23.8979893087586</v>
       </c>
       <c r="I37">
-        <v>26.37489452016656</v>
+        <v>26.85789753326242</v>
       </c>
       <c r="J37">
-        <v>18.58725121819565</v>
+        <v>18.42996838687054</v>
       </c>
       <c r="K37">
-        <v>28.76248637183987</v>
+        <v>28.67510540976564</v>
       </c>
       <c r="L37">
-        <v>24.24595118954187</v>
+        <v>24.02539594790927</v>
       </c>
       <c r="M37">
-        <v>31.92810559172628</v>
+        <v>31.57460816314843</v>
       </c>
       <c r="N37">
-        <v>17.76211190800907</v>
+        <v>17.82098642626817</v>
       </c>
       <c r="O37">
-        <v>27.70573690797222</v>
+        <v>27.38269071336488</v>
       </c>
       <c r="P37">
-        <v>22.98740160314821</v>
+        <v>22.70734711802137</v>
       </c>
       <c r="Q37">
-        <v>21.24640419292954</v>
+        <v>20.75446739426942</v>
       </c>
       <c r="R37">
-        <v>27.07020592531372</v>
+        <v>27.03067453091189</v>
       </c>
       <c r="S37">
-        <v>35.69978540534719</v>
+        <v>33.40248035474288</v>
       </c>
       <c r="T37">
-        <v>28.00087512583893</v>
+        <v>27.69523884824937</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>4.353441296584599</v>
+        <v>4.242872453148233</v>
       </c>
       <c r="C38">
-        <v>5.381794478480016</v>
+        <v>5.374226704579108</v>
       </c>
       <c r="D38">
-        <v>5.022663345578647</v>
+        <v>4.990422407093896</v>
       </c>
       <c r="E38">
-        <v>3.85770751715478</v>
+        <v>3.787250431955846</v>
       </c>
       <c r="F38">
-        <v>4.089346154327607</v>
+        <v>4.05714498370302</v>
       </c>
       <c r="G38">
-        <v>3.432209205792823</v>
+        <v>3.449271432317038</v>
       </c>
       <c r="H38">
-        <v>5.018233618880831</v>
+        <v>5.044765242031706</v>
       </c>
       <c r="I38">
-        <v>4.390055580348918</v>
+        <v>4.470450596577156</v>
       </c>
       <c r="J38">
-        <v>3.80925902348637</v>
+        <v>3.777025583617749</v>
       </c>
       <c r="K38">
-        <v>5.028440240389453</v>
+        <v>5.013163746547523</v>
       </c>
       <c r="L38">
-        <v>4.355945749828287</v>
+        <v>4.316321539588753</v>
       </c>
       <c r="M38">
-        <v>5.329760974363095</v>
+        <v>5.270751623057888</v>
       </c>
       <c r="N38">
-        <v>3.494802520840645</v>
+        <v>3.506386436981406</v>
       </c>
       <c r="O38">
-        <v>5.198917891746127</v>
+        <v>5.138299015353009</v>
       </c>
       <c r="P38">
-        <v>5.570787583885068</v>
+        <v>5.502918928023493</v>
       </c>
       <c r="Q38">
-        <v>4.185184079459613</v>
+        <v>4.088280808715201</v>
       </c>
       <c r="R38">
-        <v>5.332035982717493</v>
+        <v>5.324249458374862</v>
       </c>
       <c r="S38">
-        <v>4.24142602046417</v>
+        <v>3.968487421311766</v>
       </c>
       <c r="T38">
-        <v>6.083553890520136</v>
+        <v>6.017150438583081</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>7.96565296896377</v>
+        <v>7.76334105615935</v>
       </c>
       <c r="C39">
-        <v>13.47095435555891</v>
+        <v>13.45201176360377</v>
       </c>
       <c r="D39">
-        <v>10.22178981455433</v>
+        <v>10.15617520454763</v>
       </c>
       <c r="E39">
-        <v>13.8365064578086</v>
+        <v>13.58379680835533</v>
       </c>
       <c r="F39">
-        <v>9.703407049182379</v>
+        <v>9.626998485505304</v>
       </c>
       <c r="G39">
-        <v>6.64286359834544</v>
+        <v>6.675886656291072</v>
       </c>
       <c r="H39">
-        <v>10.25294945850612</v>
+        <v>10.30715725588617</v>
       </c>
       <c r="I39">
-        <v>7.695055314218333</v>
+        <v>7.835974736658676</v>
       </c>
       <c r="J39">
-        <v>11.91098117491827</v>
+        <v>11.81019204687241</v>
       </c>
       <c r="K39">
-        <v>9.251307091981614</v>
+        <v>9.223201451054376</v>
       </c>
       <c r="L39">
-        <v>6.793107607332284</v>
+        <v>6.731313558583325</v>
       </c>
       <c r="M39">
-        <v>6.28933302624284</v>
+        <v>6.219699610446861</v>
       </c>
       <c r="N39">
-        <v>12.73880342024028</v>
+        <v>12.7810276173655</v>
       </c>
       <c r="O39">
-        <v>9.402926907264998</v>
+        <v>9.293289695100142</v>
       </c>
       <c r="P39">
-        <v>10.81665924203284</v>
+        <v>10.68488036649411</v>
       </c>
       <c r="Q39">
-        <v>7.75192890703172</v>
+        <v>7.572441636840606</v>
       </c>
       <c r="R39">
-        <v>10.4416561992398</v>
+        <v>10.42640795064652</v>
       </c>
       <c r="S39">
-        <v>6.584079305719492</v>
+        <v>6.160389401960485</v>
       </c>
       <c r="T39">
-        <v>4.257039460989934</v>
+        <v>4.210572852765671</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>8.195363108094526</v>
+        <v>7.98721700971622</v>
       </c>
       <c r="C40">
-        <v>7.848724750439338</v>
+        <v>7.837688027547133</v>
       </c>
       <c r="D40">
-        <v>9.327219813999903</v>
+        <v>9.267347531195677</v>
       </c>
       <c r="E40">
-        <v>10.19101529736868</v>
+        <v>10.00488681824543</v>
       </c>
       <c r="F40">
-        <v>7.152012442678972</v>
+        <v>7.09569459520789</v>
       </c>
       <c r="G40">
-        <v>7.88674642353363</v>
+        <v>7.925953081971075</v>
       </c>
       <c r="H40">
-        <v>7.982682036529152</v>
+        <v>8.02488682961204</v>
       </c>
       <c r="I40">
-        <v>8.476295523683573</v>
+        <v>8.631521785335533</v>
       </c>
       <c r="J40">
-        <v>10.58363414251758</v>
+        <v>10.4940768473531</v>
       </c>
       <c r="K40">
-        <v>9.049114564833088</v>
+        <v>9.021623188518374</v>
       </c>
       <c r="L40">
-        <v>8.108688049265638</v>
+        <v>8.034926717402502</v>
       </c>
       <c r="M40">
-        <v>8.507102570285593</v>
+        <v>8.412914743369132</v>
       </c>
       <c r="N40">
-        <v>9.832987204569287</v>
+        <v>9.865579746926588</v>
       </c>
       <c r="O40">
-        <v>9.108286959168803</v>
+        <v>9.002085220109318</v>
       </c>
       <c r="P40">
-        <v>7.86360563126773</v>
+        <v>7.767803675730331</v>
       </c>
       <c r="Q40">
-        <v>8.600738597048881</v>
+        <v>8.40159808493565</v>
       </c>
       <c r="R40">
-        <v>8.38897939519412</v>
+        <v>8.37672872912918</v>
       </c>
       <c r="S40">
-        <v>7.062791528707236</v>
+        <v>6.608296173454086</v>
       </c>
       <c r="T40">
-        <v>6.963586262583893</v>
+        <v>6.887577045928876</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>10.992932637577</v>
+        <v>10.71373377743287</v>
       </c>
       <c r="C41">
-        <v>11.90153876865823</v>
+        <v>11.88480305813746</v>
       </c>
       <c r="D41">
-        <v>8.006197265235969</v>
+        <v>7.954804747807449</v>
       </c>
       <c r="E41">
-        <v>7.254712616277674</v>
+        <v>7.122212704704323</v>
       </c>
       <c r="F41">
-        <v>7.970212593726921</v>
+        <v>7.907451906331153</v>
       </c>
       <c r="G41">
-        <v>16.5825838032687</v>
+        <v>16.665019279734</v>
       </c>
       <c r="H41">
-        <v>10.18265264881788</v>
+        <v>10.23648878385517</v>
       </c>
       <c r="I41">
-        <v>6.194463265790755</v>
+        <v>6.307902370527305</v>
       </c>
       <c r="J41">
-        <v>4.965288237033358</v>
+        <v>4.923272632730266</v>
       </c>
       <c r="K41">
-        <v>7.677721771999598</v>
+        <v>7.65439671218723</v>
       </c>
       <c r="L41">
-        <v>6.301433961570924</v>
+        <v>6.244112461615679</v>
       </c>
       <c r="M41">
-        <v>6.019660190973187</v>
+        <v>5.953012503646167</v>
       </c>
       <c r="N41">
-        <v>7.786203377791976</v>
+        <v>7.812011624880443</v>
       </c>
       <c r="O41">
-        <v>11.07175479756594</v>
+        <v>10.94265921469587</v>
       </c>
       <c r="P41">
-        <v>4.736890060194758</v>
+        <v>4.679180740550359</v>
       </c>
       <c r="Q41">
-        <v>6.493975505131289</v>
+        <v>6.343614743302489</v>
       </c>
       <c r="R41">
-        <v>7.117304518246056</v>
+        <v>7.106910915302474</v>
       </c>
       <c r="S41">
-        <v>5.648982855219178</v>
+        <v>5.28546703301683</v>
       </c>
       <c r="T41">
-        <v>7.503702936241612</v>
+        <v>7.421798216361823</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>6.46582731828186</v>
+        <v>6.301608026062952</v>
       </c>
       <c r="C42">
-        <v>6.733006953875625</v>
+        <v>6.723539131478484</v>
       </c>
       <c r="D42">
-        <v>7.712092059574239</v>
+        <v>7.662587430541052</v>
       </c>
       <c r="E42">
-        <v>8.375214979732112</v>
+        <v>8.222250237650888</v>
       </c>
       <c r="F42">
-        <v>5.237639187345353</v>
+        <v>5.196395891528185</v>
       </c>
       <c r="G42">
-        <v>6.121113355561337</v>
+        <v>6.151542684425297</v>
       </c>
       <c r="H42">
-        <v>5.634928358418557</v>
+        <v>5.664720473940092</v>
       </c>
       <c r="I42">
-        <v>4.957499600804123</v>
+        <v>5.048286210122281</v>
       </c>
       <c r="J42">
-        <v>5.399439803615603</v>
+        <v>5.353750466880818</v>
       </c>
       <c r="K42">
-        <v>6.716308293107592</v>
+        <v>6.695904025108929</v>
       </c>
       <c r="L42">
-        <v>4.58057620140616</v>
+        <v>4.538908622228922</v>
       </c>
       <c r="M42">
-        <v>7.244768991692067</v>
+        <v>7.164557304786742</v>
       </c>
       <c r="N42">
-        <v>4.855563984508472</v>
+        <v>4.871658297614071</v>
       </c>
       <c r="O42">
-        <v>7.871437962960119</v>
+        <v>7.779657762763011</v>
       </c>
       <c r="P42">
-        <v>5.886100083245895</v>
+        <v>5.814389989313717</v>
       </c>
       <c r="Q42">
-        <v>5.268724531356518</v>
+        <v>5.146733089631049</v>
       </c>
       <c r="R42">
-        <v>4.641867975401888</v>
+        <v>4.635089323100421</v>
       </c>
       <c r="S42">
-        <v>6.099115243998699</v>
+        <v>5.706633101734693</v>
       </c>
       <c r="T42">
-        <v>6.710566306627517</v>
+        <v>6.637318863565177</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2024.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2024.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>146.2708912737141</v>
+        <v>142.2800784571932</v>
       </c>
       <c r="C2">
-        <v>141.6261704863162</v>
+        <v>141.4269150050838</v>
       </c>
       <c r="D2">
-        <v>137.6665619757325</v>
+        <v>136.7634333424369</v>
       </c>
       <c r="E2">
-        <v>120.9231951436527</v>
+        <v>118.7147019308079</v>
       </c>
       <c r="F2">
-        <v>143.7235990302889</v>
+        <v>142.5818999912375</v>
       </c>
       <c r="G2">
-        <v>139.9704669435321</v>
+        <v>139.4774105274504</v>
       </c>
       <c r="H2">
-        <v>154.0842162175558</v>
+        <v>153.8133374361855</v>
       </c>
       <c r="I2">
-        <v>156.0334419589668</v>
+        <v>155.8367185689544</v>
       </c>
       <c r="J2">
-        <v>127.2181230474936</v>
+        <v>126.0095691622623</v>
       </c>
       <c r="K2">
-        <v>137.4533570033858</v>
+        <v>136.6146561597231</v>
       </c>
       <c r="L2">
-        <v>167.8884853408394</v>
+        <v>166.0843353190499</v>
       </c>
       <c r="M2">
-        <v>151.8357328642474</v>
+        <v>150.0804283397122</v>
       </c>
       <c r="N2">
-        <v>113.2568761833515</v>
+        <v>112.4295023672282</v>
       </c>
       <c r="O2">
-        <v>144.9516757119093</v>
+        <v>143.262210196064</v>
       </c>
       <c r="P2">
-        <v>129.1476781963253</v>
+        <v>127.5748801627283</v>
       </c>
       <c r="Q2">
-        <v>125.836036545044</v>
+        <v>122.8628210492749</v>
       </c>
       <c r="R2">
-        <v>148.8869815043636</v>
+        <v>148.6699110916537</v>
       </c>
       <c r="S2">
-        <v>198.4431857049809</v>
+        <v>185.6738950612702</v>
       </c>
       <c r="T2">
-        <v>167.2674888632551</v>
+        <v>165.4411953020134</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>15.33453320534042</v>
+        <v>14.9161502234748</v>
       </c>
       <c r="C3">
-        <v>13.33591544881615</v>
+        <v>13.31715299664149</v>
       </c>
       <c r="D3">
-        <v>11.88511814435233</v>
+        <v>11.80714866249546</v>
       </c>
       <c r="E3">
-        <v>13.91753452128155</v>
+        <v>13.66335019797394</v>
       </c>
       <c r="F3">
-        <v>19.26369111946557</v>
+        <v>19.11066588360963</v>
       </c>
       <c r="G3">
-        <v>11.65847136702219</v>
+        <v>11.61740353153706</v>
       </c>
       <c r="H3">
-        <v>11.82903588481174</v>
+        <v>11.80824053728088</v>
       </c>
       <c r="I3">
-        <v>14.26486752838385</v>
+        <v>14.2468827101101</v>
       </c>
       <c r="J3">
-        <v>12.53402161869819</v>
+        <v>12.41495021470337</v>
       </c>
       <c r="K3">
-        <v>14.35966532729143</v>
+        <v>14.27204678026375</v>
       </c>
       <c r="L3">
-        <v>16.09170871303316</v>
+        <v>15.91878525990706</v>
       </c>
       <c r="M3">
-        <v>14.94450749074091</v>
+        <v>14.77174077028188</v>
       </c>
       <c r="N3">
-        <v>11.4133961792327</v>
+        <v>11.33001806154163</v>
       </c>
       <c r="O3">
-        <v>15.18872924847102</v>
+        <v>15.01169897842569</v>
       </c>
       <c r="P3">
-        <v>10.88308294113677</v>
+        <v>10.75054558786533</v>
       </c>
       <c r="Q3">
-        <v>9.573090793318539</v>
+        <v>9.346900723521554</v>
       </c>
       <c r="R3">
-        <v>11.07919146799013</v>
+        <v>11.0630385133117</v>
       </c>
       <c r="S3">
-        <v>23.03802573128517</v>
+        <v>21.55559011438566</v>
       </c>
       <c r="T3">
-        <v>21.62937259857383</v>
+        <v>21.3932144295302</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>14.6967126128399</v>
+        <v>14.29573174408802</v>
       </c>
       <c r="C4">
-        <v>11.68662928902492</v>
+        <v>11.67018723643694</v>
       </c>
       <c r="D4">
-        <v>11.13269899320108</v>
+        <v>11.05966557766192</v>
       </c>
       <c r="E4">
-        <v>14.19843180798776</v>
+        <v>13.93911728819088</v>
       </c>
       <c r="F4">
-        <v>13.56028177535582</v>
+        <v>13.45256278712671</v>
       </c>
       <c r="G4">
-        <v>11.83843739279411</v>
+        <v>11.79673561355197</v>
       </c>
       <c r="H4">
-        <v>11.71001060477142</v>
+        <v>11.68942450270128</v>
       </c>
       <c r="I4">
-        <v>14.06312751544581</v>
+        <v>14.04539704635995</v>
       </c>
       <c r="J4">
-        <v>12.63432307674501</v>
+        <v>12.51429882331402</v>
       </c>
       <c r="K4">
-        <v>12.38569085275838</v>
+        <v>12.31011693012732</v>
       </c>
       <c r="L4">
-        <v>12.65549114081918</v>
+        <v>12.51949369840309</v>
       </c>
       <c r="M4">
-        <v>15.22824301987432</v>
+        <v>15.05219616075054</v>
       </c>
       <c r="N4">
-        <v>11.03126968750066</v>
+        <v>10.95068311293139</v>
       </c>
       <c r="O4">
-        <v>18.47608064769062</v>
+        <v>18.26073507842456</v>
       </c>
       <c r="P4">
-        <v>10.67660927404262</v>
+        <v>10.54658641721533</v>
       </c>
       <c r="Q4">
-        <v>10.74093083771715</v>
+        <v>10.48714739950266</v>
       </c>
       <c r="R4">
-        <v>13.15648681104215</v>
+        <v>13.13730525471648</v>
       </c>
       <c r="S4">
-        <v>17.1854115573324</v>
+        <v>16.07957607989955</v>
       </c>
       <c r="T4">
-        <v>12.97046743917785</v>
+        <v>12.82885067114094</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>21.40330141715228</v>
+        <v>20.81933991348172</v>
       </c>
       <c r="C5">
-        <v>17.2750991674588</v>
+        <v>17.25079463259685</v>
       </c>
       <c r="D5">
-        <v>15.54672795484087</v>
+        <v>15.44473735546388</v>
       </c>
       <c r="E5">
-        <v>15.49256573602708</v>
+        <v>15.20961566811893</v>
       </c>
       <c r="F5">
-        <v>15.61115960594011</v>
+        <v>15.4871490325838</v>
       </c>
       <c r="G5">
-        <v>16.44496272473724</v>
+        <v>16.38703411621922</v>
       </c>
       <c r="H5">
-        <v>16.69069933665967</v>
+        <v>16.66135722487485</v>
       </c>
       <c r="I5">
-        <v>20.11211292330117</v>
+        <v>20.08675603195205</v>
       </c>
       <c r="J5">
-        <v>13.3869500758117</v>
+        <v>13.25977597405672</v>
       </c>
       <c r="K5">
-        <v>18.09583158981856</v>
+        <v>17.98541603102806</v>
       </c>
       <c r="L5">
-        <v>21.63678209813733</v>
+        <v>21.40427061401405</v>
       </c>
       <c r="M5">
-        <v>15.99424622680591</v>
+        <v>15.80934394959594</v>
       </c>
       <c r="N5">
-        <v>16.84891985886991</v>
+        <v>16.72583368882034</v>
       </c>
       <c r="O5">
-        <v>24.37526746756782</v>
+        <v>24.09116468901277</v>
       </c>
       <c r="P5">
-        <v>13.95938052373326</v>
+        <v>13.78937912266599</v>
       </c>
       <c r="Q5">
-        <v>13.13474857651555</v>
+        <v>12.82440474280184</v>
       </c>
       <c r="R5">
-        <v>18.44098354602326</v>
+        <v>18.41409743503717</v>
       </c>
       <c r="S5">
-        <v>25.92012338722071</v>
+        <v>24.25223245976742</v>
       </c>
       <c r="T5">
-        <v>26.7093658557047</v>
+        <v>26.4177422818792</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>25.38257568298782</v>
+        <v>24.69004480777475</v>
       </c>
       <c r="C6">
-        <v>26.33917407858304</v>
+        <v>26.30211719292221</v>
       </c>
       <c r="D6">
-        <v>26.22928259159858</v>
+        <v>26.05721164133071</v>
       </c>
       <c r="E6">
-        <v>20.01701846118781</v>
+        <v>19.65143558554179</v>
       </c>
       <c r="F6">
-        <v>19.21322579164563</v>
+        <v>19.06060143787631</v>
       </c>
       <c r="G6">
-        <v>25.90678995366114</v>
+        <v>25.81553135257434</v>
       </c>
       <c r="H6">
-        <v>24.82755505807325</v>
+        <v>24.78390842103524</v>
       </c>
       <c r="I6">
-        <v>27.86343039252214</v>
+        <v>27.82830081763504</v>
       </c>
       <c r="J6">
-        <v>19.55146304482097</v>
+        <v>19.36572695582088</v>
       </c>
       <c r="K6">
-        <v>23.29289879948999</v>
+        <v>23.15077223160994</v>
       </c>
       <c r="L6">
-        <v>26.85983280790258</v>
+        <v>26.57119378750009</v>
       </c>
       <c r="M6">
-        <v>30.36383770370507</v>
+        <v>30.01281505114397</v>
       </c>
       <c r="N6">
-        <v>20.07442851348995</v>
+        <v>19.92777908181385</v>
       </c>
       <c r="O6">
-        <v>26.91843341522738</v>
+        <v>26.60468909476852</v>
       </c>
       <c r="P6">
-        <v>28.92471996040195</v>
+        <v>28.57246629768486</v>
       </c>
       <c r="Q6">
-        <v>23.89893447423317</v>
+        <v>23.33425773883928</v>
       </c>
       <c r="R6">
-        <v>25.75778312173447</v>
+        <v>25.72022945145228</v>
       </c>
       <c r="S6">
-        <v>30.78584016117076</v>
+        <v>28.80485331431959</v>
       </c>
       <c r="T6">
-        <v>35.20811023489934</v>
+        <v>34.82369395973154</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>7.650689582320569</v>
+        <v>7.441950374030568</v>
       </c>
       <c r="C7">
-        <v>7.127419370520657</v>
+        <v>7.117391722581427</v>
       </c>
       <c r="D7">
-        <v>8.249651018811512</v>
+        <v>8.195531151627655</v>
       </c>
       <c r="E7">
-        <v>6.675940734328066</v>
+        <v>6.554014004029531</v>
       </c>
       <c r="F7">
-        <v>7.728640860556039</v>
+        <v>7.667246754764061</v>
       </c>
       <c r="G7">
-        <v>8.139303787432024</v>
+        <v>8.110632482388436</v>
       </c>
       <c r="H7">
-        <v>7.999457411568391</v>
+        <v>7.985394431410775</v>
       </c>
       <c r="I7">
-        <v>9.104020424498753</v>
+        <v>9.092542284055503</v>
       </c>
       <c r="J7">
-        <v>6.840266587821094</v>
+        <v>6.775285038316213</v>
       </c>
       <c r="K7">
-        <v>6.582845241590579</v>
+        <v>6.542678613592639</v>
       </c>
       <c r="L7">
-        <v>7.92489949797465</v>
+        <v>7.839737566988592</v>
       </c>
       <c r="M7">
-        <v>10.53213048666629</v>
+        <v>10.41037326952446</v>
       </c>
       <c r="N7">
-        <v>6.217077665679709</v>
+        <v>6.171660138314215</v>
       </c>
       <c r="O7">
-        <v>7.780410987125522</v>
+        <v>7.689727412773625</v>
       </c>
       <c r="P7">
-        <v>8.071679869424621</v>
+        <v>7.973380601456701</v>
       </c>
       <c r="Q7">
-        <v>7.246131352021496</v>
+        <v>7.074921970259882</v>
       </c>
       <c r="R7">
-        <v>7.736163653957097</v>
+        <v>7.724884681006018</v>
       </c>
       <c r="S7">
-        <v>8.924053231517792</v>
+        <v>8.349814166425336</v>
       </c>
       <c r="T7">
-        <v>10.09098107172819</v>
+        <v>9.980803691275169</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>230.31</v>
+        <v>251.31</v>
       </c>
       <c r="C8">
-        <v>203.93</v>
+        <v>205.05</v>
       </c>
       <c r="D8">
-        <v>204.3</v>
+        <v>209.52</v>
       </c>
       <c r="E8">
-        <v>261.92</v>
+        <v>275.4</v>
       </c>
       <c r="F8">
-        <v>206.92</v>
+        <v>213.22</v>
       </c>
       <c r="G8">
-        <v>270.42</v>
+        <v>272.99</v>
       </c>
       <c r="H8">
-        <v>226.39</v>
+        <v>227.75</v>
       </c>
       <c r="I8">
-        <v>214.77</v>
+        <v>215.76</v>
       </c>
       <c r="J8">
-        <v>304.2</v>
+        <v>310.81</v>
       </c>
       <c r="K8">
-        <v>221.53</v>
+        <v>226.28</v>
       </c>
       <c r="L8">
-        <v>230.42</v>
+        <v>238.69</v>
       </c>
       <c r="M8">
-        <v>197.27</v>
+        <v>206.55</v>
       </c>
       <c r="N8">
-        <v>284.08</v>
+        <v>289.31</v>
       </c>
       <c r="O8">
-        <v>220.96</v>
+        <v>230.04</v>
       </c>
       <c r="P8">
-        <v>217.46</v>
+        <v>226.99</v>
       </c>
       <c r="Q8">
-        <v>288.97</v>
+        <v>305.77</v>
       </c>
       <c r="R8">
-        <v>170.07</v>
+        <v>171.28</v>
       </c>
       <c r="S8">
-        <v>145.73</v>
+        <v>200.7</v>
       </c>
       <c r="T8">
-        <v>187.61</v>
+        <v>196.48</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>7.904081179093671</v>
+        <v>7.688428507549325</v>
       </c>
       <c r="C9">
-        <v>6.921567378534734</v>
+        <v>6.911829346120549</v>
       </c>
       <c r="D9">
-        <v>7.96208148438671</v>
+        <v>7.90984814852081</v>
       </c>
       <c r="E9">
-        <v>8.32196796659275</v>
+        <v>8.169978848624952</v>
       </c>
       <c r="F9">
-        <v>10.73008691515862</v>
+        <v>10.6448501829683</v>
       </c>
       <c r="G9">
-        <v>9.111725254418049</v>
+        <v>9.079628522183263</v>
       </c>
       <c r="H9">
-        <v>6.651835616749549</v>
+        <v>6.640141744593322</v>
       </c>
       <c r="I9">
-        <v>6.822188166605934</v>
+        <v>6.813586908012986</v>
       </c>
       <c r="J9">
-        <v>6.242850604126134</v>
+        <v>6.183544420606052</v>
       </c>
       <c r="K9">
-        <v>5.35690319951216</v>
+        <v>5.324216917192117</v>
       </c>
       <c r="L9">
-        <v>7.824365589576161</v>
+        <v>7.74028400816059</v>
       </c>
       <c r="M9">
-        <v>7.808103963528366</v>
+        <v>7.71783799018547</v>
       </c>
       <c r="N9">
-        <v>5.425744852092891</v>
+        <v>5.386108236861516</v>
       </c>
       <c r="O9">
-        <v>7.808357865671231</v>
+        <v>7.717348560089623</v>
       </c>
       <c r="P9">
-        <v>9.790693190813089</v>
+        <v>9.67145927803106</v>
       </c>
       <c r="Q9">
-        <v>5.595022091988114</v>
+        <v>5.462824616290325</v>
       </c>
       <c r="R9">
-        <v>4.452559899594532</v>
+        <v>4.446068270808358</v>
       </c>
       <c r="S9">
-        <v>6.448325093230429</v>
+        <v>6.033392542192846</v>
       </c>
       <c r="T9">
-        <v>6.172153471057048</v>
+        <v>6.104763422818792</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>21.22490110291328</v>
+        <v>20.64580702197007</v>
       </c>
       <c r="C10">
-        <v>26.53679199088953</v>
+        <v>26.49945707432465</v>
       </c>
       <c r="D10">
-        <v>23.33234631583054</v>
+        <v>23.17928002480549</v>
       </c>
       <c r="E10">
-        <v>21.39989741112607</v>
+        <v>21.00905818353288</v>
       </c>
       <c r="F10">
-        <v>18.80371206589362</v>
+        <v>18.65434077167976</v>
       </c>
       <c r="G10">
-        <v>21.41293242776849</v>
+        <v>21.33750377520213</v>
       </c>
       <c r="H10">
-        <v>23.49111684661391</v>
+        <v>23.44981965692996</v>
       </c>
       <c r="I10">
-        <v>20.60802363239587</v>
+        <v>20.5820415081825</v>
       </c>
       <c r="J10">
-        <v>19.9907395034202</v>
+        <v>19.80083035119599</v>
       </c>
       <c r="K10">
-        <v>21.49714145362936</v>
+        <v>21.36597208049392</v>
       </c>
       <c r="L10">
-        <v>20.49242346894515</v>
+        <v>20.27220940141718</v>
       </c>
       <c r="M10">
-        <v>17.15648651378094</v>
+        <v>16.95814810005791</v>
       </c>
       <c r="N10">
-        <v>27.14828191555311</v>
+        <v>26.94995596514196</v>
       </c>
       <c r="O10">
-        <v>24.61321517632843</v>
+        <v>24.32633902901755</v>
       </c>
       <c r="P10">
-        <v>20.35766334705766</v>
+        <v>20.1097417945524</v>
       </c>
       <c r="Q10">
-        <v>23.5595559423513</v>
+        <v>23.0028979394098</v>
       </c>
       <c r="R10">
-        <v>27.16273767537202</v>
+        <v>27.1231356455777</v>
       </c>
       <c r="S10">
-        <v>24.84570024495531</v>
+        <v>23.24694558604748</v>
       </c>
       <c r="T10">
-        <v>18.02745888213088</v>
+        <v>17.83062785234899</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>34.83542419189092</v>
+        <v>33.88498452393407</v>
       </c>
       <c r="C11">
-        <v>43.96916208022558</v>
+        <v>43.90730136253762</v>
       </c>
       <c r="D11">
-        <v>41.26704514886372</v>
+        <v>40.9963225452731</v>
       </c>
       <c r="E11">
-        <v>33.280154907945</v>
+        <v>32.6723393755378</v>
       </c>
       <c r="F11">
-        <v>25.57102979650253</v>
+        <v>25.36790087165514</v>
       </c>
       <c r="G11">
-        <v>35.91305221853368</v>
+        <v>35.78654581183169</v>
       </c>
       <c r="H11">
-        <v>47.02137623498604</v>
+        <v>46.93871304335255</v>
       </c>
       <c r="I11">
-        <v>48.02135678489689</v>
+        <v>47.96081255808812</v>
       </c>
       <c r="J11">
-        <v>36.63199601002124</v>
+        <v>36.28399731265672</v>
       </c>
       <c r="K11">
-        <v>37.80760503692693</v>
+        <v>37.57691390698563</v>
       </c>
       <c r="L11">
-        <v>40.73979553616898</v>
+        <v>40.30200075319111</v>
       </c>
       <c r="M11">
-        <v>39.00081338790887</v>
+        <v>38.54994254934573</v>
       </c>
       <c r="N11">
-        <v>34.38160542833908</v>
+        <v>34.13043798450427</v>
       </c>
       <c r="O11">
-        <v>30.51479744293811</v>
+        <v>30.15913616651857</v>
       </c>
       <c r="P11">
-        <v>38.82025055582486</v>
+        <v>38.34748623988317</v>
       </c>
       <c r="Q11">
-        <v>35.63692600947047</v>
+        <v>34.79490758977074</v>
       </c>
       <c r="R11">
-        <v>51.31097769517489</v>
+        <v>51.23616863536122</v>
       </c>
       <c r="S11">
-        <v>29.96863552677937</v>
+        <v>28.04023362233808</v>
       </c>
       <c r="T11">
-        <v>31.64112519924497</v>
+        <v>31.29565469798657</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>10.59745229494982</v>
+        <v>10.30831446258361</v>
       </c>
       <c r="C12">
-        <v>12.34617907134782</v>
+        <v>12.32880909061759</v>
       </c>
       <c r="D12">
-        <v>11.87613159640156</v>
+        <v>11.79822106864837</v>
       </c>
       <c r="E12">
-        <v>10.78830787954067</v>
+        <v>10.59127450888138</v>
       </c>
       <c r="F12">
-        <v>9.336085646689671</v>
+        <v>9.261922460662859</v>
       </c>
       <c r="G12">
-        <v>9.676576604214754</v>
+        <v>9.642490140944334</v>
       </c>
       <c r="H12">
-        <v>10.93754452558362</v>
+        <v>10.91831641251012</v>
       </c>
       <c r="I12">
-        <v>10.65605215750017</v>
+        <v>10.6426172509939</v>
       </c>
       <c r="J12">
-        <v>8.829456817844632</v>
+        <v>8.745578247039873</v>
       </c>
       <c r="K12">
-        <v>10.57714662771049</v>
+        <v>10.51260792168248</v>
       </c>
       <c r="L12">
-        <v>10.4248950482277</v>
+        <v>10.3128678619068</v>
       </c>
       <c r="M12">
-        <v>13.01047347583157</v>
+        <v>12.86006525157719</v>
       </c>
       <c r="N12">
-        <v>9.602808648525974</v>
+        <v>9.532657389681702</v>
       </c>
       <c r="O12">
-        <v>11.56521682445875</v>
+        <v>11.43041993499725</v>
       </c>
       <c r="P12">
-        <v>12.95982389504881</v>
+        <v>12.80199538568212</v>
       </c>
       <c r="Q12">
-        <v>11.86880124773995</v>
+        <v>11.58836883143961</v>
       </c>
       <c r="R12">
-        <v>12.89247420307763</v>
+        <v>12.87367756506512</v>
       </c>
       <c r="S12">
-        <v>9.391154896858444</v>
+        <v>8.786859083262851</v>
       </c>
       <c r="T12">
-        <v>12.81541817323826</v>
+        <v>12.67549429530201</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>2.558386807294776</v>
+        <v>2.488584519421489</v>
       </c>
       <c r="C13">
-        <v>2.853108608924916</v>
+        <v>2.849094537747764</v>
       </c>
       <c r="D13">
-        <v>2.749066714032555</v>
+        <v>2.731032117768574</v>
       </c>
       <c r="E13">
-        <v>2.329749748807818</v>
+        <v>2.287200124628963</v>
       </c>
       <c r="F13">
-        <v>2.500929278683463</v>
+        <v>2.481062613964007</v>
       </c>
       <c r="G13">
-        <v>1.863933838351908</v>
+        <v>1.85736799229724</v>
       </c>
       <c r="H13">
-        <v>2.509116809440415</v>
+        <v>2.50470580278223</v>
       </c>
       <c r="I13">
-        <v>2.606545266765203</v>
+        <v>2.603258994190165</v>
       </c>
       <c r="J13">
-        <v>1.921102378940656</v>
+        <v>1.902852182440516</v>
       </c>
       <c r="K13">
-        <v>2.284855474773275</v>
+        <v>2.270913943943348</v>
       </c>
       <c r="L13">
-        <v>2.353907214611499</v>
+        <v>2.328611842246265</v>
       </c>
       <c r="M13">
-        <v>2.58339958450038</v>
+        <v>2.553534065404092</v>
       </c>
       <c r="N13">
-        <v>1.864747190952208</v>
+        <v>1.851124680324372</v>
       </c>
       <c r="O13">
-        <v>2.575105237426088</v>
+        <v>2.545091431259744</v>
       </c>
       <c r="P13">
-        <v>2.870624201033722</v>
+        <v>2.835664903571801</v>
       </c>
       <c r="Q13">
-        <v>2.409805592548719</v>
+        <v>2.352867440916835</v>
       </c>
       <c r="R13">
-        <v>2.493263760745308</v>
+        <v>2.489628696160943</v>
       </c>
       <c r="S13">
-        <v>2.356943202359433</v>
+        <v>2.205280182665779</v>
       </c>
       <c r="T13">
-        <v>3.377007088926175</v>
+        <v>3.340135570469799</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>7.188901158294822</v>
+        <v>6.992761252197315</v>
       </c>
       <c r="C14">
-        <v>6.645725709273593</v>
+        <v>6.636375761662973</v>
       </c>
       <c r="D14">
-        <v>6.553644332828873</v>
+        <v>6.510650712849778</v>
       </c>
       <c r="E14">
-        <v>7.108090406183773</v>
+        <v>6.978271065901747</v>
       </c>
       <c r="F14">
-        <v>5.047360082450481</v>
+        <v>5.007265301949854</v>
       </c>
       <c r="G14">
-        <v>5.643220379561983</v>
+        <v>5.623341714610265</v>
       </c>
       <c r="H14">
-        <v>6.846749498157847</v>
+        <v>6.834712969005567</v>
       </c>
       <c r="I14">
-        <v>5.979059586637788</v>
+        <v>5.971521325248423</v>
       </c>
       <c r="J14">
-        <v>5.356244285186677</v>
+        <v>5.305360734273939</v>
       </c>
       <c r="K14">
-        <v>7.418787468457611</v>
+        <v>7.373520161464183</v>
       </c>
       <c r="L14">
-        <v>6.235458584184415</v>
+        <v>6.168451590121154</v>
       </c>
       <c r="M14">
-        <v>6.784836180618673</v>
+        <v>6.706399745259162</v>
       </c>
       <c r="N14">
-        <v>5.018795182748338</v>
+        <v>4.982131451038407</v>
       </c>
       <c r="O14">
-        <v>7.615125162583753</v>
+        <v>7.526368055790443</v>
       </c>
       <c r="P14">
-        <v>6.980890690163689</v>
+        <v>6.895875370464684</v>
       </c>
       <c r="Q14">
-        <v>5.66551399261454</v>
+        <v>5.531650955786384</v>
       </c>
       <c r="R14">
-        <v>5.748004400410786</v>
+        <v>5.739624072763278</v>
       </c>
       <c r="S14">
-        <v>6.559965070606303</v>
+        <v>6.137848784266822</v>
       </c>
       <c r="T14">
-        <v>6.304200922818794</v>
+        <v>6.235369127516779</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.508508851817438</v>
+        <v>1.467351131321958</v>
       </c>
       <c r="C15">
-        <v>1.719275837066443</v>
+        <v>1.71685696820125</v>
       </c>
       <c r="D15">
-        <v>1.431312000887083</v>
+        <v>1.421922220009076</v>
       </c>
       <c r="E15">
-        <v>1.284873577928128</v>
+        <v>1.261407157173641</v>
       </c>
       <c r="F15">
-        <v>1.79193278783605</v>
+        <v>1.777698187841892</v>
       </c>
       <c r="G15">
-        <v>1.674893895314189</v>
+        <v>1.668993956567297</v>
       </c>
       <c r="H15">
-        <v>1.655969164587705</v>
+        <v>1.653057984453219</v>
       </c>
       <c r="I15">
-        <v>1.309300721418599</v>
+        <v>1.307649985055744</v>
       </c>
       <c r="J15">
-        <v>1.331739796986682</v>
+        <v>1.319088460312233</v>
       </c>
       <c r="K15">
-        <v>1.614343497391401</v>
+        <v>1.604493237763401</v>
       </c>
       <c r="L15">
-        <v>1.366632817291962</v>
+        <v>1.351946815318152</v>
       </c>
       <c r="M15">
-        <v>2.384867435835605</v>
+        <v>2.357297057495996</v>
       </c>
       <c r="N15">
-        <v>1.077175464882437</v>
+        <v>1.069306390570594</v>
       </c>
       <c r="O15">
-        <v>1.929133101898118</v>
+        <v>1.906648340441408</v>
       </c>
       <c r="P15">
-        <v>1.975904976959091</v>
+        <v>1.951841830755165</v>
       </c>
       <c r="Q15">
-        <v>1.432366351903958</v>
+        <v>1.398522836564259</v>
       </c>
       <c r="R15">
-        <v>1.179992042027912</v>
+        <v>1.178271667573616</v>
       </c>
       <c r="S15">
-        <v>1.371832041994729</v>
+        <v>1.283558302605016</v>
       </c>
       <c r="T15">
-        <v>2.227768299077182</v>
+        <v>2.203444630872483</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>2.763626106861774</v>
+        <v>2.688224129125156</v>
       </c>
       <c r="C16">
-        <v>2.792176419297083</v>
+        <v>2.788248074315344</v>
       </c>
       <c r="D16">
-        <v>3.279273043128284</v>
+        <v>3.257760154746822</v>
       </c>
       <c r="E16">
-        <v>3.19559248420443</v>
+        <v>3.137229452165795</v>
       </c>
       <c r="F16">
-        <v>3.384486165760519</v>
+        <v>3.35760077860627</v>
       </c>
       <c r="G16">
-        <v>2.553551550553506</v>
+        <v>2.544556474640073</v>
       </c>
       <c r="H16">
-        <v>2.934092977101129</v>
+        <v>2.928934865844995</v>
       </c>
       <c r="I16">
-        <v>2.469908604615933</v>
+        <v>2.466794600415164</v>
       </c>
       <c r="J16">
-        <v>2.157579539153245</v>
+        <v>2.137082843617455</v>
       </c>
       <c r="K16">
-        <v>2.431105405477545</v>
+        <v>2.416271499641715</v>
       </c>
       <c r="L16">
-        <v>2.335842527946145</v>
+        <v>2.310741280894358</v>
       </c>
       <c r="M16">
-        <v>3.240210109666343</v>
+        <v>3.202751499900041</v>
       </c>
       <c r="N16">
-        <v>2.411609315930932</v>
+        <v>2.393991821347293</v>
       </c>
       <c r="O16">
-        <v>2.837805895755757</v>
+        <v>2.804730216030118</v>
       </c>
       <c r="P16">
-        <v>2.495290286819945</v>
+        <v>2.464901915064643</v>
       </c>
       <c r="Q16">
-        <v>2.400358224423528</v>
+        <v>2.34364329232458</v>
       </c>
       <c r="R16">
-        <v>2.833678731143289</v>
+        <v>2.829547357094051</v>
       </c>
       <c r="S16">
-        <v>2.244410105164552</v>
+        <v>2.099988290655211</v>
       </c>
       <c r="T16">
-        <v>2.180060832634229</v>
+        <v>2.156258053691275</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>18.8583341025215</v>
+        <v>18.34380875315624</v>
       </c>
       <c r="C17">
-        <v>19.87706834616089</v>
+        <v>19.84910307106234</v>
       </c>
       <c r="D17">
-        <v>17.60464743556836</v>
+        <v>17.48915634644725</v>
       </c>
       <c r="E17">
-        <v>20.78099734536129</v>
+        <v>20.40146146278017</v>
       </c>
       <c r="F17">
-        <v>19.46389782983322</v>
+        <v>19.30928220930572</v>
       </c>
       <c r="G17">
-        <v>15.5095930865866</v>
+        <v>15.45495938742746</v>
       </c>
       <c r="H17">
-        <v>18.84992975242454</v>
+        <v>18.81679173137608</v>
       </c>
       <c r="I17">
-        <v>17.92994505427017</v>
+        <v>17.90733939019247</v>
       </c>
       <c r="J17">
-        <v>16.25030045844772</v>
+        <v>16.09592493957687</v>
       </c>
       <c r="K17">
-        <v>20.79705981812695</v>
+        <v>20.67016214174108</v>
       </c>
       <c r="L17">
-        <v>18.06468666535351</v>
+        <v>17.8705613519066</v>
       </c>
       <c r="M17">
-        <v>18.88454342445058</v>
+        <v>18.66622772305796</v>
       </c>
       <c r="N17">
-        <v>19.48243333830665</v>
+        <v>19.34010860040389</v>
       </c>
       <c r="O17">
-        <v>19.52927872774179</v>
+        <v>19.30165774441885</v>
       </c>
       <c r="P17">
-        <v>17.32618175421803</v>
+        <v>17.11517846733468</v>
       </c>
       <c r="Q17">
-        <v>16.68986587408742</v>
+        <v>16.29552281305671</v>
       </c>
       <c r="R17">
-        <v>16.36708386352385</v>
+        <v>16.34322140346714</v>
       </c>
       <c r="S17">
-        <v>25.73256822522924</v>
+        <v>24.07674597308314</v>
       </c>
       <c r="T17">
-        <v>23.21820161493289</v>
+        <v>22.96469597315436</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>19.65639922506856</v>
+        <v>19.12009969704242</v>
       </c>
       <c r="C18">
-        <v>20.31347456917105</v>
+        <v>20.28489530915941</v>
       </c>
       <c r="D18">
-        <v>21.0971467528014</v>
+        <v>20.95874395520228</v>
       </c>
       <c r="E18">
-        <v>19.2846791065609</v>
+        <v>18.93247138604762</v>
       </c>
       <c r="F18">
-        <v>21.77206610225362</v>
+        <v>21.59911505514085</v>
       </c>
       <c r="G18">
-        <v>17.86503077683658</v>
+        <v>17.80209987262256</v>
       </c>
       <c r="H18">
-        <v>18.84353913336197</v>
+        <v>18.81041234696912</v>
       </c>
       <c r="I18">
-        <v>20.52845287032071</v>
+        <v>20.50257106710176</v>
       </c>
       <c r="J18">
-        <v>17.91222972681483</v>
+        <v>17.74206611874606</v>
       </c>
       <c r="K18">
-        <v>21.3532890627727</v>
+        <v>21.22299743554471</v>
       </c>
       <c r="L18">
-        <v>17.93587759521795</v>
+        <v>17.74313647965822</v>
       </c>
       <c r="M18">
-        <v>21.57548125614439</v>
+        <v>21.32605683441227</v>
       </c>
       <c r="N18">
-        <v>19.33123762012134</v>
+        <v>19.19001741010732</v>
       </c>
       <c r="O18">
-        <v>18.88170962772549</v>
+        <v>18.66163630232532</v>
       </c>
       <c r="P18">
-        <v>22.52323599495206</v>
+        <v>22.24894146811396</v>
       </c>
       <c r="Q18">
-        <v>15.89047318657126</v>
+        <v>15.51501793217356</v>
       </c>
       <c r="R18">
-        <v>23.68388343923505</v>
+        <v>23.64935341988225</v>
       </c>
       <c r="S18">
-        <v>22.33692667336469</v>
+        <v>20.8996049141611</v>
       </c>
       <c r="T18">
-        <v>18.0036051489094</v>
+        <v>17.80703456375839</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>19.07383536706685</v>
+        <v>18.55343034334509</v>
       </c>
       <c r="C19">
-        <v>21.39543263904907</v>
+        <v>21.36533115983778</v>
       </c>
       <c r="D19">
-        <v>20.76709535533657</v>
+        <v>20.63085778118192</v>
       </c>
       <c r="E19">
-        <v>18.17112200568986</v>
+        <v>17.83925184983047</v>
       </c>
       <c r="F19">
-        <v>24.71063732219529</v>
+        <v>24.51434310833309</v>
       </c>
       <c r="G19">
-        <v>19.19133501718922</v>
+        <v>19.12373210730383</v>
       </c>
       <c r="H19">
-        <v>17.47355017182414</v>
+        <v>17.44283181472731</v>
       </c>
       <c r="I19">
-        <v>16.83604801200454</v>
+        <v>16.81482150826438</v>
       </c>
       <c r="J19">
-        <v>16.9465536453275</v>
+        <v>16.78556382124643</v>
       </c>
       <c r="K19">
-        <v>22.44337051348649</v>
+        <v>22.30642752282652</v>
       </c>
       <c r="L19">
-        <v>16.88498408398999</v>
+        <v>16.70353599753427</v>
       </c>
       <c r="M19">
-        <v>23.00160385738635</v>
+        <v>22.73569267455209</v>
       </c>
       <c r="N19">
-        <v>15.96807316237736</v>
+        <v>15.85142182893335</v>
       </c>
       <c r="O19">
-        <v>17.58896687442538</v>
+        <v>17.38396094505105</v>
       </c>
       <c r="P19">
-        <v>26.74074074528597</v>
+        <v>26.41508421743746</v>
       </c>
       <c r="Q19">
-        <v>17.47690431097833</v>
+        <v>17.06396534578075</v>
       </c>
       <c r="R19">
-        <v>26.998048138571</v>
+        <v>26.95868621859261</v>
       </c>
       <c r="S19">
-        <v>19.08150493308423</v>
+        <v>17.85366089528396</v>
       </c>
       <c r="T19">
-        <v>12.58028851719799</v>
+        <v>12.44293187919463</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>3.533273480238018</v>
+        <v>3.43687266551391</v>
       </c>
       <c r="C20">
-        <v>5.139712535904568</v>
+        <v>5.132481415475192</v>
       </c>
       <c r="D20">
-        <v>9.151573649507483</v>
+        <v>9.091536934099128</v>
       </c>
       <c r="E20">
-        <v>6.500765778057986</v>
+        <v>6.382038373592043</v>
       </c>
       <c r="F20">
-        <v>4.191104110423559</v>
+        <v>4.157811181720694</v>
       </c>
       <c r="G20">
-        <v>8.571071017330175</v>
+        <v>8.540878779995627</v>
       </c>
       <c r="H20">
-        <v>3.239245037338708</v>
+        <v>3.233550471277281</v>
       </c>
       <c r="I20">
-        <v>3.994613005187499</v>
+        <v>3.989576688598556</v>
       </c>
       <c r="J20">
-        <v>9.93350498379071</v>
+        <v>9.839138114082669</v>
       </c>
       <c r="K20">
-        <v>8.131655983147281</v>
+        <v>8.082038957545844</v>
       </c>
       <c r="L20">
-        <v>7.512553389308971</v>
+        <v>7.431822579608115</v>
       </c>
       <c r="M20">
-        <v>6.563969165229111</v>
+        <v>6.488086073961405</v>
       </c>
       <c r="N20">
-        <v>7.47704198389066</v>
+        <v>7.422420057452303</v>
       </c>
       <c r="O20">
-        <v>4.338154032538275</v>
+        <v>4.287591239080368</v>
       </c>
       <c r="P20">
-        <v>9.376145285562052</v>
+        <v>9.261959857888826</v>
       </c>
       <c r="Q20">
-        <v>5.549238692612189</v>
+        <v>5.418122973112472</v>
       </c>
       <c r="R20">
-        <v>4.375308622022921</v>
+        <v>4.368929622067927</v>
       </c>
       <c r="S20">
-        <v>4.295906329423596</v>
+        <v>4.019476195006591</v>
       </c>
       <c r="T20">
-        <v>3.230477013422819</v>
+        <v>3.195205369127517</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>31.2413683037042</v>
+        <v>30.38898782016176</v>
       </c>
       <c r="C21">
-        <v>29.52082246671749</v>
+        <v>29.47928928350154</v>
       </c>
       <c r="D21">
-        <v>28.64911486707091</v>
+        <v>28.46116918451957</v>
       </c>
       <c r="E21">
-        <v>28.06734949118554</v>
+        <v>27.5547385667042</v>
       </c>
       <c r="F21">
-        <v>29.66285785219833</v>
+        <v>29.42722461914637</v>
       </c>
       <c r="G21">
-        <v>23.59596568996806</v>
+        <v>23.51284713981151</v>
       </c>
       <c r="H21">
-        <v>29.78587662324252</v>
+        <v>29.73351329778446</v>
       </c>
       <c r="I21">
-        <v>31.24398216310939</v>
+        <v>31.20459046597418</v>
       </c>
       <c r="J21">
-        <v>23.89444296550542</v>
+        <v>23.66744919142955</v>
       </c>
       <c r="K21">
-        <v>29.95246531620412</v>
+        <v>29.76970398917549</v>
       </c>
       <c r="L21">
-        <v>29.5122000630721</v>
+        <v>29.19505838251699</v>
       </c>
       <c r="M21">
-        <v>30.63930105997745</v>
+        <v>30.28509389961645</v>
       </c>
       <c r="N21">
-        <v>23.81595837544892</v>
+        <v>23.64197599989914</v>
       </c>
       <c r="O21">
-        <v>29.12384137360594</v>
+        <v>28.7843922058195</v>
       </c>
       <c r="P21">
-        <v>33.71122772354182</v>
+        <v>33.30068257542753</v>
       </c>
       <c r="Q21">
-        <v>23.24924623547003</v>
+        <v>22.69992013564879</v>
       </c>
       <c r="R21">
-        <v>29.81220182153686</v>
+        <v>29.76873699413688</v>
       </c>
       <c r="S21">
-        <v>21.75818503064816</v>
+        <v>20.3581037552496</v>
       </c>
       <c r="T21">
-        <v>24.97911827810403</v>
+        <v>24.70638624161074</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>74.56028000500484</v>
+        <v>72.52599882673165</v>
       </c>
       <c r="C22">
-        <v>69.30707206978909</v>
+        <v>69.20956315635412</v>
       </c>
       <c r="D22">
-        <v>75.12672390957495</v>
+        <v>74.63387296222298</v>
       </c>
       <c r="E22">
-        <v>78.13651915072474</v>
+        <v>76.70946479597758</v>
       </c>
       <c r="F22">
-        <v>82.26675735106964</v>
+        <v>81.61325383148557</v>
       </c>
       <c r="G22">
-        <v>76.6662831386051</v>
+        <v>76.39622043449285</v>
       </c>
       <c r="H22">
-        <v>70.88953960629141</v>
+        <v>70.76491638029309</v>
       </c>
       <c r="I22">
-        <v>83.39578487027157</v>
+        <v>83.29064137470777</v>
       </c>
       <c r="J22">
-        <v>63.38539659357668</v>
+        <v>62.78324443565266</v>
       </c>
       <c r="K22">
-        <v>75.42021016624817</v>
+        <v>74.96001773970676</v>
       </c>
       <c r="L22">
-        <v>70.92510153281535</v>
+        <v>70.1629317912987</v>
       </c>
       <c r="M22">
-        <v>90.24775147928993</v>
+        <v>89.20443786982248</v>
       </c>
       <c r="N22">
-        <v>63.25547429671362</v>
+        <v>62.79337499711058</v>
       </c>
       <c r="O22">
-        <v>79.49210133541607</v>
+        <v>78.5655914256225</v>
       </c>
       <c r="P22">
-        <v>64.8271294688421</v>
+        <v>64.03764580814992</v>
       </c>
       <c r="Q22">
-        <v>60.87447987498071</v>
+        <v>59.43615622914344</v>
       </c>
       <c r="R22">
-        <v>74.03558702830092</v>
+        <v>73.92764652692823</v>
       </c>
       <c r="S22">
-        <v>58.79139832577278</v>
+        <v>55.00832837602887</v>
       </c>
       <c r="T22">
-        <v>66.86116230075505</v>
+        <v>66.13114530201342</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>11.99544767776964</v>
+        <v>11.66816734252667</v>
       </c>
       <c r="C23">
-        <v>12.48368820199442</v>
+        <v>12.46612475809346</v>
       </c>
       <c r="D23">
-        <v>12.71351447363287</v>
+        <v>12.63011049530893</v>
       </c>
       <c r="E23">
-        <v>17.18180793547733</v>
+        <v>16.86800621890157</v>
       </c>
       <c r="F23">
-        <v>24.95634555764649</v>
+        <v>24.75809950805102</v>
       </c>
       <c r="G23">
-        <v>11.67435072223737</v>
+        <v>11.63322695053837</v>
       </c>
       <c r="H23">
-        <v>10.15868782733326</v>
+        <v>10.14082893791201</v>
       </c>
       <c r="I23">
-        <v>8.358948743249496</v>
+        <v>8.348409972117704</v>
       </c>
       <c r="J23">
-        <v>11.38018878744419</v>
+        <v>11.27207862951806</v>
       </c>
       <c r="K23">
-        <v>10.74657277694167</v>
+        <v>10.68100028128933</v>
       </c>
       <c r="L23">
-        <v>6.932912573698933</v>
+        <v>6.858410654490416</v>
       </c>
       <c r="M23">
-        <v>10.41383841475353</v>
+        <v>10.29344871897922</v>
       </c>
       <c r="N23">
-        <v>19.65920445160789</v>
+        <v>19.51558835025312</v>
       </c>
       <c r="O23">
-        <v>7.556037476515682</v>
+        <v>7.467969058608048</v>
       </c>
       <c r="P23">
-        <v>8.991207944971805</v>
+        <v>8.881710396328181</v>
       </c>
       <c r="Q23">
-        <v>11.15152799085045</v>
+        <v>10.88804308831991</v>
       </c>
       <c r="R23">
-        <v>8.051960085348739</v>
+        <v>8.040220695637231</v>
       </c>
       <c r="S23">
-        <v>27.3375045399848</v>
+        <v>25.57840890913862</v>
       </c>
       <c r="T23">
-        <v>28.05795370176175</v>
+        <v>27.75160570469799</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>2.387090930348473</v>
+        <v>2.321962229784197</v>
       </c>
       <c r="C24">
-        <v>2.482575023350252</v>
+        <v>2.479082260118184</v>
       </c>
       <c r="D24">
-        <v>3.122416933442028</v>
+        <v>3.101933062143087</v>
       </c>
       <c r="E24">
-        <v>1.919979256387496</v>
+        <v>1.884913517746558</v>
       </c>
       <c r="F24">
-        <v>2.620887844812839</v>
+        <v>2.600068263657948</v>
       </c>
       <c r="G24">
-        <v>1.515344183390354</v>
+        <v>1.510006270411225</v>
       </c>
       <c r="H24">
-        <v>2.589798375105325</v>
+        <v>2.585245530920085</v>
       </c>
       <c r="I24">
-        <v>1.997306502593749</v>
+        <v>1.994788344299278</v>
       </c>
       <c r="J24">
-        <v>2.476054971637691</v>
+        <v>2.452532805264415</v>
       </c>
       <c r="K24">
-        <v>3.360551686401407</v>
+        <v>3.340046566730248</v>
       </c>
       <c r="L24">
-        <v>3.089846840934814</v>
+        <v>3.056642972104373</v>
       </c>
       <c r="M24">
-        <v>2.567682456064419</v>
+        <v>2.537998635611368</v>
       </c>
       <c r="N24">
-        <v>1.849702840884018</v>
+        <v>1.836190233528694</v>
       </c>
       <c r="O24">
-        <v>2.432176915720888</v>
+        <v>2.403828992129358</v>
       </c>
       <c r="P24">
-        <v>3.155525850202388</v>
+        <v>3.117096937491946</v>
       </c>
       <c r="Q24">
-        <v>2.090048517542254</v>
+        <v>2.040665488563576</v>
       </c>
       <c r="R24">
-        <v>3.076468460654068</v>
+        <v>3.071983110278263</v>
       </c>
       <c r="S24">
-        <v>0.9243790126722292</v>
+        <v>0.8648976843725201</v>
       </c>
       <c r="T24">
-        <v>3.037943309563759</v>
+        <v>3.004773825503355</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>23.71066477343819</v>
+        <v>23.06374983334257</v>
       </c>
       <c r="C25">
-        <v>24.99619568286687</v>
+        <v>24.96102824889145</v>
       </c>
       <c r="D25">
-        <v>25.97194053664456</v>
+        <v>25.80155781752771</v>
       </c>
       <c r="E25">
-        <v>25.16268633964111</v>
+        <v>24.70312502940595</v>
       </c>
       <c r="F25">
-        <v>25.02004769276346</v>
+        <v>24.8212956116816</v>
       </c>
       <c r="G25">
-        <v>21.70556625959088</v>
+        <v>21.62910678251208</v>
       </c>
       <c r="H25">
-        <v>25.11673057065442</v>
+        <v>25.07257556545013</v>
       </c>
       <c r="I25">
-        <v>23.82702264361839</v>
+        <v>23.7969820791759</v>
       </c>
       <c r="J25">
-        <v>22.11464118074751</v>
+        <v>21.90455526783469</v>
       </c>
       <c r="K25">
-        <v>25.05668894738248</v>
+        <v>24.90380023940391</v>
       </c>
       <c r="L25">
-        <v>25.43979135177393</v>
+        <v>25.16641226905456</v>
       </c>
       <c r="M25">
-        <v>24.31274325585996</v>
+        <v>24.03167458094514</v>
       </c>
       <c r="N25">
-        <v>23.25555633540882</v>
+        <v>23.0856678567601</v>
       </c>
       <c r="O25">
-        <v>21.73468668612035</v>
+        <v>21.48136085546984</v>
       </c>
       <c r="P25">
-        <v>22.22232863515595</v>
+        <v>21.95169864577133</v>
       </c>
       <c r="Q25">
-        <v>21.3830276704323</v>
+        <v>20.8777960137325</v>
       </c>
       <c r="R25">
-        <v>27.25611834056847</v>
+        <v>27.21638016603317</v>
       </c>
       <c r="S25">
-        <v>31.35922308497325</v>
+        <v>29.34134057361153</v>
       </c>
       <c r="T25">
-        <v>25.32755316694631</v>
+        <v>25.05101677852349</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>6.703431276626731</v>
+        <v>6.52053679078287</v>
       </c>
       <c r="C26">
-        <v>7.759796689901417</v>
+        <v>7.748879343069243</v>
       </c>
       <c r="D26">
-        <v>7.421254689530974</v>
+        <v>7.372569318814183</v>
       </c>
       <c r="E26">
-        <v>6.107972594174852</v>
+        <v>5.996419008426047</v>
       </c>
       <c r="F26">
-        <v>7.621919101723698</v>
+        <v>7.561372762967383</v>
       </c>
       <c r="G26">
-        <v>5.898802382548979</v>
+        <v>5.878023410917149</v>
       </c>
       <c r="H26">
-        <v>6.641450860772879</v>
+        <v>6.629775244932014</v>
       </c>
       <c r="I26">
-        <v>5.978255841566321</v>
+        <v>5.970718593520335</v>
       </c>
       <c r="J26">
-        <v>6.879801469095026</v>
+        <v>6.814444343899973</v>
       </c>
       <c r="K26">
-        <v>6.994422915430468</v>
+        <v>6.951744958864002</v>
       </c>
       <c r="L26">
-        <v>6.452234824168657</v>
+        <v>6.382898326344032</v>
       </c>
       <c r="M26">
-        <v>6.507718389774092</v>
+        <v>6.432485588387446</v>
       </c>
       <c r="N26">
-        <v>6.723320045474319</v>
+        <v>6.674204272988803</v>
       </c>
       <c r="O26">
-        <v>5.820935559949205</v>
+        <v>5.753090398103421</v>
       </c>
       <c r="P26">
-        <v>7.728357376465752</v>
+        <v>7.634239189794504</v>
       </c>
       <c r="Q26">
-        <v>6.932188042015148</v>
+        <v>6.768396417040317</v>
       </c>
       <c r="R26">
-        <v>7.324439811954552</v>
+        <v>7.313761113543283</v>
       </c>
       <c r="S26">
-        <v>7.407535778843932</v>
+        <v>6.930880574092447</v>
       </c>
       <c r="T26">
-        <v>7.061556952600672</v>
+        <v>6.984456040268456</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>11.96387240091318</v>
+        <v>11.63745355641842</v>
       </c>
       <c r="C27">
-        <v>12.82128546885134</v>
+        <v>12.8032470554893</v>
       </c>
       <c r="D27">
-        <v>13.06235592590387</v>
+        <v>12.97666345646411</v>
       </c>
       <c r="E27">
-        <v>16.82528445619637</v>
+        <v>16.517994142857</v>
       </c>
       <c r="F27">
-        <v>19.44652452025586</v>
+        <v>19.29204690831557</v>
       </c>
       <c r="G27">
-        <v>12.86530236337499</v>
+        <v>12.81998337563702</v>
       </c>
       <c r="H27">
-        <v>10.70987872147967</v>
+        <v>10.69105084301221</v>
       </c>
       <c r="I27">
-        <v>11.40032009367797</v>
+        <v>11.38594683120361</v>
       </c>
       <c r="J27">
-        <v>13.70981827288214</v>
+        <v>13.57957696965743</v>
       </c>
       <c r="K27">
-        <v>13.47896902326899</v>
+        <v>13.39672423174135</v>
       </c>
       <c r="L27">
-        <v>9.87352939435474</v>
+        <v>9.767427250209474</v>
       </c>
       <c r="M27">
-        <v>14.19008532581477</v>
+        <v>14.02604014023112</v>
       </c>
       <c r="N27">
-        <v>11.91587747151026</v>
+        <v>11.8288285845173</v>
       </c>
       <c r="O27">
-        <v>12.1768542234877</v>
+        <v>12.03492847339879</v>
       </c>
       <c r="P27">
-        <v>12.81497221387036</v>
+        <v>12.65890775045867</v>
       </c>
       <c r="Q27">
-        <v>12.39204009775053</v>
+        <v>12.09924475347222</v>
       </c>
       <c r="R27">
-        <v>10.71670470400026</v>
+        <v>10.70108023845276</v>
       </c>
       <c r="S27">
-        <v>15.46436966610594</v>
+        <v>14.46927865208714</v>
       </c>
       <c r="T27">
-        <v>14.21086156669463</v>
+        <v>14.05570167785235</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>23.64751421972527</v>
+        <v>23.00232226112605</v>
       </c>
       <c r="C28">
-        <v>30.47515230156424</v>
+        <v>30.43227646077417</v>
       </c>
       <c r="D28">
-        <v>30.64821330666606</v>
+        <v>30.44715301577654</v>
       </c>
       <c r="E28">
-        <v>26.74620620865523</v>
+        <v>26.25772412040914</v>
       </c>
       <c r="F28">
-        <v>30.1435194171719</v>
+        <v>29.90406794654071</v>
       </c>
       <c r="G28">
-        <v>25.22473383918105</v>
+        <v>25.1358778316607</v>
       </c>
       <c r="H28">
-        <v>25.23256054116345</v>
+        <v>25.18820190782626</v>
       </c>
       <c r="I28">
-        <v>23.64859123775287</v>
+        <v>23.61877563554031</v>
       </c>
       <c r="J28">
-        <v>32.24289206118388</v>
+        <v>31.93658922053366</v>
       </c>
       <c r="K28">
-        <v>30.79799770246159</v>
+        <v>30.61007718004365</v>
       </c>
       <c r="L28">
-        <v>22.2392001273689</v>
+        <v>22.00021498605372</v>
       </c>
       <c r="M28">
-        <v>25.89438270688934</v>
+        <v>25.59502941061297</v>
       </c>
       <c r="N28">
-        <v>33.02385283468489</v>
+        <v>32.78260416119427</v>
       </c>
       <c r="O28">
-        <v>23.97442938099792</v>
+        <v>23.69499851893761</v>
       </c>
       <c r="P28">
-        <v>36.72990474787948</v>
+        <v>36.28259727190727</v>
       </c>
       <c r="Q28">
-        <v>29.8609504818537</v>
+        <v>29.15540505044414</v>
       </c>
       <c r="R28">
-        <v>34.631493060812</v>
+        <v>34.58100192709762</v>
       </c>
       <c r="S28">
-        <v>30.05080255012802</v>
+        <v>28.11711341650453</v>
       </c>
       <c r="T28">
-        <v>27.00668560192954</v>
+        <v>26.71181577181208</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>5.209920681316111</v>
+        <v>5.067774707862334</v>
       </c>
       <c r="C29">
-        <v>5.281338706390884</v>
+        <v>5.273908330480276</v>
       </c>
       <c r="D29">
-        <v>5.717078414502175</v>
+        <v>5.679572885629861</v>
       </c>
       <c r="E29">
-        <v>4.312236368445872</v>
+        <v>4.233479395967751</v>
       </c>
       <c r="F29">
-        <v>5.811785703854227</v>
+        <v>5.765618545516755</v>
       </c>
       <c r="G29">
-        <v>4.458318016601561</v>
+        <v>4.442613258654981</v>
       </c>
       <c r="H29">
-        <v>5.082938636889322</v>
+        <v>5.074002872684917</v>
       </c>
       <c r="I29">
-        <v>4.424616618421968</v>
+        <v>4.419038163125765</v>
       </c>
       <c r="J29">
-        <v>4.518690504124135</v>
+        <v>4.475763593758714</v>
       </c>
       <c r="K29">
-        <v>5.219444248249129</v>
+        <v>5.187596700907312</v>
       </c>
       <c r="L29">
-        <v>4.274261949254513</v>
+        <v>4.228330212046771</v>
       </c>
       <c r="M29">
-        <v>5.454670784564683</v>
+        <v>5.391611792274922</v>
       </c>
       <c r="N29">
-        <v>5.349770884248529</v>
+        <v>5.310689280543339</v>
       </c>
       <c r="O29">
-        <v>5.282758527383256</v>
+        <v>5.221186018361074</v>
       </c>
       <c r="P29">
-        <v>5.337904494255624</v>
+        <v>5.272897938897104</v>
       </c>
       <c r="Q29">
-        <v>4.605955321343119</v>
+        <v>4.497127213670357</v>
       </c>
       <c r="R29">
-        <v>5.289590225810015</v>
+        <v>5.281878245072808</v>
       </c>
       <c r="S29">
-        <v>5.757050353319023</v>
+        <v>5.386599491270788</v>
       </c>
       <c r="T29">
-        <v>5.413945522231545</v>
+        <v>5.35483389261745</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>8.681622371684028</v>
+        <v>8.444755490465143</v>
       </c>
       <c r="C30">
-        <v>13.19922972613749</v>
+        <v>13.18065957867147</v>
       </c>
       <c r="D30">
-        <v>14.34743228286471</v>
+        <v>14.25330937659783</v>
       </c>
       <c r="E30">
-        <v>9.413917583871006</v>
+        <v>9.241985531748497</v>
       </c>
       <c r="F30">
-        <v>11.04115188663893</v>
+        <v>10.95344414355397</v>
       </c>
       <c r="G30">
-        <v>11.51782564940213</v>
+        <v>11.47725324895398</v>
       </c>
       <c r="H30">
-        <v>11.61814545574702</v>
+        <v>11.59772085185124</v>
       </c>
       <c r="I30">
-        <v>10.41653612620322</v>
+        <v>10.4034031960236</v>
       </c>
       <c r="J30">
-        <v>15.35783712006027</v>
+        <v>15.21193987463975</v>
       </c>
       <c r="K30">
-        <v>12.17710488601623</v>
+        <v>12.10280369495096</v>
       </c>
       <c r="L30">
-        <v>8.596434589230183</v>
+        <v>8.504056260722511</v>
       </c>
       <c r="M30">
-        <v>9.994439250699198</v>
+        <v>9.878898039773373</v>
       </c>
       <c r="N30">
-        <v>15.734133518817</v>
+        <v>15.61919118126055</v>
       </c>
       <c r="O30">
-        <v>13.84568211378864</v>
+        <v>13.68430555598262</v>
       </c>
       <c r="P30">
-        <v>19.02838907944767</v>
+        <v>18.79665581606544</v>
       </c>
       <c r="Q30">
-        <v>14.57874245841974</v>
+        <v>14.23428037763348</v>
       </c>
       <c r="R30">
-        <v>17.21175442598268</v>
+        <v>17.18666047485976</v>
       </c>
       <c r="S30">
-        <v>10.6254464867261</v>
+        <v>9.941727295632727</v>
       </c>
       <c r="T30">
-        <v>14.95032729656041</v>
+        <v>14.78709362416107</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>1.589025807801414</v>
+        <v>1.545671285898012</v>
       </c>
       <c r="C31">
-        <v>2.086515790769333</v>
+        <v>2.083580247807455</v>
       </c>
       <c r="D31">
-        <v>1.709078028456495</v>
+        <v>1.69786602982819</v>
       </c>
       <c r="E31">
-        <v>2.927042330979813</v>
+        <v>2.87358399228806</v>
       </c>
       <c r="F31">
-        <v>2.717681998172403</v>
+        <v>2.696093512031678</v>
       </c>
       <c r="G31">
-        <v>1.547859053592842</v>
+        <v>1.542406604556775</v>
       </c>
       <c r="H31">
-        <v>1.86685959365242</v>
+        <v>1.863577669882862</v>
       </c>
       <c r="I31">
-        <v>1.425843756781212</v>
+        <v>1.424046085628539</v>
       </c>
       <c r="J31">
-        <v>3.100559670279603</v>
+        <v>3.071104799022708</v>
       </c>
       <c r="K31">
-        <v>1.847704042558871</v>
+        <v>1.836429884014348</v>
       </c>
       <c r="L31">
-        <v>1.224471587447223</v>
+        <v>1.21131326728793</v>
       </c>
       <c r="M31">
-        <v>2.024200699094598</v>
+        <v>2.000799826462957</v>
       </c>
       <c r="N31">
-        <v>3.702414551781673</v>
+        <v>3.675367356416523</v>
       </c>
       <c r="O31">
-        <v>1.108293354898422</v>
+        <v>1.09537578498869</v>
       </c>
       <c r="P31">
-        <v>2.897033623569019</v>
+        <v>2.861752704468893</v>
       </c>
       <c r="Q31">
-        <v>2.599479675677554</v>
+        <v>2.538059962653655</v>
       </c>
       <c r="R31">
-        <v>1.424479601814991</v>
+        <v>1.4224027756752</v>
       </c>
       <c r="S31">
-        <v>1.21732231330652</v>
+        <v>1.138990863574633</v>
       </c>
       <c r="T31">
-        <v>1.482339135906041</v>
+        <v>1.466154362416107</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>1.638756868850341</v>
+        <v>1.594045499018516</v>
       </c>
       <c r="C32">
-        <v>2.150741612268942</v>
+        <v>2.147715709263249</v>
       </c>
       <c r="D32">
-        <v>1.762180357256529</v>
+        <v>1.750619993470078</v>
       </c>
       <c r="E32">
-        <v>3.017330744563951</v>
+        <v>2.962223414143506</v>
       </c>
       <c r="F32">
-        <v>2.801239344234934</v>
+        <v>2.778987102508147</v>
       </c>
       <c r="G32">
-        <v>1.595497119238347</v>
+        <v>1.589876861560721</v>
       </c>
       <c r="H32">
-        <v>1.925173992598345</v>
+        <v>1.921789552596362</v>
       </c>
       <c r="I32">
-        <v>1.470049735711858</v>
+        <v>1.468196330673392</v>
       </c>
       <c r="J32">
-        <v>3.196468363740436</v>
+        <v>3.166102373679609</v>
       </c>
       <c r="K32">
-        <v>1.904445818952331</v>
+        <v>1.892825438410982</v>
       </c>
       <c r="L32">
-        <v>1.26295722425602</v>
+        <v>1.249385332776775</v>
       </c>
       <c r="M32">
-        <v>2.08624199555234</v>
+        <v>2.062123891434236</v>
       </c>
       <c r="N32">
-        <v>3.816751612299921</v>
+        <v>3.788869152063681</v>
       </c>
       <c r="O32">
-        <v>1.142628091397436</v>
+        <v>1.129310337405486</v>
       </c>
       <c r="P32">
-        <v>2.985865317551384</v>
+        <v>2.949502580213657</v>
       </c>
       <c r="Q32">
-        <v>2.67941894442917</v>
+        <v>2.61611045074197</v>
       </c>
       <c r="R32">
-        <v>1.468623188998768</v>
+        <v>1.466482003526875</v>
       </c>
       <c r="S32">
-        <v>1.254833345704814</v>
+        <v>1.174088160911489</v>
       </c>
       <c r="T32">
-        <v>1.528342764261745</v>
+        <v>1.511655704697986</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>2.848879354374219</v>
+        <v>2.771151351617449</v>
       </c>
       <c r="C33">
-        <v>4.017407475597307</v>
+        <v>4.011755339010487</v>
       </c>
       <c r="D33">
-        <v>4.240833673861216</v>
+        <v>4.21301269638534</v>
       </c>
       <c r="E33">
-        <v>3.799830328959819</v>
+        <v>3.730431736890696</v>
       </c>
       <c r="F33">
-        <v>4.367319107565333</v>
+        <v>4.332626377477999</v>
       </c>
       <c r="G33">
-        <v>2.970195585008638</v>
+        <v>2.959732849388868</v>
       </c>
       <c r="H33">
-        <v>4.92876495200489</v>
+        <v>4.920100223867034</v>
       </c>
       <c r="I33">
-        <v>3.116923387146302</v>
+        <v>3.112993641526198</v>
       </c>
       <c r="J33">
-        <v>6.069336402979435</v>
+        <v>6.01167857943288</v>
       </c>
       <c r="K33">
-        <v>2.911412554948948</v>
+        <v>2.89364795305548</v>
       </c>
       <c r="L33">
-        <v>2.380611534029848</v>
+        <v>2.355029193809953</v>
       </c>
       <c r="M33">
-        <v>4.107133825502525</v>
+        <v>4.059653101098724</v>
       </c>
       <c r="N33">
-        <v>4.942068997400567</v>
+        <v>4.905965772380447</v>
       </c>
       <c r="O33">
-        <v>2.548755323368705</v>
+        <v>2.519048635218947</v>
       </c>
       <c r="P33">
-        <v>5.558783300914477</v>
+        <v>5.491086819127329</v>
       </c>
       <c r="Q33">
-        <v>6.933641483265179</v>
+        <v>6.769815516823741</v>
       </c>
       <c r="R33">
-        <v>6.275180701201674</v>
+        <v>6.266031774607319</v>
       </c>
       <c r="S33">
-        <v>2.336401446522272</v>
+        <v>2.186060234124167</v>
       </c>
       <c r="T33">
-        <v>2.845409605704699</v>
+        <v>2.814342281879195</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>4.628146205235813</v>
+        <v>4.501873198817707</v>
       </c>
       <c r="C34">
-        <v>4.480162753581665</v>
+        <v>4.47385956129454</v>
       </c>
       <c r="D34">
-        <v>7.755390881518883</v>
+        <v>7.704513490037764</v>
       </c>
       <c r="E34">
-        <v>5.06541151082296</v>
+        <v>4.972898846659327</v>
       </c>
       <c r="F34">
-        <v>6.418196938149621</v>
+        <v>6.367212622935087</v>
       </c>
       <c r="G34">
-        <v>3.408768252856146</v>
+        <v>3.396760612282336</v>
       </c>
       <c r="H34">
-        <v>4.749827618253011</v>
+        <v>4.741477460472186</v>
       </c>
       <c r="I34">
-        <v>3.732592111889486</v>
+        <v>3.72788614524179</v>
       </c>
       <c r="J34">
-        <v>5.133677546163065</v>
+        <v>5.084908347283879</v>
       </c>
       <c r="K34">
-        <v>5.726124336044252</v>
+        <v>5.691185172561766</v>
       </c>
       <c r="L34">
-        <v>3.803794674795959</v>
+        <v>3.762918635968855</v>
       </c>
       <c r="M34">
-        <v>4.804477997687545</v>
+        <v>4.748935591375909</v>
       </c>
       <c r="N34">
-        <v>5.497957732420206</v>
+        <v>5.457793581480774</v>
       </c>
       <c r="O34">
-        <v>5.022453315786077</v>
+        <v>4.9639147605035</v>
       </c>
       <c r="P34">
-        <v>6.379876256102824</v>
+        <v>6.302180265200557</v>
       </c>
       <c r="Q34">
-        <v>6.344271056378263</v>
+        <v>6.194370554645348</v>
       </c>
       <c r="R34">
-        <v>6.26414480440573</v>
+        <v>6.255011967644399</v>
       </c>
       <c r="S34">
-        <v>2.681145696658968</v>
+        <v>2.508621109648604</v>
       </c>
       <c r="T34">
-        <v>3.26540569421141</v>
+        <v>3.229752684563759</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>108.3608244979252</v>
+        <v>105.4043390109676</v>
       </c>
       <c r="C35">
-        <v>103.8498597329952</v>
+        <v>103.7037521759952</v>
       </c>
       <c r="D35">
-        <v>112.2811979326022</v>
+        <v>111.5446039232919</v>
       </c>
       <c r="E35">
-        <v>90.14642154910038</v>
+        <v>88.50002310654418</v>
       </c>
       <c r="F35">
-        <v>103.165194171719</v>
+        <v>102.3456794654071</v>
       </c>
       <c r="G35">
-        <v>87.9814579690708</v>
+        <v>87.67153671714433</v>
       </c>
       <c r="H35">
-        <v>99.43403847663025</v>
+        <v>99.25923425702578</v>
       </c>
       <c r="I35">
-        <v>103.1751473339857</v>
+        <v>103.0450664712313</v>
       </c>
       <c r="J35">
-        <v>84.36890089343116</v>
+        <v>83.56740846039642</v>
       </c>
       <c r="K35">
-        <v>105.2360157111385</v>
+        <v>104.5938958161805</v>
       </c>
       <c r="L35">
-        <v>102.1424509328649</v>
+        <v>101.04481576925</v>
       </c>
       <c r="M35">
-        <v>94.04633325707594</v>
+        <v>92.95910595446404</v>
       </c>
       <c r="N35">
-        <v>98.89553960825684</v>
+        <v>98.17307945607337</v>
       </c>
       <c r="O35">
-        <v>103.6046681446542</v>
+        <v>102.3971173298649</v>
       </c>
       <c r="P35">
-        <v>104.665343220573</v>
+        <v>103.3906981917028</v>
       </c>
       <c r="Q35">
-        <v>108.0204804228088</v>
+        <v>105.4682054539564</v>
       </c>
       <c r="R35">
-        <v>114.5942055836733</v>
+        <v>114.4271324705719</v>
       </c>
       <c r="S35">
-        <v>105.5435414913314</v>
+        <v>98.7520956068002</v>
       </c>
       <c r="T35">
-        <v>106.1141841547819</v>
+        <v>104.9555869127517</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>8.133001936303016</v>
+        <v>7.911103456834187</v>
       </c>
       <c r="C36">
-        <v>13.64139980492326</v>
+        <v>13.62220756330944</v>
       </c>
       <c r="D36">
-        <v>7.772547018515817</v>
+        <v>7.721557078291296</v>
       </c>
       <c r="E36">
-        <v>7.108090406183773</v>
+        <v>6.978271065901747</v>
       </c>
       <c r="F36">
-        <v>7.060182092055797</v>
+        <v>7.004098030952312</v>
       </c>
       <c r="G36">
-        <v>5.575166000068405</v>
+        <v>5.555527061747486</v>
       </c>
       <c r="H36">
-        <v>12.44093766005254</v>
+        <v>12.41906659424719</v>
       </c>
       <c r="I36">
-        <v>10.32732042327046</v>
+        <v>10.31429997420581</v>
       </c>
       <c r="J36">
-        <v>7.045994395931737</v>
+        <v>6.979058461816893</v>
       </c>
       <c r="K36">
-        <v>7.270939177854935</v>
+        <v>7.226573998599714</v>
       </c>
       <c r="L36">
-        <v>11.81587592145992</v>
+        <v>11.68890108600361</v>
       </c>
       <c r="M36">
-        <v>9.226781609195401</v>
+        <v>9.120114942528737</v>
       </c>
       <c r="N36">
-        <v>9.980421835237555</v>
+        <v>9.907512004253238</v>
       </c>
       <c r="O36">
-        <v>6.327173302748629</v>
+        <v>6.25342775234177</v>
       </c>
       <c r="P36">
-        <v>13.76411085407833</v>
+        <v>13.59648750391174</v>
       </c>
       <c r="Q36">
-        <v>9.182841817685649</v>
+        <v>8.965872431672235</v>
       </c>
       <c r="R36">
-        <v>14.94939558281405</v>
+        <v>14.92760004746143</v>
       </c>
       <c r="S36">
-        <v>7.494168401287609</v>
+        <v>7.011938617941853</v>
       </c>
       <c r="T36">
-        <v>7.074335738255034</v>
+        <v>6.997095302013422</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>23.97510771711105</v>
+        <v>23.32097779199922</v>
       </c>
       <c r="C37">
-        <v>24.2806541587238</v>
+        <v>24.24649342831344</v>
       </c>
       <c r="D37">
-        <v>25.3273599609026</v>
+        <v>25.16120585885924</v>
       </c>
       <c r="E37">
-        <v>24.95587185382445</v>
+        <v>24.50008772122425</v>
       </c>
       <c r="F37">
-        <v>27.40184570577362</v>
+        <v>27.18417330457024</v>
       </c>
       <c r="G37">
-        <v>27.76769915292445</v>
+        <v>27.6698853602999</v>
       </c>
       <c r="H37">
-        <v>23.77230408536686</v>
+        <v>23.73051257083616</v>
       </c>
       <c r="I37">
-        <v>26.37489452016656</v>
+        <v>26.34164165721562</v>
       </c>
       <c r="J37">
-        <v>18.58725121819565</v>
+        <v>18.4106750029725</v>
       </c>
       <c r="K37">
-        <v>28.76248637183987</v>
+        <v>28.58698595401228</v>
       </c>
       <c r="L37">
-        <v>24.24595118954187</v>
+        <v>23.98540125797204</v>
       </c>
       <c r="M37">
-        <v>31.92810559172628</v>
+        <v>31.55899914261984</v>
       </c>
       <c r="N37">
-        <v>17.76211190800907</v>
+        <v>17.63235460931804</v>
       </c>
       <c r="O37">
-        <v>27.70573690797222</v>
+        <v>27.38281627344204</v>
       </c>
       <c r="P37">
-        <v>22.98740160314821</v>
+        <v>22.70745433236588</v>
       </c>
       <c r="Q37">
-        <v>21.24640419292954</v>
+        <v>20.74440063409065</v>
       </c>
       <c r="R37">
-        <v>27.07020592531372</v>
+        <v>27.03073880258092</v>
       </c>
       <c r="S37">
-        <v>35.69978540534719</v>
+        <v>33.40259926544771</v>
       </c>
       <c r="T37">
-        <v>28.00087512583893</v>
+        <v>27.69515033557047</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>4.353441296584599</v>
+        <v>4.234663259675874</v>
       </c>
       <c r="C38">
-        <v>5.381794478480016</v>
+        <v>5.374222770193184</v>
       </c>
       <c r="D38">
-        <v>5.022663345578647</v>
+        <v>4.989713361082078</v>
       </c>
       <c r="E38">
-        <v>3.85770751715478</v>
+        <v>3.787251879105724</v>
       </c>
       <c r="F38">
-        <v>4.089346154327607</v>
+        <v>4.05686156163549</v>
       </c>
       <c r="G38">
-        <v>3.432209205792823</v>
+        <v>3.420118992712849</v>
       </c>
       <c r="H38">
-        <v>5.018233618880831</v>
+        <v>5.009411605564459</v>
       </c>
       <c r="I38">
-        <v>4.390055580348918</v>
+        <v>4.384520698817971</v>
       </c>
       <c r="J38">
-        <v>3.80925902348637</v>
+        <v>3.773071610227898</v>
       </c>
       <c r="K38">
-        <v>5.028440240389453</v>
+        <v>4.997758144558078</v>
       </c>
       <c r="L38">
-        <v>4.355945749828287</v>
+        <v>4.309136228594523</v>
       </c>
       <c r="M38">
-        <v>5.329760974363095</v>
+        <v>5.268146008132746</v>
       </c>
       <c r="N38">
-        <v>3.494802520840645</v>
+        <v>3.469271990636158</v>
       </c>
       <c r="O38">
-        <v>5.198917891746127</v>
+        <v>5.138322576413082</v>
       </c>
       <c r="P38">
-        <v>5.570787583885068</v>
+        <v>5.50294491044419</v>
       </c>
       <c r="Q38">
-        <v>4.185184079459613</v>
+        <v>4.086297826369136</v>
       </c>
       <c r="R38">
-        <v>5.332035982717493</v>
+        <v>5.324262118007111</v>
       </c>
       <c r="S38">
-        <v>4.24142602046417</v>
+        <v>3.968501548874491</v>
       </c>
       <c r="T38">
-        <v>6.083553890520136</v>
+        <v>6.017131208053691</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>7.96565296896377</v>
+        <v>7.748320390460425</v>
       </c>
       <c r="C39">
-        <v>13.47095435555891</v>
+        <v>13.45200191559983</v>
       </c>
       <c r="D39">
-        <v>10.22178981455433</v>
+        <v>10.15473220134336</v>
       </c>
       <c r="E39">
-        <v>13.8365064578086</v>
+        <v>13.5838019988729</v>
       </c>
       <c r="F39">
-        <v>9.703407049182379</v>
+        <v>9.626325967311889</v>
       </c>
       <c r="G39">
-        <v>6.64286359834544</v>
+        <v>6.619463615550204</v>
       </c>
       <c r="H39">
-        <v>10.25294945850612</v>
+        <v>10.23492485791465</v>
       </c>
       <c r="I39">
-        <v>7.695055314218333</v>
+        <v>7.685353564716817</v>
       </c>
       <c r="J39">
-        <v>11.91098117491827</v>
+        <v>11.79782856559632</v>
       </c>
       <c r="K39">
-        <v>9.251307091981614</v>
+        <v>9.194858277400558</v>
       </c>
       <c r="L39">
-        <v>6.793107607332284</v>
+        <v>6.720108049245226</v>
       </c>
       <c r="M39">
-        <v>6.28933302624284</v>
+        <v>6.216624879688541</v>
       </c>
       <c r="N39">
-        <v>12.73880342024028</v>
+        <v>12.64574282424092</v>
       </c>
       <c r="O39">
-        <v>9.402926907264998</v>
+        <v>9.293332308376664</v>
       </c>
       <c r="P39">
-        <v>10.81665924203284</v>
+        <v>10.68493081591203</v>
       </c>
       <c r="Q39">
-        <v>7.75192890703172</v>
+        <v>7.568768694891401</v>
       </c>
       <c r="R39">
-        <v>10.4416561992398</v>
+        <v>10.42643274183848</v>
       </c>
       <c r="S39">
-        <v>6.584079305719492</v>
+        <v>6.160411332554801</v>
       </c>
       <c r="T39">
-        <v>4.257039460989934</v>
+        <v>4.210559395973154</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>8.195363108094526</v>
+        <v>7.971763184397993</v>
       </c>
       <c r="C40">
-        <v>7.848724750439338</v>
+        <v>7.837682289700341</v>
       </c>
       <c r="D40">
-        <v>9.327219813999903</v>
+        <v>9.266030813837684</v>
       </c>
       <c r="E40">
-        <v>10.19101529736868</v>
+        <v>10.00489064122228</v>
       </c>
       <c r="F40">
-        <v>7.152012442678972</v>
+        <v>7.095198907614568</v>
       </c>
       <c r="G40">
-        <v>7.88674642353363</v>
+        <v>7.858964770653231</v>
       </c>
       <c r="H40">
-        <v>7.982682036529152</v>
+        <v>7.968648547342508</v>
       </c>
       <c r="I40">
-        <v>8.476295523683573</v>
+        <v>8.465608804418586</v>
       </c>
       <c r="J40">
-        <v>10.58363414251758</v>
+        <v>10.48309113923784</v>
       </c>
       <c r="K40">
-        <v>9.049114564833088</v>
+        <v>8.993899470888607</v>
       </c>
       <c r="L40">
-        <v>8.108688049265638</v>
+        <v>8.021551104221032</v>
       </c>
       <c r="M40">
-        <v>8.507102570285593</v>
+        <v>8.408755788861891</v>
       </c>
       <c r="N40">
-        <v>9.832987204569287</v>
+        <v>9.761154425655585</v>
       </c>
       <c r="O40">
-        <v>9.108286959168803</v>
+        <v>9.002126498102294</v>
       </c>
       <c r="P40">
-        <v>7.86360563126773</v>
+        <v>7.767840351964459</v>
       </c>
       <c r="Q40">
-        <v>8.600738597048881</v>
+        <v>8.397522968410962</v>
       </c>
       <c r="R40">
-        <v>8.38897939519412</v>
+        <v>8.376748646735596</v>
       </c>
       <c r="S40">
-        <v>7.062791528707236</v>
+        <v>6.60831969856801</v>
       </c>
       <c r="T40">
-        <v>6.963586262583893</v>
+        <v>6.887555033557046</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>10.992932637577</v>
+        <v>10.69300463358953</v>
       </c>
       <c r="C41">
-        <v>11.90153876865823</v>
+        <v>11.8847943574621</v>
       </c>
       <c r="D41">
-        <v>8.006197265235969</v>
+        <v>7.95367451831561</v>
       </c>
       <c r="E41">
-        <v>7.254712616277674</v>
+        <v>7.122215426179819</v>
       </c>
       <c r="F41">
-        <v>7.970212593726921</v>
+        <v>7.906899511389098</v>
       </c>
       <c r="G41">
-        <v>16.5825838032687</v>
+        <v>16.52417041423062</v>
       </c>
       <c r="H41">
-        <v>10.18265264881788</v>
+        <v>10.1647516294381</v>
       </c>
       <c r="I41">
-        <v>6.194463265790755</v>
+        <v>6.186653428376072</v>
       </c>
       <c r="J41">
-        <v>4.965288237033358</v>
+        <v>4.918118712390084</v>
       </c>
       <c r="K41">
-        <v>7.677721771999598</v>
+        <v>7.630874522372768</v>
       </c>
       <c r="L41">
-        <v>6.301433961570924</v>
+        <v>6.233717988102029</v>
       </c>
       <c r="M41">
-        <v>6.019660190973187</v>
+        <v>5.950069610613378</v>
       </c>
       <c r="N41">
-        <v>7.786203377791976</v>
+        <v>7.729322939103502</v>
       </c>
       <c r="O41">
-        <v>11.07175479756594</v>
+        <v>10.9427093909605</v>
       </c>
       <c r="P41">
-        <v>4.736890060194758</v>
+        <v>4.679202833632978</v>
       </c>
       <c r="Q41">
-        <v>6.493975505131289</v>
+        <v>6.340537832338009</v>
       </c>
       <c r="R41">
-        <v>7.117304518246056</v>
+        <v>7.106927813623884</v>
       </c>
       <c r="S41">
-        <v>5.648982855219178</v>
+        <v>5.285485848943179</v>
       </c>
       <c r="T41">
-        <v>7.503702936241612</v>
+        <v>7.421774496644295</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>6.46582731828186</v>
+        <v>6.28941555031824</v>
       </c>
       <c r="C42">
-        <v>6.733006953875625</v>
+        <v>6.723534209282385</v>
       </c>
       <c r="D42">
-        <v>7.712092059574239</v>
+        <v>7.661498719683608</v>
       </c>
       <c r="E42">
-        <v>8.375214979732112</v>
+        <v>8.222253379462778</v>
       </c>
       <c r="F42">
-        <v>5.237639187345353</v>
+        <v>5.196032884223001</v>
       </c>
       <c r="G42">
-        <v>6.121113355561337</v>
+        <v>6.099551276935562</v>
       </c>
       <c r="H42">
-        <v>5.634928358418557</v>
+        <v>5.625022200835991</v>
       </c>
       <c r="I42">
-        <v>4.957499600804123</v>
+        <v>4.951249298848269</v>
       </c>
       <c r="J42">
-        <v>5.399439803615603</v>
+        <v>5.348145901485825</v>
       </c>
       <c r="K42">
-        <v>6.716308293107592</v>
+        <v>6.675327311962188</v>
       </c>
       <c r="L42">
-        <v>4.58057620140616</v>
+        <v>4.531352774100839</v>
       </c>
       <c r="M42">
-        <v>7.244768991692067</v>
+        <v>7.161015480246249</v>
       </c>
       <c r="N42">
-        <v>4.855563984508472</v>
+        <v>4.820092703305294</v>
       </c>
       <c r="O42">
-        <v>7.871437962960119</v>
+        <v>7.779693435460016</v>
       </c>
       <c r="P42">
-        <v>5.886100083245895</v>
+        <v>5.814417442367047</v>
       </c>
       <c r="Q42">
-        <v>5.268724531356518</v>
+        <v>5.144236714911658</v>
       </c>
       <c r="R42">
-        <v>4.641867975401888</v>
+        <v>4.635100344095348</v>
       </c>
       <c r="S42">
-        <v>6.099115243998699</v>
+        <v>5.70665341698545</v>
       </c>
       <c r="T42">
-        <v>6.710566306627517</v>
+        <v>6.63729765100671</v>
       </c>
     </row>
   </sheetData>
